--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,27 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allan/Desktop/Java/Final Pro/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Team" sheetId="2" r:id="rId5"/>
-    <sheet name="Backlog" sheetId="3" r:id="rId6"/>
-    <sheet name="Burndown README" sheetId="4" r:id="rId7"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
-    <sheet name="Stories" sheetId="10" r:id="rId13"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Team" sheetId="2" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="4" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
+    <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="242">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -485,18 +500,12 @@
     <t>DateCheck.java</t>
   </si>
   <si>
-    <t>testCheckBirthDatesAfterCurrentDate,testCheckDeathDatesAfterCurrentDate,testCheckMarriageDateAfterCurrentDate,testCheckDivorceDateAfterCurrentDate,testCheckBirthDatesBeforeCurrentDate,testCheckDeathDatesBeforeCurrentDate,testCheckMarriageDateBeforeCurrentDate,</t>
-  </si>
-  <si>
     <t>checkBigamy</t>
   </si>
   <si>
     <t>149-264</t>
   </si>
   <si>
-    <t>testCheckDivorceDateBeforeCurrentDate,checkbigamybro</t>
-  </si>
-  <si>
     <t>US05_Marriage_Before_Death</t>
   </si>
   <si>
@@ -515,24 +524,12 @@
     <t>TestUS08BirthBeforeMarriageOfParents.java</t>
   </si>
   <si>
-    <t>testBirthBeforeMarriage,testBirthNineMonthsAfterDivorce,testBirthAfterDivorceBeforeNineMonths,testWhenMarriageDateIsNull,testWhenDivroceDateIsNull,testWhenChildIdIsNull,testWhenMarriageDateDivorceDateIsNull</t>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
     <t>Keep doing:</t>
   </si>
   <si>
-    <t>complete all the planned user stories on time</t>
-  </si>
-  <si>
-    <t>scrum meeting on time</t>
-  </si>
-  <si>
-    <t>communicating trough slack</t>
-  </si>
-  <si>
     <t>Avoid:</t>
   </si>
   <si>
@@ -738,19 +735,45 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>testCheckBirthDatesAfterCurrentDate, testCheckDeathDatesAfterCurrentDate, testCheckMarriageDateAfterCurrentDate, testCheckDivorceDateAfterCurrentDate, testCheckBirthDatesBeforeCurrentDate, testCheckDeathDatesBeforeCurrentDate, testCheckMarriageDateBeforeCurrentDate</t>
+  </si>
+  <si>
+    <t>testCheckDivorceDateBeforeCurrentDate, checkbigamybro</t>
+  </si>
+  <si>
+    <t>testBirthBeforeMarriage, testBirthNineMonthsAfterDivorce, testBirthAfterDivorceBeforeNineMonths, testWhenMarriageDateIsNull, testWhenDivroceDateIsNull, testWhenChildIdIsNull, testWhenMarriageDateDivorceDateIsNull</t>
+  </si>
+  <si>
+    <t>Communication through slack</t>
+  </si>
+  <si>
+    <t>Scrum meeting on time</t>
+  </si>
+  <si>
+    <t>Completed all the planned user stories on time</t>
+  </si>
+  <si>
+    <t>TestUS02_US03Test.java</t>
+  </si>
+  <si>
+    <t>testUS02_check_Birth_Before_Marriage_ofHusb, testUS02_check_Birth_Before_Marriage_ofWife, testUS02_check_Birth_Before_Marriage</t>
+  </si>
+  <si>
+    <t>testUS03_check_Birth_Before_Death</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
-    <numFmt numFmtId="60" formatCode="m/d"/>
-    <numFmt numFmtId="61" formatCode="m-yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="166" formatCode="m\-yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -767,41 +790,16 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -941,177 +939,168 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffd6e3bc"/>
-      <rgbColor rgb="ff878787"/>
-      <rgbColor rgb="ff4a7dbb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFD6E3BC"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF4A7DBB"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1136,9 +1125,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1165,88 +1151,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/12/19</c:v>
+                  <c:v>42046.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/26/19</c:v>
+                  <c:v>42060.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Burndown README'!$C$15:$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.000000</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.000000</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.000000</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000000</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:smooth val="0"/>
+        <c:axId val="1563627408"/>
+        <c:axId val="1498235856"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
+      <c:dateAx>
+        <c:axId val="1563627408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,23 +1230,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="1498235856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="1498235856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,16 +1282,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="1563627408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1349,6 +1311,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1363,13 +1326,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1394,9 +1364,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1423,79 +1390,53 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown'!$A$2:$A$7</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/12</c:v>
+                  <c:v>42046.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/25</c:v>
+                  <c:v>42059.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.000000</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.000000</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:smooth val="0"/>
+        <c:axId val="1562740880"/>
+        <c:axId val="1539392128"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
+      <c:dateAx>
+        <c:axId val="1562740880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,23 +1460,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="1539392128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="1539392128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,20 +1512,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="1562740880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="8"/>
-        <c:minorUnit val="4"/>
+        <c:majorUnit val="8.0"/>
+        <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1598,6 +1541,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1612,11 +1556,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1630,18 +1579,18 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>95958</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854435" y="3586691"/>
-        <a:ext cx="4767645" cy="2500493"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1667,13 +1616,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1275276" y="1438491"/>
-          <a:ext cx="1621362" cy="884445"/>
+          <a:off x="1275276" y="1362291"/>
+          <a:ext cx="1621361" cy="827294"/>
           <a:chOff x="-19049" y="-41147"/>
           <a:chExt cx="1621361" cy="884444"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="3" name="Shape 3"/>
           <xdr:cNvSpPr/>
@@ -1703,7 +1652,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -1755,7 +1704,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1766,11 +1715,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="4" name="Shape 4"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -1816,7 +1765,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1831,7 +1780,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1846,19 +1795,6 @@
               </a:rPr>
               <a:t>= # team members * 4 sprints * </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1876,7 +1812,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1891,7 +1827,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1932,13 +1868,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5466500" y="1413090"/>
-          <a:ext cx="1262383" cy="657641"/>
+          <a:off x="5466500" y="1336890"/>
+          <a:ext cx="1262382" cy="619540"/>
           <a:chOff x="-19050" y="-41148"/>
           <a:chExt cx="1262382" cy="657640"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="6" name="Shape 6"/>
           <xdr:cNvSpPr/>
@@ -1968,7 +1904,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2020,7 +1956,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2031,11 +1967,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="7" name="Shape 7"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2081,7 +2017,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2096,7 +2032,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2137,13 +2073,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2973070" y="1237821"/>
-          <a:ext cx="1063414" cy="902975"/>
+          <a:off x="2973070" y="1171146"/>
+          <a:ext cx="1063413" cy="845824"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1063412" cy="902974"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="9" name="Shape 9"/>
           <xdr:cNvSpPr/>
@@ -2173,7 +2109,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2225,7 +2161,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2236,11 +2172,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="10" name="Shape 10"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2286,7 +2222,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2301,7 +2237,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2342,13 +2278,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4033519" y="1568576"/>
-          <a:ext cx="391161" cy="630937"/>
+          <a:off x="4033519" y="1482851"/>
+          <a:ext cx="391160" cy="592836"/>
           <a:chOff x="-17779" y="-41148"/>
           <a:chExt cx="391159" cy="630936"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="12" name="Shape 12"/>
           <xdr:cNvSpPr/>
@@ -2378,7 +2314,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2430,7 +2366,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2441,11 +2377,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="13" name="Shape 13"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2491,7 +2427,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2506,7 +2442,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2521,19 +2457,6 @@
               </a:rPr>
               <a:t>Total </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2551,7 +2474,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2566,7 +2489,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2607,13 +2530,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4420870" y="1255811"/>
-          <a:ext cx="1118447" cy="959995"/>
+          <a:off x="4420870" y="1189136"/>
+          <a:ext cx="1118446" cy="902844"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1118445" cy="959994"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="15" name="Shape 15"/>
           <xdr:cNvSpPr/>
@@ -2643,7 +2566,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2695,7 +2618,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2706,11 +2629,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="16" name="Shape 16"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2756,7 +2679,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2771,7 +2694,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2812,13 +2735,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5617340" y="4983907"/>
-          <a:ext cx="1238838" cy="859925"/>
+          <a:off x="5617340" y="4698157"/>
+          <a:ext cx="1238837" cy="802774"/>
           <a:chOff x="0" y="-41148"/>
           <a:chExt cx="1238836" cy="859924"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="18" name="Shape 18"/>
           <xdr:cNvSpPr/>
@@ -2848,7 +2771,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="370" y="0"/>
                 </a:moveTo>
@@ -2900,7 +2823,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2911,11 +2834,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="19" name="Shape 19"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -2961,7 +2884,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2976,7 +2899,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3001,7 +2924,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3015,18 +2938,18 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95958</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="22" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="967668" y="1481667"/>
-        <a:ext cx="4349612" cy="2500492"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3036,7 +2959,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -3162,7 +3085,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3171,7 +3094,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3180,7 +3103,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3254,7 +3177,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -3262,7 +3185,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3281,7 +3204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3311,7 +3234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3337,7 +3260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3363,7 +3286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3389,7 +3312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3415,7 +3338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3441,7 +3364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3467,7 +3390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3493,7 +3416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3519,7 +3442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3532,9 +3455,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3549,7 +3478,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -3557,7 +3486,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3576,7 +3505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3602,7 +3531,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3628,7 +3557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3654,7 +3583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3680,7 +3609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3706,7 +3635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3732,7 +3661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3758,7 +3687,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3784,7 +3713,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3810,7 +3739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3823,9 +3752,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3839,7 +3774,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3858,7 +3793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3888,7 +3823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3914,7 +3849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3940,7 +3875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3966,7 +3901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3992,7 +3927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4018,7 +3953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4044,7 +3979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4070,7 +4005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4096,7 +4031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4109,187 +4044,195 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
+    <row r="13" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
+    <row r="15" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="s" s="3">
+    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s" s="4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="s" s="3">
-        <v>172</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="4"/>
-      <c r="C20" t="s" s="4">
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s" s="5">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="s" s="3">
-        <v>173</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="4"/>
-      <c r="C22" t="s" s="4">
+      <c r="D20" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s" s="5">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="s" s="3">
-        <v>174</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="4"/>
-      <c r="C24" t="s" s="4">
+      <c r="D22" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s" s="5">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="4"/>
-      <c r="C26" t="s" s="4">
+      <c r="D24" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s" s="5">
-        <v>175</v>
+      <c r="D26" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4297,596 +4240,597 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Team'!R1C1" tooltip="" display="Team"/>
-    <hyperlink ref="D12" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
-    <hyperlink ref="D14" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
-    <hyperlink ref="D16" location="'Burndown'!R1C1" tooltip="" display="Burndown"/>
-    <hyperlink ref="D18" location="'Sprint1'!R1C1" tooltip="" display="Sprint1"/>
-    <hyperlink ref="D20" location="'Sprint2'!R1C1" tooltip="" display="Sprint2"/>
-    <hyperlink ref="D22" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
-    <hyperlink ref="D24" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
-    <hyperlink ref="D26" location="'Stories'!R1C1" tooltip="" display="Stories"/>
+    <hyperlink ref="D10" location="'Team'!R1C1" display="Team"/>
+    <hyperlink ref="D12" location="'Backlog'!R1C1" display="Backlog"/>
+    <hyperlink ref="D14" location="'Burndown README'!R1C1" display="Burndown README"/>
+    <hyperlink ref="D16" location="'Burndown'!R1C1" display="Burndown"/>
+    <hyperlink ref="D18" location="'Sprint1'!R1C1" display="Sprint1"/>
+    <hyperlink ref="D20" location="'Sprint2'!R1C1" display="Sprint2"/>
+    <hyperlink ref="D22" location="'Sprint3'!R1C1" display="Sprint3"/>
+    <hyperlink ref="D24" location="'Sprint4'!R1C1" display="Sprint4"/>
+    <hyperlink ref="D26" location="'Stories'!R1C1" display="Stories"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="41" customWidth="1"/>
-    <col min="2" max="2" width="28.1719" style="41" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="41" customWidth="1"/>
-    <col min="4" max="5" width="11" style="41" customWidth="1"/>
-    <col min="6" max="256" width="11" style="41" customWidth="1"/>
+    <col min="1" max="1" width="11" style="40" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="40" customWidth="1"/>
+    <col min="4" max="5" width="11" style="40" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="42">
+      <c r="C1" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s" s="43">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s" s="43">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s" s="43">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="31.5" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s" s="43">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s" s="43">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s" s="43">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="47.25" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s" s="43">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s" s="43">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s" s="43">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s" s="43">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s" s="43">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="47.25" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s" s="43">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="63" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s" s="43">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s" s="43">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s" s="43">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s" s="43">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s" s="43">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s" s="43">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s" s="43">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="31.5" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s" s="43">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="31.5" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s" s="43">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="31.5" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s" s="43">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="31.5" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s" s="43">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="47.25" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s" s="43">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="31.5" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s" s="43">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="126" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s" s="43">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s" s="43">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="31.5" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="C29" t="s" s="43">
+      <c r="B34" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s" s="43">
+      <c r="C34" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s" s="43">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="31.5" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s" s="43">
+      <c r="B35" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s" s="43">
+      <c r="C35" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="31.5" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B36" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C34" t="s" s="43">
+      <c r="C36" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="47.25" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B37" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C35" t="s" s="43">
+      <c r="C37" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" ht="31.5" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B38" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C36" t="s" s="43">
+      <c r="C38" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="31.5" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B39" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C37" t="s" s="43">
+      <c r="C39" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="31.5" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B40" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C38" t="s" s="43">
+      <c r="C40" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" ht="31.5" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B41" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C39" t="s" s="43">
+      <c r="C41" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="31.5" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B42" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C40" t="s" s="43">
+      <c r="C42" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" ht="31.5" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B43" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C41" t="s" s="43">
+      <c r="C43" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" ht="31.5" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>233</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>234</v>
-      </c>
-      <c r="C42" t="s" s="43">
-        <v>235</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="31.5" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>236</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>237</v>
-      </c>
-      <c r="C43" t="s" s="43">
-        <v>238</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4894,147 +4838,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="6" customWidth="1"/>
-    <col min="6" max="256" width="11" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="5" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" t="s" s="9">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5042,521 +4988,523 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.3516" style="10" customWidth="1"/>
-    <col min="4" max="4" width="6.67188" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.67188" style="10" customWidth="1"/>
-    <col min="6" max="256" width="11" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="11">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s" s="7">
+      <c r="E10" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="7">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="11">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s" s="7">
+      <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s" s="7">
+      <c r="E13" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="7">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="11">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s" s="7">
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s" s="7">
+      <c r="E16" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="11">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="11">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s" s="7">
+      <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s" s="7">
+      <c r="E18" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D19" t="s" s="7">
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E19" t="s" s="7">
+      <c r="E19" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="11">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="11">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="11">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
         <v>2</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s" s="7">
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s" s="7">
+      <c r="E22" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="11">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
         <v>2</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s" s="7">
+      <c r="D23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s" s="7">
+      <c r="E23" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="11">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
         <v>3</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="11">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
         <v>3</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="C25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="11">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
         <v>4</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="C26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="11">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
         <v>4</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="C27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="11">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
         <v>4</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="C28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="11">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10">
         <v>4</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="11">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10">
         <v>2</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="C30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D30" t="s" s="7">
+      <c r="D30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E30" t="s" s="7">
+      <c r="E30" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="11">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
         <v>4</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C31" t="s" s="7">
+      <c r="C31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="11">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
         <v>4</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C32" t="s" s="7">
+      <c r="C32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="11">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
         <v>4</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C33" t="s" s="7">
+      <c r="C33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5564,508 +5512,508 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.1719" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.8516" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="12" customWidth="1"/>
-    <col min="7" max="8" width="11" style="12" customWidth="1"/>
-    <col min="9" max="256" width="11" style="12" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="11" customWidth="1"/>
+    <col min="7" max="8" width="11" style="11" customWidth="1"/>
+    <col min="9" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" t="s" s="13">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" t="s" s="13">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="s" s="13">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" t="s" s="13">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s" s="13">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C14" t="s" s="15">
+      <c r="C14" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D14" t="s" s="7">
+      <c r="D14" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E14" t="s" s="15">
+      <c r="E14" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" t="s" s="16">
+      <c r="F14" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G14" t="s" s="7">
+      <c r="G14" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="13">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>42046</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>24</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18">
+      <c r="D15" s="18"/>
+      <c r="E15" s="17">
         <v>0</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" t="s" s="13">
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>42060</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>18</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>250</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>120</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <f>(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="13">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17">
         <v>12</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>480</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>135</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <f>(E17-E16)/F17*60</f>
-        <v>102.2222222222222</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" t="s" s="13">
+        <v>102.22222222222223</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17">
         <v>6</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>740</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>160</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" t="s" s="13">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>1100</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>145</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6074,292 +6022,292 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" zoomScale="131" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="7.17188" style="26" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11" style="26" customWidth="1"/>
-    <col min="8" max="256" width="11" style="26" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11" style="25" customWidth="1"/>
+    <col min="8" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s" s="13">
+      <c r="F1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="27">
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26">
         <v>42046</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>32</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11">
+      <c r="C2" s="7"/>
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="27">
+      <c r="E2" s="7"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26">
         <v>42059</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>24</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>B2-B3</f>
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>368</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>565</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <f>(D3-D2)/E3*60</f>
-        <v>39.07964601769911</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
+        <v>39.079646017699112</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6368,687 +6316,701 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.67188" style="29" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.35156" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.35156" style="29" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="29" customWidth="1"/>
-    <col min="6" max="6" width="9.17188" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.35156" style="29" customWidth="1"/>
-    <col min="9" max="10" width="11" style="29" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="29" customWidth="1"/>
-    <col min="12" max="12" width="19.1719" style="29" customWidth="1"/>
-    <col min="13" max="13" width="13" style="29" customWidth="1"/>
-    <col min="14" max="14" width="1.85156" style="29" customWidth="1"/>
-    <col min="15" max="15" width="10.1719" style="29" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="29" customWidth="1"/>
-    <col min="17" max="17" width="10.1719" style="29" customWidth="1"/>
-    <col min="18" max="256" width="11" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="28" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="28" customWidth="1"/>
+    <col min="9" max="10" width="11" style="28" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="13" style="28" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="28" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="28" customWidth="1"/>
+    <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="31">
+      <c r="E1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s" s="31">
+      <c r="F1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s" s="31">
+      <c r="G1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s" s="31">
+      <c r="H1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s" s="32">
+      <c r="I1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" t="s" s="33">
+      <c r="J1" s="7"/>
+      <c r="K1" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="L1" t="s" s="33">
+      <c r="L1" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s" s="33">
+      <c r="M1" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" t="s" s="33">
+      <c r="N1" s="13"/>
+      <c r="O1" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="P1" t="s" s="33">
+      <c r="P1" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" t="s" s="33">
+      <c r="Q1" s="32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s" s="13">
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>90</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>38</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>45</v>
       </c>
-      <c r="I2" t="s" s="13">
+      <c r="I2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" t="s" s="13">
+      <c r="J2" s="7"/>
+      <c r="K2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L2" t="s" s="34">
+      <c r="L2" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="M2" t="s" s="13">
+      <c r="M2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s" s="13">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>90</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>27</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>25</v>
       </c>
-      <c r="I3" t="s" s="13">
+      <c r="I3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" t="s" s="13">
+      <c r="J3" s="7"/>
+      <c r="K3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L3" t="s" s="34">
+      <c r="L3" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="M3" t="s" s="13">
+      <c r="M3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>102</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>90</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>38</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>100</v>
       </c>
-      <c r="I4" t="s" s="13">
+      <c r="I4" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" t="s" s="13">
+      <c r="J4" s="7"/>
+      <c r="K4" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L4" t="s" s="34">
+      <c r="L4" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="34">
         <v>48944</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" t="s" s="13">
+      <c r="N4" s="13"/>
+      <c r="O4" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P4" t="s" s="34">
+      <c r="P4" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>100</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>90</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>8</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>50</v>
       </c>
-      <c r="I5" t="s" s="13">
+      <c r="I5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" t="s" s="13">
+      <c r="J5" s="7"/>
+      <c r="K5" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L5" t="s" s="34">
+      <c r="L5" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="M5" t="s" s="13">
+      <c r="M5" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" t="s" s="13">
+      <c r="N5" s="13"/>
+      <c r="O5" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P5" t="s" s="34">
+      <c r="P5" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="35">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>90</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>90</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>77</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>30</v>
       </c>
-      <c r="I6" t="s" s="13">
+      <c r="I6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" t="s" s="13">
+      <c r="J6" s="7"/>
+      <c r="K6" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L6" t="s" s="34">
+      <c r="L6" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="M6" t="s" s="13">
+      <c r="M6" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" t="s" s="13">
+      <c r="N6" s="13"/>
+      <c r="O6" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="P6" t="s" s="34">
+      <c r="P6" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="10">
+        <v>100</v>
+      </c>
+      <c r="F7" s="10">
+        <v>90</v>
+      </c>
+      <c r="G7" s="10">
+        <v>114</v>
+      </c>
+      <c r="H7" s="10">
+        <v>180</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="Q6" s="36">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="7">
+      <c r="M7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="10">
+        <v>105</v>
+      </c>
+      <c r="F8" s="10">
+        <v>90</v>
+      </c>
+      <c r="G8" s="10">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10">
+        <v>75</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" s="34">
+        <v>51470</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="10">
         <v>100</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F9" s="10">
         <v>90</v>
       </c>
-      <c r="G7" s="11">
-        <v>114</v>
-      </c>
-      <c r="H7" s="11">
-        <v>180</v>
-      </c>
-      <c r="I7" t="s" s="13">
+      <c r="G9" s="10">
+        <v>34</v>
+      </c>
+      <c r="H9" s="10">
+        <v>60</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" t="s" s="13">
+      <c r="J9" s="7"/>
+      <c r="K9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L7" t="s" s="34">
-        <v>155</v>
-      </c>
-      <c r="M7" t="s" s="13">
-        <v>156</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" t="s" s="13">
-        <v>153</v>
-      </c>
-      <c r="P7" t="s" s="34">
-        <v>157</v>
-      </c>
-      <c r="Q7" s="36">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>136</v>
-      </c>
-      <c r="E8" s="11">
-        <v>105</v>
-      </c>
-      <c r="F8" s="11">
-        <v>90</v>
-      </c>
-      <c r="G8" s="11">
-        <v>32</v>
-      </c>
-      <c r="H8" s="11">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="13">
-        <v>137</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" t="s" s="13">
-        <v>138</v>
-      </c>
-      <c r="L8" t="s" s="34">
-        <v>158</v>
-      </c>
-      <c r="M8" s="35">
-        <v>51470</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" t="s" s="13">
+      <c r="L9" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="P8" t="s" s="34">
+      <c r="M9" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="Q8" s="36">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>136</v>
-      </c>
-      <c r="E9" s="11">
-        <v>100</v>
-      </c>
-      <c r="F9" s="11">
-        <v>90</v>
-      </c>
-      <c r="G9" s="11">
-        <v>34</v>
-      </c>
-      <c r="H9" s="11">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s" s="13">
-        <v>137</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" t="s" s="13">
-        <v>138</v>
-      </c>
-      <c r="L9" t="s" s="34">
+      <c r="N9" s="13"/>
+      <c r="O9" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="M9" t="s" s="13">
+      <c r="P9" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" t="s" s="13">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="P9" t="s" s="34">
+      <c r="C16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="Q9" s="36">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s" s="30">
+      <c r="C20" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" t="s" s="30">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="37"/>
-      <c r="C17" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="37"/>
-      <c r="C18" t="s" s="7">
-        <v>169</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s" s="30">
-        <v>170</v>
-      </c>
-      <c r="C20" t="s" s="7">
-        <v>171</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7056,244 +7018,244 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="11" style="38" customWidth="1"/>
-    <col min="10" max="256" width="11" style="38" customWidth="1"/>
+    <col min="1" max="9" width="11" style="37" customWidth="1"/>
+    <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="31">
+      <c r="E1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s" s="31">
+      <c r="F1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s" s="31">
+      <c r="G1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s" s="31">
+      <c r="H1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s" s="31">
+      <c r="I1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>115</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>90</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>90</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>80</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>90</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>100</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>90</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>90</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>90</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>95</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>90</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>98</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>90</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>105</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>90</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7301,148 +7263,148 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="11" style="39" customWidth="1"/>
-    <col min="10" max="256" width="11" style="39" customWidth="1"/>
+    <col min="1" max="9" width="11" style="38" customWidth="1"/>
+    <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="31">
+      <c r="E1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s" s="31">
+      <c r="F1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s" s="31">
+      <c r="G1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s" s="31">
+      <c r="H1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s" s="31">
+      <c r="I1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7450,148 +7412,148 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="11" style="40" customWidth="1"/>
-    <col min="10" max="256" width="11" style="40" customWidth="1"/>
+    <col min="1" max="9" width="11" style="39" customWidth="1"/>
+    <col min="10" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="31">
+      <c r="E1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s" s="31">
+      <c r="F1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s" s="31">
+      <c r="G1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s" s="31">
+      <c r="H1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s" s="31">
+      <c r="I1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\Semester 2\Agile\Project\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3664A1D-FE30-4645-B812-4BA6F309F348}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId4"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId5"/>
-    <sheet name="Burndown README" sheetId="3" r:id="rId6"/>
-    <sheet name="Burndown" sheetId="4" r:id="rId7"/>
-    <sheet name="Sprint1" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint2" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint3" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint4" sheetId="8" r:id="rId11"/>
-    <sheet name="Stories" sheetId="9" r:id="rId12"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="239">
   <si>
     <t>Initials</t>
   </si>
@@ -716,55 +732,49 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>checkSiblingMarraigeTest</t>
+  </si>
+  <si>
+    <t>getListOfDeceased</t>
+  </si>
+  <si>
+    <t>TestDateCheck.java</t>
+  </si>
+  <si>
+    <t>checkSiblingMarraige</t>
+  </si>
+  <si>
+    <t>listOfDeceased</t>
+  </si>
+  <si>
+    <t>221-230</t>
+  </si>
+  <si>
+    <t>232-273</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
-    <numFmt numFmtId="60" formatCode="m/d"/>
-    <numFmt numFmtId="61" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="62" formatCode="m&quot;-&quot;yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="166" formatCode="m&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -797,7 +807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -890,136 +900,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,29 +970,89 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd6e3bc"/>
-      <rgbColor rgb="ff878787"/>
-      <rgbColor rgb="ff4a7dbb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD6E3BC"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF4A7DBB"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1059,10 +1061,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.095185"/>
-          <c:y val="0.0546885"/>
-          <c:w val="0.899815"/>
-          <c:h val="0.844287"/>
+          <c:x val="9.5185000000000006E-2"/>
+          <c:y val="5.4688500000000001E-2"/>
+          <c:w val="0.89981500000000003"/>
+          <c:h val="0.84428700000000001"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1075,9 +1077,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1104,87 +1103,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/12/19</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/26/19</c:v>
+                  <c:v>42060</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/25/19</c:v>
+                  <c:v>42087</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Burndown README'!$C$15:$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.000000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.000000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.000000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D8D-48F0-9F2D-0F8AAA21AC8A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="2094734552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1209,21 +1190,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2094734553"/>
         <c:scaling>
@@ -1260,13 +1242,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1288,6 +1271,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1302,13 +1286,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1317,10 +1308,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0738533"/>
-          <c:y val="0.0546885"/>
-          <c:w val="0.921147"/>
-          <c:h val="0.844287"/>
+          <c:x val="7.3853299999999997E-2"/>
+          <c:y val="5.4688500000000001E-2"/>
+          <c:w val="0.92114700000000005"/>
+          <c:h val="0.84428700000000001"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1333,9 +1324,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1362,81 +1350,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown'!$A$2:$A$7</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/12</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/25</c:v>
+                  <c:v>42059</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3/25/2019</c:v>
+                <c:pt idx="2" formatCode="m/d/yyyy">
+                  <c:v>42087</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.000000</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.000000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2690-4E11-B0A0-7E616747BB0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="2094734552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1461,21 +1431,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2094734553"/>
         <c:scaling>
@@ -1512,13 +1483,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1540,6 +1512,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1554,11 +1527,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1572,18 +1550,24 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>99133</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854435" y="3653366"/>
-        <a:ext cx="4564445" cy="2554468"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1604,20 +1588,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1275238" y="1447084"/>
-          <a:ext cx="1389842" cy="981457"/>
+          <a:off x="1336924" y="1432570"/>
+          <a:ext cx="1438826" cy="970570"/>
           <a:chOff x="-19049" y="-64007"/>
           <a:chExt cx="1389841" cy="981455"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="3" name="Shape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1645,7 +1641,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -1697,7 +1693,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1708,13 +1704,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPr id="4" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1733,7 +1735,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1758,7 +1760,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1773,7 +1775,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1788,19 +1790,6 @@
               </a:rPr>
               <a:t>= # team members * 4 sprints * </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -1818,7 +1807,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1833,7 +1822,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1869,20 +1858,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5263300" y="1441665"/>
-          <a:ext cx="1249683" cy="668760"/>
+          <a:off x="5635229" y="1427151"/>
+          <a:ext cx="1311367" cy="661502"/>
           <a:chOff x="-19050" y="-41148"/>
           <a:chExt cx="1249682" cy="668759"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvPr id="6" name="Shape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1910,7 +1911,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -1962,7 +1963,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1973,13 +1974,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPr id="7" name="Shape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1998,7 +2005,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2023,7 +2030,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2038,7 +2045,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2074,20 +2081,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="11" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2769870" y="1260046"/>
-          <a:ext cx="1063414" cy="920189"/>
+          <a:off x="2969441" y="1247346"/>
+          <a:ext cx="1130542" cy="909302"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1063412" cy="920188"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvPr id="9" name="Shape 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2115,7 +2134,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2167,7 +2186,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2178,13 +2197,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPr id="10" name="Shape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2203,7 +2228,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2228,7 +2253,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2243,7 +2268,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2279,20 +2304,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="14" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3830319" y="1597151"/>
-          <a:ext cx="391161" cy="630937"/>
+          <a:off x="4097019" y="1580822"/>
+          <a:ext cx="431074" cy="623679"/>
           <a:chOff x="-17779" y="-41148"/>
           <a:chExt cx="391159" cy="630936"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvPr id="12" name="Shape 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2320,7 +2357,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2372,7 +2409,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2383,13 +2420,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvPr id="13" name="Shape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2408,7 +2451,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2433,7 +2476,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2448,7 +2491,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2463,19 +2506,6 @@
               </a:rPr>
               <a:t>Total </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2493,7 +2523,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2508,7 +2538,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2544,20 +2574,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="17" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4217670" y="1281211"/>
-          <a:ext cx="1118447" cy="975731"/>
+          <a:off x="4524284" y="1268511"/>
+          <a:ext cx="1183761" cy="964844"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1118445" cy="975730"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvPr id="15" name="Shape 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2585,7 +2627,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2637,7 +2679,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2648,13 +2690,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPr id="16" name="Shape 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2673,7 +2721,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2698,7 +2746,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2713,7 +2761,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2749,20 +2797,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="20" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5414364" y="5082332"/>
-          <a:ext cx="1225917" cy="872478"/>
+          <a:off x="5786293" y="5027903"/>
+          <a:ext cx="1287601" cy="861592"/>
           <a:chOff x="0" y="-41147"/>
           <a:chExt cx="1225916" cy="872477"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvPr id="18" name="Shape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2790,7 +2850,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="370" y="0"/>
                 </a:moveTo>
@@ -2842,7 +2902,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2853,13 +2913,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvPr id="19" name="Shape 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2878,7 +2944,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2903,7 +2969,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2918,7 +2984,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2943,7 +3009,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2957,18 +3023,24 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>99133</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 1"/>
+        <xdr:cNvPr id="22" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="967668" y="1507067"/>
-        <a:ext cx="4349612" cy="2554467"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2978,7 +3050,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -3104,7 +3176,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3113,7 +3185,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3122,7 +3194,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3196,7 +3268,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -3204,7 +3276,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3223,7 +3295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3253,7 +3325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3279,7 +3351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3305,7 +3377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3331,7 +3403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3357,7 +3429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3383,7 +3455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3409,7 +3481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3435,7 +3507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3461,7 +3533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3474,9 +3546,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3491,7 +3569,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -3499,7 +3577,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3518,7 +3596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3544,7 +3622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3570,7 +3648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3596,7 +3674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3622,7 +3700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3648,7 +3726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3674,7 +3752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3700,7 +3778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3726,7 +3804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3752,7 +3830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3765,9 +3843,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3781,7 +3865,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3800,7 +3884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3830,7 +3914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3856,7 +3940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3882,7 +3966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3908,7 +3992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3934,7 +4018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3960,7 +4044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3986,7 +4070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4012,7 +4096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4038,7 +4122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4051,158 +4135,165 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
+    <col min="4" max="5" width="20.46484375" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" t="s" s="4">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4210,537 +4301,560 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:D34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.3516" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.67188" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.67188" style="5" customWidth="1"/>
-    <col min="6" max="256" width="11" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="2">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="6">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="6">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="6">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="6">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="6">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="6">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="6">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="2">
         <v>3</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="6">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="2">
         <v>3</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="6">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="2">
         <v>4</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="6">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="A27" s="2">
         <v>4</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="6">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="A28" s="2">
         <v>4</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="6">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="A29" s="2">
         <v>4</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="6">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="2">
         <v>2</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31" s="2">
         <v>4</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="6">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="6">
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
+      <c r="A33" s="2">
         <v>4</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.15" customHeight="1">
+      <c r="A34" s="28">
+        <v>3</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4748,510 +4862,509 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.8516" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
-    <col min="7" max="8" width="10.8516" style="7" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="7" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="13" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" ht="13" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" ht="13" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="13" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="13" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="13" customHeight="1">
-      <c r="A6" t="s" s="2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="13" customHeight="1">
-      <c r="A8" t="s" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="13" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="13" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" t="s" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="13" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="13" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C14" t="s" s="10">
+      <c r="C14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D14" t="s" s="9">
+      <c r="D14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="s" s="10">
+      <c r="E14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s" s="11">
+      <c r="F14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G14" t="s" s="9">
+      <c r="G14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" t="s" s="2">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <v>42046</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <v>24</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" t="s" s="2">
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="13" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="8">
         <v>42060</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <v>18</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="10">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="9">
         <v>250</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <v>120</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="11">
         <f>(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="13" customHeight="1">
-      <c r="A17" t="s" s="2">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>42087</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>12</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="10">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="9">
         <v>480</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="12">
         <v>135</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="11">
         <f>(E17-E16)/F17*60</f>
-        <v>102.2222222222222</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="13" customHeight="1">
-      <c r="A18" t="s" s="2">
+        <v>102.22222222222223</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="13" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9">
         <v>6</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="10">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>740</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="12">
         <v>160</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="11">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="13" customHeight="1">
-      <c r="A19" t="s" s="2">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="13" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9">
         <v>0</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="10">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="9">
         <v>1100</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="12">
         <v>145</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="11">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="13" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="13" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="13" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="13" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="13" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="13" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="13" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="13" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="13" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="13" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="13" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="13" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" ht="13" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" ht="13" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" ht="13" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" ht="13" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" ht="13" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" ht="13" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" ht="13" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" ht="13" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="13" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="13" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="13" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="13" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="13" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="13" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="13" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="13" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="13" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="13" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="13" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="13" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="13" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="13" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="13" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="13" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="13" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="13" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="13" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="13" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5260,298 +5373,297 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7.17188" style="21" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="21" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="21" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="21" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="21" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="7" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s" s="9">
+      <c r="E1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" ht="13" customHeight="1">
-      <c r="A2" s="22">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="13" customHeight="1">
+      <c r="A2" s="15">
         <v>42046</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="4">
         <v>32</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="23">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="13" customHeight="1">
-      <c r="A3" s="22">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="13" customHeight="1">
+      <c r="A3" s="15">
         <v>42059</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="4">
         <v>24</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="4">
         <f>B2-B3</f>
         <v>8</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="4">
         <v>368</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="4">
         <v>565</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="16">
         <f>(D3-D2)/E3*60</f>
-        <v>39.07964601769911</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="25">
+        <v>39.079646017699112</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="13" customHeight="1">
+      <c r="A4" s="17">
         <v>42087</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="4">
         <v>16</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="13" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="13" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="13" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" ht="13" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="13" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="13" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" ht="13" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" ht="13" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="13" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="13" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="13" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="13" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" ht="13" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="13" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="13" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="13" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="13" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="13" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="13" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="13" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="13" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="13" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="13" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="13" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="13" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="13" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="13" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="13" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="13" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="13" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="13" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="13" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="13" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="13" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5560,699 +5672,701 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:Q9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.67188" style="26" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="7.35156" style="26" customWidth="1"/>
-    <col min="4" max="4" width="8.35156" style="26" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="26" customWidth="1"/>
-    <col min="6" max="6" width="9.17188" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="26" customWidth="1"/>
-    <col min="8" max="8" width="9.35156" style="26" customWidth="1"/>
-    <col min="9" max="10" width="11" style="26" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="26" customWidth="1"/>
-    <col min="12" max="12" width="19.1719" style="26" customWidth="1"/>
-    <col min="13" max="13" width="13" style="26" customWidth="1"/>
-    <col min="14" max="14" width="1.85156" style="26" customWidth="1"/>
-    <col min="15" max="15" width="10.1719" style="26" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="26" customWidth="1"/>
-    <col min="17" max="17" width="10.1719" style="26" customWidth="1"/>
-    <col min="18" max="256" width="11" style="26" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="8.46484375" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.46484375" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="1.86328125" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" customWidth="1"/>
+    <col min="16" max="16" width="16.46484375" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" customWidth="1"/>
+    <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="27">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s" s="28">
+      <c r="E1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s" s="28">
+      <c r="F1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s" s="28">
+      <c r="G1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s" s="28">
+      <c r="H1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s" s="28">
+      <c r="I1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" t="s" s="29">
+      <c r="J1" s="2"/>
+      <c r="K1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L1" t="s" s="29">
+      <c r="L1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="M1" t="s" s="29">
+      <c r="M1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" t="s" s="29">
+      <c r="N1" s="2"/>
+      <c r="O1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="P1" t="s" s="29">
+      <c r="P1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" t="s" s="29">
+      <c r="Q1" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:17" ht="17.05" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>90</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <v>38</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="2">
         <v>45</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" t="s" s="2">
+      <c r="J2" s="2"/>
+      <c r="K2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L2" t="s" s="30">
+      <c r="L2" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="M2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" t="s" s="2">
+      <c r="N2" s="2"/>
+      <c r="O2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="P2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:17" ht="17.05" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>90</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <v>27</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
         <v>25</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="I3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" t="s" s="2">
+      <c r="J3" s="2"/>
+      <c r="K3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L3" t="s" s="30">
+      <c r="L3" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="M3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" t="s" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P3" t="s" s="2">
+      <c r="P3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:17" ht="17.05" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>102</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>90</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="2">
         <v>38</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" t="s" s="2">
+      <c r="J4" s="2"/>
+      <c r="K4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L4" t="s" s="30">
+      <c r="L4" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="22">
         <v>48944</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" t="s" s="2">
+      <c r="N4" s="2"/>
+      <c r="O4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P4" t="s" s="30">
+      <c r="P4" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:17" ht="17.05" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>90</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>8</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>50</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" t="s" s="2">
+      <c r="J5" s="2"/>
+      <c r="K5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L5" t="s" s="30">
+      <c r="L5" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="M5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" t="s" s="2">
+      <c r="N5" s="2"/>
+      <c r="O5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P5" t="s" s="30">
+      <c r="P5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:17" ht="17.05" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>90</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>90</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>77</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="2">
         <v>30</v>
       </c>
-      <c r="I6" t="s" s="2">
+      <c r="I6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" t="s" s="2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L6" t="s" s="30">
+      <c r="L6" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="M6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" t="s" s="2">
+      <c r="N6" s="2"/>
+      <c r="O6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P6" t="s" s="30">
+      <c r="P6" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:17" ht="17.05" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>90</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="2">
         <v>114</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>180</v>
       </c>
-      <c r="I7" t="s" s="2">
+      <c r="I7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" t="s" s="2">
+      <c r="J7" s="2"/>
+      <c r="K7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L7" t="s" s="30">
+      <c r="L7" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="M7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" t="s" s="2">
+      <c r="N7" s="2"/>
+      <c r="O7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P7" t="s" s="30">
+      <c r="P7" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:17" ht="17.05" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>105</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>90</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="2">
         <v>32</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="2">
         <v>75</v>
       </c>
-      <c r="I8" t="s" s="2">
+      <c r="I8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" t="s" s="2">
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L8" t="s" s="30">
+      <c r="L8" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="22">
         <v>51470</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" t="s" s="2">
+      <c r="N8" s="2"/>
+      <c r="O8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="P8" t="s" s="30">
+      <c r="P8" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:17" ht="17.05" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>100</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>90</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="2">
         <v>34</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <v>60</v>
       </c>
-      <c r="I9" t="s" s="2">
+      <c r="I9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" t="s" s="2">
+      <c r="J9" s="2"/>
+      <c r="K9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="30">
+      <c r="L9" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="M9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" t="s" s="2">
+      <c r="N9" s="2"/>
+      <c r="O9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P9" t="s" s="30">
+      <c r="P9" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s" s="27">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s" s="27">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="32"/>
-      <c r="C17" t="s" s="2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="32"/>
-      <c r="C18" t="s" s="2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s" s="27">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6260,268 +6374,458 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="11" style="33" customWidth="1"/>
-    <col min="10" max="256" width="11" style="33" customWidth="1"/>
+    <col min="1" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="19.265625" customWidth="1"/>
+    <col min="16" max="16" width="190.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.9296875" customWidth="1"/>
+    <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="27">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s" s="28">
+      <c r="E1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s" s="28">
+      <c r="F1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s" s="28">
+      <c r="G1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s" s="28">
+      <c r="H1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s" s="28">
+      <c r="I1" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="K1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>115</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>90</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>90</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>80</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>90</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="2">
         <v>16</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="2">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="K4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="22">
+        <v>48944</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>90</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>21</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>90</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>90</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
+      <c r="G6" s="2">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>95</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>90</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>98</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>90</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="2">
         <v>42</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="2">
         <v>90</v>
       </c>
-      <c r="I8" t="s" s="2">
+      <c r="I8" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
+      <c r="K8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="22">
+        <v>51470</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>105</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>90</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="2">
         <v>46</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <v>90</v>
       </c>
-      <c r="I9" t="s" s="2">
+      <c r="I9" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6529,188 +6833,213 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="256" width="11" style="34" customWidth="1"/>
+    <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="27">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s" s="28">
+      <c r="E1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s" s="28">
+      <c r="F1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s" s="28">
+      <c r="G1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s" s="28">
+      <c r="H1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s" s="28">
+      <c r="I1" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>70</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>90</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>60</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="A7" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6718,148 +7047,147 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="10.8516" style="35" customWidth="1"/>
-    <col min="10" max="256" width="10.8516" style="35" customWidth="1"/>
+    <col min="1" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="36">
+    <row r="1" spans="1:9" ht="28" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="27">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s" s="36">
+      <c r="C1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s" s="36">
+      <c r="D1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s" s="37">
+      <c r="E1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s" s="37">
+      <c r="F1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s" s="37">
+      <c r="G1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s" s="37">
+      <c r="H1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s" s="37">
+      <c r="I1" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6867,582 +7195,583 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="38" customWidth="1"/>
-    <col min="2" max="2" width="28.1719" style="38" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="38" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="38" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="38" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" customWidth="1"/>
+    <col min="4" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:5" ht="14.05" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s" s="39">
+      <c r="C1" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="34" customHeight="1">
-      <c r="A2" t="s" s="9">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="34" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s" s="40">
+      <c r="C2" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s" s="40">
+      <c r="C3" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s" s="40">
+      <c r="C4" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="34" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s" s="40">
+      <c r="C5" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s" s="40">
+      <c r="C6" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s" s="40">
+      <c r="C7" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="51" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s" s="40">
+      <c r="C8" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="34" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s" s="40">
+      <c r="C9" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="34" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s" s="40">
+      <c r="C10" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" t="s" s="9">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="34" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s" s="9">
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s" s="40">
+      <c r="C11" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" t="s" s="9">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="34" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s" s="40">
+      <c r="C12" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" t="s" s="9">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="51" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s" s="9">
+      <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s" s="40">
+      <c r="C13" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="68" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="68.05" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s" s="40">
+      <c r="C14" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="34" customHeight="1">
-      <c r="A15" t="s" s="9">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="34" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="B15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s" s="40">
+      <c r="C15" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" t="s" s="9">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s" s="9">
+      <c r="B16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s" s="40">
+      <c r="C16" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" t="s" s="9">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="34" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s" s="9">
+      <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s" s="40">
+      <c r="C17" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s" s="9">
+      <c r="B18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s" s="40">
+      <c r="C18" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s" s="9">
+      <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s" s="40">
+      <c r="C19" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" t="s" s="9">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s" s="9">
+      <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s" s="40">
+      <c r="C20" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="34" customHeight="1">
-      <c r="A21" t="s" s="9">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="34" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s" s="9">
+      <c r="B21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s" s="40">
+      <c r="C21" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="34" customHeight="1">
-      <c r="A22" t="s" s="9">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="34" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s" s="9">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s" s="40">
+      <c r="C22" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="34" customHeight="1">
-      <c r="A23" t="s" s="9">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="34" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s" s="9">
+      <c r="B23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s" s="40">
+      <c r="C23" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="34" customHeight="1">
-      <c r="A24" t="s" s="9">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="34" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s" s="9">
+      <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s" s="40">
+      <c r="C24" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="51" customHeight="1">
-      <c r="A25" t="s" s="9">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="51" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B25" t="s" s="9">
+      <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C25" t="s" s="40">
+      <c r="C25" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="34" customHeight="1">
-      <c r="A26" t="s" s="9">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="34" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s" s="9">
+      <c r="B26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C26" t="s" s="40">
+      <c r="C26" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="136" customHeight="1">
-      <c r="A27" t="s" s="9">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="136" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B27" t="s" s="9">
+      <c r="B27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C27" t="s" s="40">
+      <c r="C27" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="17" customHeight="1">
-      <c r="A28" t="s" s="9">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s" s="9">
+      <c r="B28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="s" s="40">
+      <c r="C28" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="34" customHeight="1">
-      <c r="A29" t="s" s="9">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="34" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B29" t="s" s="9">
+      <c r="B29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s" s="40">
+      <c r="C29" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="17" customHeight="1">
-      <c r="A30" t="s" s="9">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B30" t="s" s="9">
+      <c r="B30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C30" t="s" s="40">
+      <c r="C30" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="17" customHeight="1">
-      <c r="A31" t="s" s="9">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B31" t="s" s="9">
+      <c r="B31" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s" s="40">
+      <c r="C31" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="34" customHeight="1">
-      <c r="A32" t="s" s="9">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="34" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B32" t="s" s="9">
+      <c r="B32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s" s="40">
+      <c r="C32" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="17" customHeight="1">
-      <c r="A33" t="s" s="9">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.05" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B33" t="s" s="9">
+      <c r="B33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s" s="40">
+      <c r="C33" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="34" customHeight="1">
-      <c r="A34" t="s" s="9">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="34" customHeight="1">
+      <c r="A34" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B34" t="s" s="9">
+      <c r="B34" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C34" t="s" s="40">
+      <c r="C34" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="51" customHeight="1">
-      <c r="A35" t="s" s="9">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="51" customHeight="1">
+      <c r="A35" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B35" t="s" s="9">
+      <c r="B35" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C35" t="s" s="40">
+      <c r="C35" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" ht="34" customHeight="1">
-      <c r="A36" t="s" s="9">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="34" customHeight="1">
+      <c r="A36" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B36" t="s" s="9">
+      <c r="B36" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C36" t="s" s="40">
+      <c r="C36" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="34" customHeight="1">
-      <c r="A37" t="s" s="9">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="34" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B37" t="s" s="9">
+      <c r="B37" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C37" t="s" s="40">
+      <c r="C37" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="34" customHeight="1">
-      <c r="A38" t="s" s="9">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="34" customHeight="1">
+      <c r="A38" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B38" t="s" s="9">
+      <c r="B38" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C38" t="s" s="40">
+      <c r="C38" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" ht="34" customHeight="1">
-      <c r="A39" t="s" s="9">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="34" customHeight="1">
+      <c r="A39" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B39" t="s" s="9">
+      <c r="B39" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C39" t="s" s="40">
+      <c r="C39" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="34" customHeight="1">
-      <c r="A40" t="s" s="9">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="34" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B40" t="s" s="9">
+      <c r="B40" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C40" t="s" s="40">
+      <c r="C40" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" ht="34" customHeight="1">
-      <c r="A41" t="s" s="9">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="34" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B41" t="s" s="9">
+      <c r="B41" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C41" t="s" s="40">
+      <c r="C41" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" ht="34" customHeight="1">
-      <c r="A42" t="s" s="9">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="34" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B42" t="s" s="9">
+      <c r="B42" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C42" t="s" s="40">
+      <c r="C42" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="34" customHeight="1">
-      <c r="A43" t="s" s="9">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="34" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B43" t="s" s="9">
+      <c r="B43" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C43" t="s" s="40">
+      <c r="C43" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allan/Desktop/Java/Final Pro/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Team" sheetId="2" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="3" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="4" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
-    <sheet name="Stories" sheetId="10" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,30 +30,18 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="242">
-  <si>
-    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
-  </si>
-  <si>
-    <t>Numbers Sheet Name</t>
-  </si>
-  <si>
-    <t>Numbers Table Name</t>
-  </si>
-  <si>
-    <t>Excel Worksheet Name</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="253">
   <si>
     <t>Initials</t>
   </si>
@@ -137,9 +124,6 @@
     <t>https://github.com/allanshivji/CS_555_JAVS</t>
   </si>
   <si>
-    <t>Backlog</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -212,30 +196,33 @@
     <t>Marriage before divorce</t>
   </si>
   <si>
+    <t xml:space="preserve">           3</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
     <t>planned</t>
   </si>
   <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
     <t>US13</t>
   </si>
   <si>
@@ -356,9 +343,6 @@
     <t>List multiple births</t>
   </si>
   <si>
-    <t>Burndown README</t>
-  </si>
-  <si>
     <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
   </si>
   <si>
@@ -410,12 +394,6 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Burndown</t>
-  </si>
-  <si>
-    <t>Sprint1</t>
-  </si>
-  <si>
     <t>Est Size</t>
   </si>
   <si>
@@ -461,12 +439,21 @@
     <t>296-334</t>
   </si>
   <si>
+    <t>TestUS02_US03Test.java</t>
+  </si>
+  <si>
+    <t>testUS02_check_Birth_Before_Marriage_ofHusb, testUS02_check_Birth_Before_Marriage_ofWife, testUS02_check_Birth_Before_Marriage</t>
+  </si>
+  <si>
     <t>US03_check_Birth_Before_Death</t>
   </si>
   <si>
     <t>267-293</t>
   </si>
   <si>
+    <t>testUS03_check_Birth_Before_Death</t>
+  </si>
+  <si>
     <t>CheckValidity.java</t>
   </si>
   <si>
@@ -500,12 +487,18 @@
     <t>DateCheck.java</t>
   </si>
   <si>
+    <t>testCheckBirthDatesAfterCurrentDate, testCheckDeathDatesAfterCurrentDate, testCheckMarriageDateAfterCurrentDate, testCheckDivorceDateAfterCurrentDate, testCheckBirthDatesBeforeCurrentDate, testCheckDeathDatesBeforeCurrentDate, testCheckMarriageDateBeforeCurrentDate</t>
+  </si>
+  <si>
     <t>checkBigamy</t>
   </si>
   <si>
     <t>149-264</t>
   </si>
   <si>
+    <t>testCheckDivorceDateBeforeCurrentDate, checkbigamybro</t>
+  </si>
+  <si>
     <t>US05_Marriage_Before_Death</t>
   </si>
   <si>
@@ -524,28 +517,37 @@
     <t>TestUS08BirthBeforeMarriageOfParents.java</t>
   </si>
   <si>
+    <t>testBirthBeforeMarriage, testBirthNineMonthsAfterDivorce, testBirthAfterDivorceBeforeNineMonths, testWhenMarriageDateIsNull, testWhenDivroceDateIsNull, testWhenChildIdIsNull, testWhenMarriageDateDivorceDateIsNull</t>
+  </si>
+  <si>
     <t>Review Results</t>
   </si>
   <si>
     <t>Keep doing:</t>
   </si>
   <si>
+    <t>Completed all the planned user stories on time</t>
+  </si>
+  <si>
+    <t>Scrum meeting on time</t>
+  </si>
+  <si>
+    <t>Communication through slack</t>
+  </si>
+  <si>
     <t>Avoid:</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Sprint2</t>
-  </si>
-  <si>
-    <t>Sprint3</t>
-  </si>
-  <si>
-    <t>Sprint4</t>
-  </si>
-  <si>
-    <t>Stories</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>JL</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -737,31 +739,67 @@
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
   <si>
-    <t>testCheckBirthDatesAfterCurrentDate, testCheckDeathDatesAfterCurrentDate, testCheckMarriageDateAfterCurrentDate, testCheckDivorceDateAfterCurrentDate, testCheckBirthDatesBeforeCurrentDate, testCheckDeathDatesBeforeCurrentDate, testCheckMarriageDateBeforeCurrentDate</t>
-  </si>
-  <si>
-    <t>testCheckDivorceDateBeforeCurrentDate, checkbigamybro</t>
-  </si>
-  <si>
-    <t>testBirthBeforeMarriage, testBirthNineMonthsAfterDivorce, testBirthAfterDivorceBeforeNineMonths, testWhenMarriageDateIsNull, testWhenDivroceDateIsNull, testWhenChildIdIsNull, testWhenMarriageDateDivorceDateIsNull</t>
-  </si>
-  <si>
-    <t>Communication through slack</t>
-  </si>
-  <si>
-    <t>Scrum meeting on time</t>
-  </si>
-  <si>
-    <t>Completed all the planned user stories on time</t>
-  </si>
-  <si>
-    <t>TestUS02_US03Test.java</t>
-  </si>
-  <si>
-    <t>testUS02_check_Birth_Before_Marriage_ofHusb, testUS02_check_Birth_Before_Marriage_ofWife, testUS02_check_Birth_Before_Marriage</t>
-  </si>
-  <si>
-    <t>testUS03_check_Birth_Before_Death</t>
+    <t>checkSiblingMarraigeTest</t>
+  </si>
+  <si>
+    <t>getListOfDeceased</t>
+  </si>
+  <si>
+    <t>TestDateCheck.java</t>
+  </si>
+  <si>
+    <t>checkSiblingMarraige</t>
+  </si>
+  <si>
+    <t>listOfDeceased</t>
+  </si>
+  <si>
+    <t>221-230</t>
+  </si>
+  <si>
+    <t>232-273</t>
+  </si>
+  <si>
+    <t>US21_check_Gender_Role</t>
+  </si>
+  <si>
+    <t>183-224</t>
+  </si>
+  <si>
+    <t>TestUS21CheckGenderRole.java</t>
+  </si>
+  <si>
+    <t>testGenderRoleHusband, testGenderRoleWife()</t>
+  </si>
+  <si>
+    <t>US22_check_Unique_FamilyId, foundADuplicateId</t>
+  </si>
+  <si>
+    <t>MultiIndividualFamilyData.java, FamilyTreeParser.java</t>
+  </si>
+  <si>
+    <t>231-252, 50-58</t>
+  </si>
+  <si>
+    <t>checkFamilyUniqueId, checkFamilyUniqueId2</t>
+  </si>
+  <si>
+    <t>TestUS22UniqueIds.java</t>
+  </si>
+  <si>
+    <t>Complete user stories earlier and on time</t>
+  </si>
+  <si>
+    <t>Reply to messaes on slack</t>
+  </si>
+  <si>
+    <t>Avoid inegration at the end</t>
+  </si>
+  <si>
+    <t>Avoid refactoring at the end</t>
+  </si>
+  <si>
+    <t>Late start of new things to be implemented</t>
   </si>
 </sst>
 </file>
@@ -771,28 +809,12 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
-    <numFmt numFmtId="166" formatCode="m\-yy"/>
+    <numFmt numFmtId="166" formatCode="m&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="11"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -812,7 +834,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,24 +849,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -854,42 +864,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,115 +914,101 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,37 +1026,37 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="015E88B1"/>
-      <rgbColor rgb="01EEF3F4"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFD6E3BC"/>
       <rgbColor rgb="FF878787"/>
       <rgbColor rgb="FF4A7DBB"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
       <rgbColor rgb="00C0C0C0"/>
       <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
       <rgbColor rgb="0000CCFF"/>
       <rgbColor rgb="00CCFFFF"/>
       <rgbColor rgb="00CCFFCC"/>
@@ -1091,6 +1087,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1100,7 +1099,7 @@
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="18"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1109,10 +1108,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0911281"/>
-          <c:y val="0.055869"/>
-          <c:w val="0.903872"/>
-          <c:h val="0.841196"/>
+          <c:x val="0.095185"/>
+          <c:y val="0.0546885"/>
+          <c:w val="0.899815"/>
+          <c:h val="0.844287"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1163,6 +1162,9 @@
                 <c:pt idx="1">
                   <c:v>42060.0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42087.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1191,6 +1193,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D8D-48F0-9F2D-0F8AAA21AC8A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1202,11 +1209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1563627408"/>
-        <c:axId val="1498235856"/>
+        <c:axId val="877395728"/>
+        <c:axId val="877397088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1563627408"/>
+        <c:axId val="877395728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,14 +1247,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1498235856"/>
+        <c:crossAx val="877397088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1498235856"/>
+        <c:axId val="877397088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1563627408"/>
+        <c:crossAx val="877395728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1339,7 +1346,7 @@
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="18"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1349,9 +1356,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0738533"/>
-          <c:y val="0.055869"/>
+          <c:y val="0.0546885"/>
           <c:w val="0.921147"/>
-          <c:h val="0.841196"/>
+          <c:h val="0.844287"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1402,6 +1409,9 @@
                 <c:pt idx="1">
                   <c:v>42059.0</c:v>
                 </c:pt>
+                <c:pt idx="2" formatCode="m/d/yy">
+                  <c:v>42087.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1417,10 +1427,18 @@
                 <c:pt idx="1">
                   <c:v>24.0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2690-4E11-B0A0-7E616747BB0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1432,11 +1450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1562740880"/>
-        <c:axId val="1539392128"/>
+        <c:axId val="877449680"/>
+        <c:axId val="877451728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1562740880"/>
+        <c:axId val="877449680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,14 +1488,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1539392128"/>
+        <c:crossAx val="877451728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1539392128"/>
+        <c:axId val="877451728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1562740880"/>
+        <c:crossAx val="877449680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8.0"/>
@@ -1571,17 +1589,23 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>28935</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>24341</xdr:rowOff>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>249979</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>95958</xdr:rowOff>
+      <xdr:rowOff>99133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1599,38 +1623,50 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>449776</xdr:colOff>
+      <xdr:colOff>449738</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>143091</xdr:rowOff>
+      <xdr:rowOff>126284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1144037</xdr:colOff>
+      <xdr:colOff>1115679</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>55985</xdr:rowOff>
+      <xdr:rowOff>117140</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1275276" y="1362291"/>
-          <a:ext cx="1621361" cy="827294"/>
-          <a:chOff x="-19049" y="-41147"/>
-          <a:chExt cx="1621361" cy="884444"/>
+          <a:off x="1275238" y="1447084"/>
+          <a:ext cx="1389841" cy="981456"/>
+          <a:chOff x="-19049" y="-64007"/>
+          <a:chExt cx="1389841" cy="981455"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="3" name="Shape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="1602312" cy="843297"/>
+            <a:ext cx="1370792" cy="856227"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -1721,13 +1757,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPr id="4" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-19050" y="-41148"/>
-            <a:ext cx="1444414" cy="630937"/>
+            <a:off x="-19050" y="-64008"/>
+            <a:ext cx="1241214" cy="981457"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1853,36 +1895,48 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>94400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>117690</xdr:rowOff>
+      <xdr:rowOff>120865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518582</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127630</xdr:rowOff>
+      <xdr:rowOff>129224</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5466500" y="1336890"/>
-          <a:ext cx="1262382" cy="619540"/>
+          <a:off x="5263300" y="1441665"/>
+          <a:ext cx="1249682" cy="668759"/>
           <a:chOff x="-19050" y="-41148"/>
-          <a:chExt cx="1262382" cy="657640"/>
+          <a:chExt cx="1249682" cy="668759"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvPr id="6" name="Shape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="1224283" cy="616493"/>
+            <a:ext cx="1211583" cy="627612"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -1973,13 +2027,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPr id="7" name="Shape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="-19050" y="-41148"/>
-            <a:ext cx="1262383" cy="630936"/>
+            <a:ext cx="1249683" cy="630936"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2064,30 +2124,42 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>137583</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>35770</xdr:rowOff>
+      <xdr:rowOff>33934</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="11" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2973070" y="1171146"/>
-          <a:ext cx="1063413" cy="845824"/>
+          <a:off x="2769870" y="1260046"/>
+          <a:ext cx="1063413" cy="920188"/>
           <a:chOff x="-19050" y="-52577"/>
-          <a:chExt cx="1063412" cy="902974"/>
+          <a:chExt cx="1063412" cy="920188"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvPr id="9" name="Shape 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="1025314" cy="850397"/>
+            <a:ext cx="1025314" cy="867611"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2178,7 +2250,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPr id="10" name="Shape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2269,30 +2347,42 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>5079</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>94487</xdr:rowOff>
+      <xdr:rowOff>81787</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="14" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4033519" y="1482851"/>
-          <a:ext cx="391160" cy="592836"/>
+          <a:off x="3830319" y="1597151"/>
+          <a:ext cx="391160" cy="630936"/>
           <a:chOff x="-17779" y="-41148"/>
           <a:chExt cx="391159" cy="630936"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvPr id="12" name="Shape 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="355601" cy="473959"/>
+            <a:ext cx="355601" cy="484758"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2383,7 +2473,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvPr id="13" name="Shape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2515,36 +2611,48 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>122336</xdr:rowOff>
+      <xdr:rowOff>125511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>167216</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>110780</xdr:rowOff>
+      <xdr:rowOff>110641</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="17" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4420870" y="1189136"/>
-          <a:ext cx="1118446" cy="902844"/>
+          <a:off x="4217670" y="1281211"/>
+          <a:ext cx="1118446" cy="975730"/>
           <a:chOff x="-19050" y="-52577"/>
-          <a:chExt cx="1118445" cy="959994"/>
+          <a:chExt cx="1118445" cy="975730"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvPr id="15" name="Shape 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="1080346" cy="907417"/>
+            <a:ext cx="1080346" cy="923153"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2635,13 +2743,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPr id="16" name="Shape 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="-19050" y="-52578"/>
-            <a:ext cx="1118446" cy="806197"/>
+            <a:ext cx="1118446" cy="806196"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2718,38 +2832,50 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>245240</xdr:colOff>
+      <xdr:colOff>245464</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>126157</xdr:rowOff>
+      <xdr:rowOff>129332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>645877</xdr:colOff>
+      <xdr:colOff>645880</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>14531</xdr:rowOff>
+      <xdr:rowOff>11209</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="20" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5617340" y="4698157"/>
-          <a:ext cx="1238837" cy="802774"/>
-          <a:chOff x="0" y="-41148"/>
-          <a:chExt cx="1238836" cy="859924"/>
+          <a:off x="5414364" y="5082332"/>
+          <a:ext cx="1225916" cy="872477"/>
+          <a:chOff x="0" y="-41147"/>
+          <a:chExt cx="1225916" cy="872477"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvPr id="18" name="Shape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="1219788" cy="818777"/>
+            <a:ext cx="1206867" cy="831330"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2840,13 +2966,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvPr id="19" name="Shape 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1857" y="-41148"/>
-            <a:ext cx="1236981" cy="630936"/>
+            <a:off x="1637" y="-41148"/>
+            <a:ext cx="1224280" cy="630937"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2930,17 +3062,23 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>142168</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>24342</xdr:rowOff>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>249979</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95958</xdr:rowOff>
+      <xdr:rowOff>99133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 1"/>
+        <xdr:cNvPr id="22" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4063,770 +4201,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'Team'!R1C1" display="Team"/>
-    <hyperlink ref="D12" location="'Backlog'!R1C1" display="Backlog"/>
-    <hyperlink ref="D14" location="'Burndown README'!R1C1" display="Burndown README"/>
-    <hyperlink ref="D16" location="'Burndown'!R1C1" display="Burndown"/>
-    <hyperlink ref="D18" location="'Sprint1'!R1C1" display="Sprint1"/>
-    <hyperlink ref="D20" location="'Sprint2'!R1C1" display="Sprint2"/>
-    <hyperlink ref="D22" location="'Sprint3'!R1C1" display="Sprint3"/>
-    <hyperlink ref="D24" location="'Sprint4'!R1C1" display="Sprint4"/>
-    <hyperlink ref="D26" location="'Stories'!R1C1" display="Stories"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="40" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="40" customWidth="1"/>
-    <col min="4" max="5" width="11" style="40" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4839,144 +4349,555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="28">
+        <v>3</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4989,518 +4910,506 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="9" customWidth="1"/>
-    <col min="6" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>66</v>
+    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>2</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
-        <v>2</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
-        <v>2</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
-        <v>3</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
-        <v>4</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>4</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
-        <v>4</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
-        <v>2</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
-        <v>4</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
-        <v>4</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
-        <v>4</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42046</v>
+      </c>
+      <c r="C15" s="9">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="8">
+        <v>42060</v>
+      </c>
+      <c r="C16" s="9">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10">
+        <f>C15-C16</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="9">
+        <v>250</v>
+      </c>
+      <c r="F16" s="9">
+        <v>120</v>
+      </c>
+      <c r="G16" s="11">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42087</v>
+      </c>
+      <c r="C17" s="9">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10">
+        <f>C16-C17</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9">
+        <v>480</v>
+      </c>
+      <c r="F17" s="12">
+        <v>135</v>
+      </c>
+      <c r="G17" s="11">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
+        <f>C17-C18</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="9">
+        <v>740</v>
+      </c>
+      <c r="F18" s="12">
+        <v>160</v>
+      </c>
+      <c r="G18" s="11">
+        <f>(E18-E17)/F18*60</f>
+        <v>97.5</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <f>C18-C19</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="12">
+        <v>145</v>
+      </c>
+      <c r="G19" s="11">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5508,508 +5417,304 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="11" customWidth="1"/>
-    <col min="7" max="8" width="11" style="11" customWidth="1"/>
-    <col min="9" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="D1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="E1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
         <v>42046</v>
       </c>
-      <c r="C15" s="17">
+      <c r="B2" s="4">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
+        <v>42059</v>
+      </c>
+      <c r="B3" s="4">
         <v>24</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="16">
-        <v>42060</v>
-      </c>
-      <c r="C16" s="17">
-        <v>18</v>
-      </c>
-      <c r="D16" s="21">
-        <f>C15-C16</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="17">
-        <v>250</v>
-      </c>
-      <c r="F16" s="17">
-        <v>120</v>
-      </c>
-      <c r="G16" s="20">
-        <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17">
-        <v>12</v>
-      </c>
-      <c r="D17" s="21">
-        <f>C16-C17</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="17">
-        <v>480</v>
-      </c>
-      <c r="F17" s="22">
-        <v>135</v>
-      </c>
-      <c r="G17" s="20">
-        <f>(E17-E16)/F17*60</f>
-        <v>102.22222222222223</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17">
-        <v>6</v>
-      </c>
-      <c r="D18" s="21">
-        <f>C17-C18</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="17">
-        <v>740</v>
-      </c>
-      <c r="F18" s="22">
-        <v>160</v>
-      </c>
-      <c r="G18" s="20">
-        <f>(E18-E17)/F18*60</f>
-        <v>97.5</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17">
-        <v>0</v>
-      </c>
-      <c r="D19" s="21">
-        <f>C18-C19</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="17">
-        <v>1100</v>
-      </c>
-      <c r="F19" s="22">
-        <v>145</v>
-      </c>
-      <c r="G19" s="20">
-        <f>(E19-E18)/F19*60</f>
-        <v>148.9655172413793</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="C3" s="4">
+        <f>B2-B3</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>368</v>
+      </c>
+      <c r="E3" s="4">
+        <v>565</v>
+      </c>
+      <c r="F3" s="16">
+        <f>(D3-D2)/E3*60</f>
+        <v>39.079646017699112</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>42087</v>
+      </c>
+      <c r="B4" s="4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>256</v>
+      </c>
+      <c r="E4" s="4">
+        <v>305</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6023,287 +5728,696 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="131" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="25" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="25" customWidth="1"/>
-    <col min="7" max="7" width="11" style="25" customWidth="1"/>
-    <col min="8" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" customWidth="1"/>
+    <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="2">
         <v>113</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="2">
+        <v>102</v>
+      </c>
+      <c r="F4" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="22">
+        <v>48944</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>90</v>
+      </c>
+      <c r="G7" s="2">
         <v>114</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26">
-        <v>42046</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="H7" s="2">
+        <v>180</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2">
         <v>32</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26">
-        <v>42059</v>
-      </c>
-      <c r="B3" s="10">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10">
-        <f>B2-B3</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="10">
-        <v>368</v>
-      </c>
-      <c r="E3" s="10">
-        <v>565</v>
-      </c>
-      <c r="F3" s="27">
-        <f>(D3-D2)/E3*60</f>
-        <v>39.079646017699112</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="7"/>
+      <c r="H8" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="22">
+        <v>51470</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2">
+        <v>60</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6311,702 +6425,550 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="28" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="28" customWidth="1"/>
-    <col min="9" max="10" width="11" style="28" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="28" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="13" style="28" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="28" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="28" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="28" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="190.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>115</v>
+      </c>
+      <c r="F2" s="2">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2">
         <v>35</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="I3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="22">
+        <v>48944</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="10">
-        <v>100</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="L6" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2">
         <v>90</v>
       </c>
-      <c r="G2" s="10">
-        <v>38</v>
-      </c>
-      <c r="H2" s="10">
-        <v>45</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>98</v>
+      </c>
+      <c r="F8" s="2">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2">
         <v>42</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="10">
-        <v>100</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="H8" s="2">
         <v>90</v>
       </c>
-      <c r="G3" s="10">
-        <v>27</v>
-      </c>
-      <c r="H3" s="10">
-        <v>25</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="10">
-        <v>102</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="I8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="22">
+        <v>51470</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2">
         <v>90</v>
       </c>
-      <c r="G4" s="10">
-        <v>38</v>
-      </c>
-      <c r="H4" s="10">
-        <v>100</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="34">
-        <v>48944</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q4" s="35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="G9" s="2">
         <v>46</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="10">
-        <v>100</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="H9" s="2">
         <v>90</v>
       </c>
-      <c r="G5" s="10">
-        <v>8</v>
-      </c>
-      <c r="H5" s="10">
-        <v>50</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q5" s="35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="10">
-        <v>90</v>
-      </c>
-      <c r="F6" s="10">
-        <v>90</v>
-      </c>
-      <c r="G6" s="10">
-        <v>77</v>
-      </c>
-      <c r="H6" s="10">
-        <v>30</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q6" s="35">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="10">
-        <v>100</v>
-      </c>
-      <c r="F7" s="10">
-        <v>90</v>
-      </c>
-      <c r="G7" s="10">
-        <v>114</v>
-      </c>
-      <c r="H7" s="10">
-        <v>180</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="I9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q7" s="35">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="10">
-        <v>105</v>
-      </c>
-      <c r="F8" s="10">
-        <v>90</v>
-      </c>
-      <c r="G8" s="10">
-        <v>32</v>
-      </c>
-      <c r="H8" s="10">
-        <v>75</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8" s="33" t="s">
+      <c r="M9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M8" s="34">
-        <v>51470</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P9" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" s="35">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="10">
-        <v>100</v>
-      </c>
-      <c r="F9" s="10">
-        <v>90</v>
-      </c>
-      <c r="G9" s="10">
-        <v>34</v>
-      </c>
-      <c r="H9" s="10">
-        <v>60</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="33" t="s">
+      <c r="Q9" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q9" s="35">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="29" t="s">
+      <c r="C15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="23"/>
+      <c r="C16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="23"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="C19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="29" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7021,237 +6983,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="11" style="37" customWidth="1"/>
-    <col min="10" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>41</v>
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="10">
-        <v>115</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2">
         <v>90</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="10">
-        <v>100</v>
-      </c>
-      <c r="F3" s="10">
-        <v>90</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="10">
-        <v>80</v>
-      </c>
-      <c r="F4" s="10">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="10">
-        <v>100</v>
-      </c>
-      <c r="F5" s="10">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="10">
-        <v>90</v>
-      </c>
-      <c r="F6" s="10">
-        <v>90</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="10">
-        <v>95</v>
-      </c>
-      <c r="F7" s="10">
-        <v>90</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="10">
-        <v>98</v>
-      </c>
-      <c r="F8" s="10">
-        <v>90</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2">
         <v>65</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="10">
-        <v>105</v>
-      </c>
-      <c r="F9" s="10">
-        <v>90</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="2">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7268,139 +7225,138 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="11" style="38" customWidth="1"/>
-    <col min="10" max="256" width="11" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>41</v>
+    <row r="1" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7413,143 +7369,578 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="11" style="39" customWidth="1"/>
-    <col min="10" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="C8" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\Semester 2\Agile\Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allan/Desktop/Java/Final Pro/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3664A1D-FE30-4645-B812-4BA6F309F348}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,8 +22,14 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="253">
   <si>
     <t>Initials</t>
   </si>
@@ -753,18 +758,60 @@
   </si>
   <si>
     <t>232-273</t>
+  </si>
+  <si>
+    <t>US21_check_Gender_Role</t>
+  </si>
+  <si>
+    <t>183-224</t>
+  </si>
+  <si>
+    <t>TestUS21CheckGenderRole.java</t>
+  </si>
+  <si>
+    <t>testGenderRoleHusband, testGenderRoleWife()</t>
+  </si>
+  <si>
+    <t>US22_check_Unique_FamilyId, foundADuplicateId</t>
+  </si>
+  <si>
+    <t>MultiIndividualFamilyData.java, FamilyTreeParser.java</t>
+  </si>
+  <si>
+    <t>231-252, 50-58</t>
+  </si>
+  <si>
+    <t>checkFamilyUniqueId, checkFamilyUniqueId2</t>
+  </si>
+  <si>
+    <t>TestUS22UniqueIds.java</t>
+  </si>
+  <si>
+    <t>Complete user stories earlier and on time</t>
+  </si>
+  <si>
+    <t>Reply to messaes on slack</t>
+  </si>
+  <si>
+    <t>Avoid inegration at the end</t>
+  </si>
+  <si>
+    <t>Avoid refactoring at the end</t>
+  </si>
+  <si>
+    <t>Late start of new things to be implemented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="m&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -967,7 +1014,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1048,7 +1095,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1061,10 +1108,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5185000000000006E-2"/>
-          <c:y val="5.4688500000000001E-2"/>
-          <c:w val="0.89981500000000003"/>
-          <c:h val="0.84428700000000001"/>
+          <c:x val="0.095185"/>
+          <c:y val="0.0546885"/>
+          <c:w val="0.899815"/>
+          <c:h val="0.844287"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1107,16 +1154,16 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42046</c:v>
+                  <c:v>42046.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42060</c:v>
+                  <c:v>42060.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42087</c:v>
+                  <c:v>42087.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,25 +1175,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D8D-48F0-9F2D-0F8AAA21AC8A}"/>
             </c:ext>
@@ -1162,11 +1209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:axId val="1041759056"/>
+        <c:axId val="1041746144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2094734552"/>
+        <c:axId val="1041759056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,14 +1247,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="1041746144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="1041746144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="1041759056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1295,7 +1342,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1308,10 +1355,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3853299999999997E-2"/>
-          <c:y val="5.4688500000000001E-2"/>
-          <c:w val="0.92114700000000005"/>
-          <c:h val="0.84428700000000001"/>
+          <c:x val="0.0738533"/>
+          <c:y val="0.0546885"/>
+          <c:w val="0.921147"/>
+          <c:h val="0.844287"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1357,13 +1404,13 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42046</c:v>
+                  <c:v>42046.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42059</c:v>
+                  <c:v>42059.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="m/d/yyyy">
-                  <c:v>42087</c:v>
+                <c:pt idx="2" formatCode="m/d/yy">
+                  <c:v>42087.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,19 +1422,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2690-4E11-B0A0-7E616747BB0B}"/>
             </c:ext>
@@ -1403,11 +1450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:axId val="1013530416"/>
+        <c:axId val="1013895728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2094734552"/>
+        <c:axId val="1013530416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,14 +1488,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="1013895728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="1013895728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,11 +1540,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="1013530416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="8"/>
-        <c:minorUnit val="4"/>
+        <c:majorUnit val="8.0"/>
+        <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1555,7 +1602,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1638,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,8 +1646,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1336924" y="1432570"/>
-          <a:ext cx="1438826" cy="970570"/>
+          <a:off x="1275238" y="1447084"/>
+          <a:ext cx="1389841" cy="981456"/>
           <a:chOff x="-19049" y="-64007"/>
           <a:chExt cx="1389841" cy="981455"/>
         </a:xfrm>
@@ -1610,7 +1657,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1713,7 +1760,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1735,7 +1782,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1861,7 +1908,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,8 +1916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5635229" y="1427151"/>
-          <a:ext cx="1311367" cy="661502"/>
+          <a:off x="5263300" y="1441665"/>
+          <a:ext cx="1249682" cy="668759"/>
           <a:chOff x="-19050" y="-41148"/>
           <a:chExt cx="1249682" cy="668759"/>
         </a:xfrm>
@@ -1880,7 +1927,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1983,7 +2030,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2005,7 +2052,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2084,7 +2131,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,8 +2139,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2969441" y="1247346"/>
-          <a:ext cx="1130542" cy="909302"/>
+          <a:off x="2769870" y="1260046"/>
+          <a:ext cx="1063413" cy="920188"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1063412" cy="920188"/>
         </a:xfrm>
@@ -2103,7 +2150,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2206,7 +2253,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2228,7 +2275,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2307,7 +2354,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,8 +2362,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4097019" y="1580822"/>
-          <a:ext cx="431074" cy="623679"/>
+          <a:off x="3830319" y="1597151"/>
+          <a:ext cx="391160" cy="630936"/>
           <a:chOff x="-17779" y="-41148"/>
           <a:chExt cx="391159" cy="630936"/>
         </a:xfrm>
@@ -2326,7 +2373,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2429,7 +2476,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2451,7 +2498,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2577,7 +2624,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,8 +2632,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4524284" y="1268511"/>
-          <a:ext cx="1183761" cy="964844"/>
+          <a:off x="4217670" y="1281211"/>
+          <a:ext cx="1118446" cy="975730"/>
           <a:chOff x="-19050" y="-52577"/>
           <a:chExt cx="1118445" cy="975730"/>
         </a:xfrm>
@@ -2596,7 +2643,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2699,7 +2746,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2721,7 +2768,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2800,7 +2847,7 @@
         <xdr:cNvPr id="20" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,8 +2855,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5786293" y="5027903"/>
-          <a:ext cx="1287601" cy="861592"/>
+          <a:off x="5414364" y="5082332"/>
+          <a:ext cx="1225916" cy="872477"/>
           <a:chOff x="0" y="-41147"/>
           <a:chExt cx="1225916" cy="872477"/>
         </a:xfrm>
@@ -2819,7 +2866,7 @@
           <xdr:cNvPr id="18" name="Shape 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2922,7 +2969,7 @@
           <xdr:cNvPr id="19" name="Shape 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2944,7 +2991,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3028,7 +3075,7 @@
         <xdr:cNvPr id="22" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,21 +4200,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" customWidth="1"/>
-    <col min="4" max="5" width="20.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4184,14 +4231,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4208,7 +4255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4225,7 +4272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4242,7 +4289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4259,21 +4306,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4284,7 +4331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4301,16 +4348,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
@@ -4318,7 +4365,7 @@
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4335,7 +4382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4352,7 +4399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4369,7 +4416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4386,7 +4433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -4403,7 +4450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4420,7 +4467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -4437,7 +4484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4454,7 +4501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -4471,7 +4518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -4488,7 +4535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -4505,7 +4552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4522,7 +4569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -4539,7 +4586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -4552,7 +4599,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -4569,7 +4616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -4586,7 +4633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -4599,7 +4646,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -4616,7 +4663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -4633,7 +4680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -4646,7 +4693,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -4659,7 +4706,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -4676,7 +4723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -4693,7 +4740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -4706,7 +4753,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -4723,7 +4770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -4736,7 +4783,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -4749,7 +4796,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -4762,7 +4809,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -4775,7 +4822,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -4792,7 +4839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -4805,7 +4852,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -4822,7 +4869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -4835,7 +4882,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="14.15" customHeight="1">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28">
         <v>3</v>
       </c>
@@ -4862,23 +4909,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" customWidth="1"/>
-    <col min="7" max="256" width="10.86328125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" customHeight="1">
+    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4890,7 +4939,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1">
+    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -4902,7 +4951,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="13" customHeight="1">
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -4914,7 +4963,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="13" customHeight="1">
+    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4924,7 +4973,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="13" customHeight="1">
+    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -4936,7 +4985,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="13" customHeight="1">
+    <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -4948,7 +4997,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="13" customHeight="1">
+    <row r="7" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4958,7 +5007,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="13" customHeight="1">
+    <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -4970,7 +5019,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="13" customHeight="1">
+    <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4980,7 +5029,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="13" customHeight="1">
+    <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4990,7 +5039,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="13" customHeight="1">
+    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5000,7 +5049,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="13" customHeight="1">
+    <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5010,7 +5059,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="13" customHeight="1">
+    <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5020,7 +5069,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="13" customHeight="1">
+    <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5044,7 +5093,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="13" customHeight="1">
+    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -5062,7 +5111,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="13" customHeight="1">
+    <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -5088,7 +5137,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="13" customHeight="1">
+    <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -5114,7 +5163,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="13" customHeight="1">
+    <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -5138,7 +5187,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="13" customHeight="1">
+    <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -5162,7 +5211,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="13" customHeight="1">
+    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="13"/>
@@ -5172,7 +5221,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="13" customHeight="1">
+    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5182,7 +5231,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="13" customHeight="1">
+    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5192,7 +5241,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="13" customHeight="1">
+    <row r="23" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5202,7 +5251,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="13" customHeight="1">
+    <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5212,7 +5261,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="13" customHeight="1">
+    <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5222,7 +5271,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="13" customHeight="1">
+    <row r="26" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5232,7 +5281,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="13" customHeight="1">
+    <row r="27" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5242,7 +5291,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="13" customHeight="1">
+    <row r="28" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5252,7 +5301,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="13" customHeight="1">
+    <row r="29" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5262,7 +5311,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="13" customHeight="1">
+    <row r="30" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5272,7 +5321,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="13" customHeight="1">
+    <row r="31" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5282,7 +5331,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="13" customHeight="1">
+    <row r="32" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5292,7 +5341,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="13" customHeight="1">
+    <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5302,7 +5351,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="13" customHeight="1">
+    <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -5312,7 +5361,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="13" customHeight="1">
+    <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5322,7 +5371,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="13" customHeight="1">
+    <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5332,7 +5381,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="13" customHeight="1">
+    <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -5342,7 +5391,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="13" customHeight="1">
+    <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -5352,7 +5401,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="13" customHeight="1">
+    <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -5373,23 +5422,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.46484375" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" customWidth="1"/>
-    <col min="7" max="256" width="10.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1">
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -5410,7 +5461,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1">
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>42046</v>
       </c>
@@ -5425,7 +5476,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1">
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>42059</v>
       </c>
@@ -5448,7 +5499,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="13" customHeight="1">
+    <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>42087</v>
       </c>
@@ -5458,12 +5509,16 @@
       <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="4">
+        <v>256</v>
+      </c>
+      <c r="E4" s="4">
+        <v>305</v>
+      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1">
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5472,7 +5527,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="13" customHeight="1">
+    <row r="6" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5481,7 +5536,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="13" customHeight="1">
+    <row r="7" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5490,7 +5545,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="13" customHeight="1">
+    <row r="8" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5499,7 +5554,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="13" customHeight="1">
+    <row r="9" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5508,7 +5563,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="13" customHeight="1">
+    <row r="10" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5517,7 +5572,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="13" customHeight="1">
+    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5526,7 +5581,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="13" customHeight="1">
+    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5535,7 +5590,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="13" customHeight="1">
+    <row r="13" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5544,7 +5599,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13" customHeight="1">
+    <row r="14" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5553,7 +5608,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="13" customHeight="1">
+    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5562,7 +5617,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="13" customHeight="1">
+    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5571,7 +5626,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="13" customHeight="1">
+    <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5580,7 +5635,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="13" customHeight="1">
+    <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5589,7 +5644,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="13" customHeight="1">
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5598,7 +5653,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="13" customHeight="1">
+    <row r="20" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -5607,7 +5662,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="13" customHeight="1">
+    <row r="21" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5616,7 +5671,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="13" customHeight="1">
+    <row r="22" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5625,7 +5680,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="13" customHeight="1">
+    <row r="23" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5634,7 +5689,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="13" customHeight="1">
+    <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5643,7 +5698,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="13" customHeight="1">
+    <row r="25" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5652,7 +5707,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="13" customHeight="1">
+    <row r="26" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5672,35 +5727,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:Q9"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.46484375" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" customWidth="1"/>
-    <col min="7" max="7" width="8.46484375" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.46484375" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="1.86328125" customWidth="1"/>
-    <col min="15" max="15" width="10.19921875" customWidth="1"/>
-    <col min="16" max="16" width="16.46484375" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -5749,7 +5804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.05" customHeight="1">
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -5798,7 +5853,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17.05" customHeight="1">
+    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -5847,7 +5902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.05" customHeight="1">
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -5896,7 +5951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17.05" customHeight="1">
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -5945,7 +6000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.05" customHeight="1">
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -5994,7 +6049,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.05" customHeight="1">
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -6043,7 +6098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.05" customHeight="1">
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -6092,7 +6147,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.05" customHeight="1">
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -6141,7 +6196,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="23"/>
       <c r="C10" s="2"/>
@@ -6160,7 +6215,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="23"/>
       <c r="C11" s="2"/>
@@ -6179,7 +6234,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="23"/>
       <c r="C12" s="2"/>
@@ -6198,7 +6253,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="23"/>
       <c r="C13" s="2"/>
@@ -6217,7 +6272,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="18" t="s">
         <v>159</v>
@@ -6238,7 +6293,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
@@ -6257,7 +6312,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="18" t="s">
         <v>160</v>
@@ -6280,7 +6335,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
@@ -6301,7 +6356,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
@@ -6322,7 +6377,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="23"/>
       <c r="C19" s="2"/>
@@ -6341,7 +6396,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="18" t="s">
         <v>164</v>
@@ -6374,25 +6429,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="11" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="19.265625" customWidth="1"/>
-    <col min="16" max="16" width="190.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.9296875" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="190.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -6440,7 +6497,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -6459,30 +6516,36 @@
       <c r="F2" s="2">
         <v>90</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="2">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>129</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="1" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -6501,30 +6564,36 @@
       <c r="F3" s="2">
         <v>90</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="2">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="1" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="Q3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -6572,7 +6641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -6620,7 +6689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -6668,7 +6737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
@@ -6716,7 +6785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -6764,7 +6833,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -6812,7 +6881,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6822,6 +6891,84 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="23"/>
+      <c r="C16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="23"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="29" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6833,19 +6980,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -6874,7 +7023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -6893,7 +7042,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -6912,7 +7061,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -6935,7 +7084,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -6958,7 +7107,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -6981,7 +7130,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>202</v>
       </c>
@@ -7004,29 +7153,53 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2">
+        <v>65</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7047,17 +7220,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="10.86328125" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" customHeight="1">
+    <row r="1" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
@@ -7086,7 +7259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7097,7 +7270,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7108,7 +7281,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7119,7 +7292,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7130,7 +7303,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7141,7 +7314,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7152,7 +7325,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7163,7 +7336,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -7174,7 +7347,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7195,22 +7368,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
-    <col min="3" max="3" width="49.46484375" customWidth="1"/>
-    <col min="4" max="256" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05" customHeight="1">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -7223,7 +7396,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="34" customHeight="1">
+    <row r="2" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -7236,7 +7409,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="17.05" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -7249,7 +7422,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="17.05" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -7262,7 +7435,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="34" customHeight="1">
+    <row r="5" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -7275,7 +7448,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17.05" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -7288,7 +7461,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17.05" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -7301,7 +7474,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1">
+    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -7314,7 +7487,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="34" customHeight="1">
+    <row r="9" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -7327,7 +7500,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="34" customHeight="1">
+    <row r="10" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -7340,7 +7513,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="34" customHeight="1">
+    <row r="11" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -7353,7 +7526,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="34" customHeight="1">
+    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
@@ -7366,7 +7539,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="51" customHeight="1">
+    <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -7379,7 +7552,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="68.05" customHeight="1">
+    <row r="14" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -7392,7 +7565,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="34" customHeight="1">
+    <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -7405,7 +7578,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="17.05" customHeight="1">
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -7418,7 +7591,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="34" customHeight="1">
+    <row r="17" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -7431,7 +7604,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="17.05" customHeight="1">
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -7444,7 +7617,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="17.05" customHeight="1">
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -7457,7 +7630,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="17.05" customHeight="1">
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -7470,7 +7643,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="34" customHeight="1">
+    <row r="21" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -7483,7 +7656,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="34" customHeight="1">
+    <row r="22" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -7496,7 +7669,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="34" customHeight="1">
+    <row r="23" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -7509,7 +7682,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="34" customHeight="1">
+    <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -7522,7 +7695,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1">
+    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -7535,7 +7708,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="34" customHeight="1">
+    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -7548,7 +7721,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="136" customHeight="1">
+    <row r="27" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -7561,7 +7734,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="17.05" customHeight="1">
+    <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
@@ -7574,7 +7747,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="34" customHeight="1">
+    <row r="29" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
@@ -7587,7 +7760,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="17.05" customHeight="1">
+    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -7600,7 +7773,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="17.05" customHeight="1">
+    <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -7613,7 +7786,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="34" customHeight="1">
+    <row r="32" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
@@ -7626,7 +7799,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="17.05" customHeight="1">
+    <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>98</v>
       </c>
@@ -7639,7 +7812,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="34" customHeight="1">
+    <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>202</v>
       </c>
@@ -7652,7 +7825,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="51" customHeight="1">
+    <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>205</v>
       </c>
@@ -7665,7 +7838,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="34" customHeight="1">
+    <row r="36" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>208</v>
       </c>
@@ -7678,7 +7851,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="34" customHeight="1">
+    <row r="37" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>211</v>
       </c>
@@ -7691,7 +7864,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="34" customHeight="1">
+    <row r="38" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>214</v>
       </c>
@@ -7704,7 +7877,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="34" customHeight="1">
+    <row r="39" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>217</v>
       </c>
@@ -7717,7 +7890,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="34" customHeight="1">
+    <row r="40" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>220</v>
       </c>
@@ -7730,7 +7903,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="34" customHeight="1">
+    <row r="41" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>223</v>
       </c>
@@ -7743,7 +7916,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="34" customHeight="1">
+    <row r="42" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>226</v>
       </c>
@@ -7756,7 +7929,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="34" customHeight="1">
+    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>229</v>
       </c>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allan/Desktop/Java/Final Pro/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stevens\Courses\CS-555-Agile Methods for SW Eng\GEDCOM_Project\CS_555_JAVS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FAE56A-2210-493C-984D-CFD118E5F659}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,13 +23,10 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,12 +34,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="263">
   <si>
     <t>Initials</t>
   </si>
@@ -800,18 +801,48 @@
   </si>
   <si>
     <t>Late start of new things to be implemented</t>
+  </si>
+  <si>
+    <t>US_CheckUniqueness.java</t>
+  </si>
+  <si>
+    <t>findDuplicateSpousedetails</t>
+  </si>
+  <si>
+    <t>10-39</t>
+  </si>
+  <si>
+    <t>Test_US24UniqueFamilyBySpouse</t>
+  </si>
+  <si>
+    <t>Test_US09BirthAfterDeathOfParents</t>
+  </si>
+  <si>
+    <t>testUniqueFamilyBySpouseRefactoredError, testUniqueFamilyBySpouseRefactoredSuccess</t>
+  </si>
+  <si>
+    <t>US_DatesCheckInFamily</t>
+  </si>
+  <si>
+    <t>findBirthBeforeDeathOfParents</t>
+  </si>
+  <si>
+    <t>250-285</t>
+  </si>
+  <si>
+    <t>testBirthAfterDeathOfMother,testBirthAfterDeathOfFather,testBirthAfterDeathOfMotherFather,testBirthBeforeDeathOfMotherFather,testBirthWhenMotherFatherAlive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="m&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -832,6 +863,25 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -962,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1009,6 +1059,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,7 +1199,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1108,10 +1212,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.095185"/>
-          <c:y val="0.0546885"/>
-          <c:w val="0.899815"/>
-          <c:h val="0.844287"/>
+          <c:x val="9.5185000000000006E-2"/>
+          <c:y val="5.4688500000000001E-2"/>
+          <c:w val="0.89981500000000003"/>
+          <c:h val="0.84428700000000001"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1154,16 +1258,16 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42046.0</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42060.0</c:v>
+                  <c:v>42060</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42087.0</c:v>
+                  <c:v>42087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,25 +1279,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D8D-48F0-9F2D-0F8AAA21AC8A}"/>
             </c:ext>
@@ -1342,7 +1446,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1355,10 +1459,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0738533"/>
-          <c:y val="0.0546885"/>
-          <c:w val="0.921147"/>
-          <c:h val="0.844287"/>
+          <c:x val="7.3853299999999997E-2"/>
+          <c:y val="5.4688500000000001E-2"/>
+          <c:w val="0.92114700000000005"/>
+          <c:h val="0.84428700000000001"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1404,13 +1508,13 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42046.0</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42059.0</c:v>
+                  <c:v>42059</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="m/d/yy">
-                  <c:v>42087.0</c:v>
+                <c:pt idx="2" formatCode="m/d/yyyy">
+                  <c:v>42087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,19 +1526,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2690-4E11-B0A0-7E616747BB0B}"/>
             </c:ext>
@@ -1543,8 +1647,8 @@
         <c:crossAx val="1013530416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="8.0"/>
-        <c:minorUnit val="4.0"/>
+        <c:majorUnit val="8"/>
+        <c:minorUnit val="4"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1602,7 +1706,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1742,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1761,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1760,7 +1864,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1782,7 +1886,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1908,7 +2012,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +2031,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2030,7 +2134,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2052,7 +2156,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2131,7 +2235,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2254,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2253,7 +2357,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2275,7 +2379,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2354,7 +2458,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2477,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2476,7 +2580,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2498,7 +2602,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2624,7 +2728,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2747,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2746,7 +2850,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2768,7 +2872,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2847,7 +2951,7 @@
         <xdr:cNvPr id="20" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2970,7 @@
           <xdr:cNvPr id="18" name="Shape 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2969,7 +3073,7 @@
           <xdr:cNvPr id="19" name="Shape 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2991,7 +3095,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3075,7 +3179,7 @@
         <xdr:cNvPr id="22" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4200,21 +4304,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4231,14 +4335,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4255,7 +4359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4272,7 +4376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4289,7 +4393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4306,21 +4410,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4331,7 +4435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4348,24 +4452,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4382,7 +4486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4399,7 +4503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4416,7 +4520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4433,7 +4537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -4450,7 +4554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4467,7 +4571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -4484,7 +4588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4501,7 +4605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -4518,7 +4622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -4535,7 +4639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -4552,7 +4656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4569,7 +4673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -4586,7 +4690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -4599,7 +4703,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -4616,7 +4720,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -4633,7 +4737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -4646,7 +4750,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -4663,7 +4767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -4680,7 +4784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -4693,7 +4797,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -4706,7 +4810,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -4723,7 +4827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -4740,7 +4844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -4753,7 +4857,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -4770,7 +4874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -4783,7 +4887,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -4796,7 +4900,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -4809,7 +4913,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -4822,7 +4926,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -4839,7 +4943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" customHeight="1">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -4852,7 +4956,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15" customHeight="1">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -4869,7 +4973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -4882,7 +4986,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1">
       <c r="A34" s="28">
         <v>3</v>
       </c>
@@ -4909,25 +5013,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="256" width="10.83203125" customWidth="1"/>
+    <col min="7" max="256" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="12.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4939,7 +5043,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="12.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -4951,7 +5055,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="12.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -4963,7 +5067,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="12.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4973,7 +5077,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="12.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -4985,7 +5089,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="12.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -4997,7 +5101,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="12.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5007,7 +5111,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="12.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -5019,7 +5123,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="12.95" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5029,7 +5133,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="12.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5039,7 +5143,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="12.95" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5049,7 +5153,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="12.95" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5059,7 +5163,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="12.95" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5069,7 +5173,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="12.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5093,7 +5197,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="12.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -5111,7 +5215,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="12.95" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -5137,7 +5241,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="12.95" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -5163,7 +5267,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="12.95" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -5187,7 +5291,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="12.95" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -5211,7 +5315,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="12.95" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="13"/>
@@ -5221,7 +5325,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="12.95" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5231,7 +5335,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="12.95" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5241,7 +5345,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="12.95" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5251,7 +5355,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="12.95" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5261,7 +5365,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="12.95" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5271,7 +5375,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="12.95" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5281,7 +5385,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="12.95" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5291,7 +5395,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="12.95" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5301,7 +5405,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="12.95" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5311,7 +5415,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="12.95" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5321,7 +5425,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="12.95" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5331,7 +5435,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="12.95" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5341,7 +5445,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="12.95" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5351,7 +5455,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="12.95" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -5361,7 +5465,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="12.95" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5371,7 +5475,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="12.95" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5381,7 +5485,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="12.95" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -5391,7 +5495,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="12.95" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -5401,7 +5505,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="12.95" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -5422,25 +5526,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="256" width="10.83203125" customWidth="1"/>
+    <col min="7" max="256" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="12.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -5461,7 +5565,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="12.95" customHeight="1">
       <c r="A2" s="15">
         <v>42046</v>
       </c>
@@ -5476,7 +5580,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="12.95" customHeight="1">
       <c r="A3" s="15">
         <v>42059</v>
       </c>
@@ -5499,7 +5603,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="12.95" customHeight="1">
       <c r="A4" s="17">
         <v>42087</v>
       </c>
@@ -5518,7 +5622,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="12.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5527,7 +5631,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="12.95" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5536,7 +5640,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="12.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5545,7 +5649,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="12.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5554,7 +5658,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="12.95" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5563,7 +5667,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="12.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5572,7 +5676,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="12.95" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5581,7 +5685,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="12.95" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5590,7 +5694,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="12.95" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5599,7 +5703,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="12.95" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5608,7 +5712,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="12.95" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5617,7 +5721,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="12.95" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5626,7 +5730,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="12.95" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5635,7 +5739,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="12.95" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5644,7 +5748,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="12.95" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5653,7 +5757,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="12.95" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -5662,7 +5766,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="12.95" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5671,7 +5775,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="12.95" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5680,7 +5784,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="12.95" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5689,7 +5793,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="12.95" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5698,7 +5802,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="12.95" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5707,7 +5811,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="12.95" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5727,35 +5831,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="15" width="10.125" customWidth="1"/>
     <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" customWidth="1"/>
+    <col min="17" max="17" width="10.125" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -5804,7 +5908,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -5853,7 +5957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -5902,7 +6006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -5951,7 +6055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -6000,7 +6104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -6049,7 +6153,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -6098,7 +6202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -6147,7 +6251,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -6196,7 +6300,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="23"/>
       <c r="C10" s="2"/>
@@ -6215,7 +6319,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="23"/>
       <c r="C11" s="2"/>
@@ -6234,7 +6338,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="23"/>
       <c r="C12" s="2"/>
@@ -6253,7 +6357,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="23"/>
       <c r="C13" s="2"/>
@@ -6272,7 +6376,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="18" t="s">
         <v>159</v>
@@ -6293,7 +6397,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
@@ -6312,7 +6416,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="18" t="s">
         <v>160</v>
@@ -6335,7 +6439,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
@@ -6356,7 +6460,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
@@ -6377,7 +6481,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="23"/>
       <c r="C19" s="2"/>
@@ -6396,7 +6500,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="18" t="s">
         <v>164</v>
@@ -6429,27 +6533,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K1" sqref="K1:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="190.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" customWidth="1"/>
+    <col min="16" max="16" width="190.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -6497,7 +6601,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -6545,7 +6649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -6593,7 +6697,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -6641,7 +6745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -6689,7 +6793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -6737,7 +6841,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
@@ -6785,7 +6889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -6833,7 +6937,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -6881,7 +6985,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6892,7 +6996,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.25" customHeight="1">
       <c r="B13" s="18" t="s">
         <v>159</v>
       </c>
@@ -6902,7 +7006,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.25" customHeight="1">
       <c r="B14" s="18"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6910,7 +7014,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.25" customHeight="1">
       <c r="B15" s="18" t="s">
         <v>160</v>
       </c>
@@ -6922,7 +7026,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.25" customHeight="1">
       <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>249</v>
@@ -6932,7 +7036,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="14.25" customHeight="1">
       <c r="B17" s="23"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -6940,7 +7044,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="14.25" customHeight="1">
       <c r="B18" s="23"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6948,7 +7052,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="14.25" customHeight="1">
       <c r="B19" s="18" t="s">
         <v>164</v>
       </c>
@@ -6960,12 +7064,12 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="14.25" customHeight="1">
       <c r="C20" s="29" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="14.25" customHeight="1">
       <c r="C21" s="29" t="s">
         <v>251</v>
       </c>
@@ -6980,239 +7084,364 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="34" customWidth="1"/>
+    <col min="3" max="9" width="11" style="34" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="34" customWidth="1"/>
+    <col min="11" max="11" width="11" style="46" customWidth="1"/>
+    <col min="12" max="15" width="11" style="34" customWidth="1"/>
+    <col min="16" max="16" width="11" style="43" customWidth="1"/>
+    <col min="17" max="256" width="11" style="34" customWidth="1"/>
+    <col min="257" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="33">
+        <v>50</v>
+      </c>
+      <c r="F2" s="33">
+        <v>50</v>
+      </c>
+      <c r="G2" s="33">
+        <v>35</v>
+      </c>
+      <c r="H2" s="33">
+        <v>30</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="33"/>
+      <c r="N2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="42">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="A3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="33">
+        <v>50</v>
+      </c>
+      <c r="F3" s="33">
+        <v>50</v>
+      </c>
+      <c r="G3" s="33">
+        <v>29</v>
+      </c>
+      <c r="H3" s="33">
+        <v>30</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1">
+      <c r="A4" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="33">
         <v>70</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="33">
         <v>90</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="42"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="33">
         <v>50</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="33">
         <v>60</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
+      <c r="A6" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="33">
         <v>50</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="33">
         <v>60</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="A7" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="33">
         <v>50</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="33">
         <v>60</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="42"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="33">
         <v>60</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="33">
         <v>45</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="42"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="33">
         <v>65</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="33">
         <v>40</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="42"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7220,17 +7449,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.83203125" customWidth="1"/>
+    <col min="1" max="256" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27.95" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
@@ -7259,7 +7488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7270,7 +7499,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7281,7 +7510,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7292,7 +7521,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7303,7 +7532,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7314,7 +7543,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7325,7 +7554,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7336,7 +7565,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -7347,7 +7576,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7368,22 +7597,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="256" width="10.83203125" customWidth="1"/>
+    <col min="4" max="256" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="14.1" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -7396,7 +7625,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -7409,7 +7638,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -7422,7 +7651,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -7435,7 +7664,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -7448,7 +7677,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -7461,7 +7690,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -7474,7 +7703,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="51" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -7487,7 +7716,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -7500,7 +7729,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -7513,7 +7742,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -7526,7 +7755,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
@@ -7539,7 +7768,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="51" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -7552,7 +7781,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="68.099999999999994" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -7565,7 +7794,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -7578,7 +7807,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -7591,7 +7820,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -7604,7 +7833,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -7617,7 +7846,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -7630,7 +7859,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -7643,7 +7872,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -7656,7 +7885,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -7669,7 +7898,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -7682,7 +7911,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -7695,7 +7924,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="51" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -7708,7 +7937,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -7721,7 +7950,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="135.94999999999999" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -7734,7 +7963,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
@@ -7747,7 +7976,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
@@ -7760,7 +7989,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -7773,7 +8002,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -7786,7 +8015,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
@@ -7799,7 +8028,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>98</v>
       </c>
@@ -7812,7 +8041,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>202</v>
       </c>
@@ -7825,7 +8054,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="51" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>205</v>
       </c>
@@ -7838,7 +8067,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>208</v>
       </c>
@@ -7851,7 +8080,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>211</v>
       </c>
@@ -7864,7 +8093,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>214</v>
       </c>
@@ -7877,7 +8106,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>217</v>
       </c>
@@ -7890,7 +8119,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>220</v>
       </c>
@@ -7903,7 +8132,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>223</v>
       </c>
@@ -7916,7 +8145,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>226</v>
       </c>
@@ -7929,7 +8158,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>229</v>
       </c>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stevens\Courses\CS-555-Agile Methods for SW Eng\GEDCOM_Project\CS_555_JAVS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\Semester 2\Agile\GedcomProject\CS_555_JAVS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FAE56A-2210-493C-984D-CFD118E5F659}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD93DA-40A8-432B-8FBB-7334F5DE9A7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="264">
   <si>
     <t>Initials</t>
   </si>
@@ -831,6 +831,9 @@
   </si>
   <si>
     <t>testBirthAfterDeathOfMother,testBirthAfterDeathOfFather,testBirthAfterDeathOfMotherFather,testBirthBeforeDeathOfMotherFather,testBirthWhenMotherFatherAlive</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1889,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2156,7 +2159,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2379,7 +2382,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2602,7 +2605,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2872,7 +2875,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3095,7 +3098,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -4455,7 +4458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
@@ -7087,8 +7090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
@@ -7319,7 +7322,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="E6" s="33">
         <v>50</v>
@@ -7327,9 +7330,15 @@
       <c r="F6" s="33">
         <v>60</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="G6" s="33">
+        <v>23</v>
+      </c>
+      <c r="H6" s="33">
+        <v>60</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>166</v>
+      </c>
       <c r="J6" s="35"/>
       <c r="K6" s="45"/>
       <c r="L6" s="35"/>
@@ -7349,7 +7358,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="E7" s="33">
         <v>50</v>
@@ -7357,9 +7366,15 @@
       <c r="F7" s="33">
         <v>60</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="G7" s="33">
+        <v>14</v>
+      </c>
+      <c r="H7" s="33">
+        <v>20</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>166</v>
+      </c>
       <c r="J7" s="35"/>
       <c r="K7" s="45"/>
       <c r="L7" s="35"/>
@@ -7600,8 +7615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\Semester 2\Agile\GedcomProject\CS_555_JAVS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allan/Desktop/Java/Final Pro/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD93DA-40A8-432B-8FBB-7334F5DE9A7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,10 +22,13 @@
     <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,15 +36,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="263">
   <si>
     <t>Initials</t>
   </si>
@@ -831,21 +830,18 @@
   </si>
   <si>
     <t>testBirthAfterDeathOfMother,testBirthAfterDeathOfFather,testBirthAfterDeathOfMotherFather,testBirthBeforeDeathOfMotherFather,testBirthWhenMotherFatherAlive</t>
-  </si>
-  <si>
-    <t>testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="m&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1202,7 +1198,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1215,10 +1211,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5185000000000006E-2"/>
-          <c:y val="5.4688500000000001E-2"/>
-          <c:w val="0.89981500000000003"/>
-          <c:h val="0.84428700000000001"/>
+          <c:x val="0.095185"/>
+          <c:y val="0.0546885"/>
+          <c:w val="0.899815"/>
+          <c:h val="0.844287"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1261,16 +1257,16 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42046</c:v>
+                  <c:v>42046.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42060</c:v>
+                  <c:v>42060.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42087</c:v>
+                  <c:v>42087.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,25 +1278,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D8D-48F0-9F2D-0F8AAA21AC8A}"/>
             </c:ext>
@@ -1316,11 +1312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1041759056"/>
-        <c:axId val="1041746144"/>
+        <c:axId val="1856930864"/>
+        <c:axId val="1856932912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1041759056"/>
+        <c:axId val="1856930864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,14 +1350,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1041746144"/>
+        <c:crossAx val="1856932912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1041746144"/>
+        <c:axId val="1856932912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1041759056"/>
+        <c:crossAx val="1856930864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1449,7 +1445,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1462,10 +1458,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3853299999999997E-2"/>
-          <c:y val="5.4688500000000001E-2"/>
-          <c:w val="0.92114700000000005"/>
-          <c:h val="0.84428700000000001"/>
+          <c:x val="0.0738533"/>
+          <c:y val="0.0546885"/>
+          <c:w val="0.921147"/>
+          <c:h val="0.844287"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1511,13 +1507,13 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42046</c:v>
+                  <c:v>42046.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42059</c:v>
+                  <c:v>42059.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="m/d/yyyy">
-                  <c:v>42087</c:v>
+                <c:pt idx="2" formatCode="m/d/yy">
+                  <c:v>42087.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,19 +1525,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2690-4E11-B0A0-7E616747BB0B}"/>
             </c:ext>
@@ -1557,11 +1553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1013530416"/>
-        <c:axId val="1013895728"/>
+        <c:axId val="1859481920"/>
+        <c:axId val="1859483552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013530416"/>
+        <c:axId val="1859481920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,14 +1591,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013895728"/>
+        <c:crossAx val="1859483552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013895728"/>
+        <c:axId val="1859483552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,11 +1643,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013530416"/>
+        <c:crossAx val="1859481920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="8"/>
-        <c:minorUnit val="4"/>
+        <c:majorUnit val="8.0"/>
+        <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1709,7 +1705,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1741,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1760,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1867,7 +1863,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1889,7 +1885,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2015,7 +2011,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2030,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2137,7 +2133,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2159,7 +2155,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2238,7 +2234,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2253,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2360,7 +2356,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2382,7 +2378,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2461,7 +2457,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2476,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2583,7 +2579,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2605,7 +2601,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2731,7 +2727,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2746,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2853,7 +2849,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2875,7 +2871,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2954,7 +2950,7 @@
         <xdr:cNvPr id="20" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2969,7 @@
           <xdr:cNvPr id="18" name="Shape 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3076,7 +3072,7 @@
           <xdr:cNvPr id="19" name="Shape 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3098,7 +3094,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3182,7 +3178,7 @@
         <xdr:cNvPr id="22" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4307,21 +4303,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4338,14 +4334,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4362,7 +4358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4379,7 +4375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4396,7 +4392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4413,21 +4409,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4438,7 +4434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4455,24 +4451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D34"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4489,7 +4485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4506,7 +4502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4540,7 +4536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -4557,7 +4553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4574,7 +4570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -4591,7 +4587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4608,7 +4604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -4625,7 +4621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -4642,7 +4638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -4659,7 +4655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4676,7 +4672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -4693,7 +4689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -4706,7 +4702,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -4723,7 +4719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -4740,7 +4736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -4753,7 +4749,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -4770,7 +4766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -4787,7 +4783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -4800,7 +4796,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -4813,7 +4809,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -4830,7 +4826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -4847,7 +4843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -4860,7 +4856,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -4877,7 +4873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -4890,7 +4886,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -4903,9 +4899,9 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>88</v>
@@ -4913,10 +4909,14 @@
       <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -4929,7 +4929,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -4946,9 +4946,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>94</v>
@@ -4956,10 +4956,14 @@
       <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="D31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -4989,7 +4993,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="14.25" customHeight="1">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28">
         <v>3</v>
       </c>
@@ -5016,25 +5020,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="256" width="10.875" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.95" customHeight="1">
+    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5046,7 +5050,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="12.95" customHeight="1">
+    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -5058,7 +5062,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="12.95" customHeight="1">
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -5070,7 +5074,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="12.95" customHeight="1">
+    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5080,7 +5084,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="12.95" customHeight="1">
+    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -5092,7 +5096,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="12.95" customHeight="1">
+    <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -5104,7 +5108,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="12.95" customHeight="1">
+    <row r="7" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5114,7 +5118,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="12.95" customHeight="1">
+    <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -5126,7 +5130,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="12.95" customHeight="1">
+    <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5136,7 +5140,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="12.95" customHeight="1">
+    <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5146,7 +5150,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="12.95" customHeight="1">
+    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5156,7 +5160,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="12.95" customHeight="1">
+    <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5166,7 +5170,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="12.95" customHeight="1">
+    <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5176,7 +5180,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="12.95" customHeight="1">
+    <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5200,7 +5204,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="12.95" customHeight="1">
+    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -5218,7 +5222,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="12.95" customHeight="1">
+    <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -5244,7 +5248,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="12.95" customHeight="1">
+    <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -5270,7 +5274,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="12.95" customHeight="1">
+    <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -5294,7 +5298,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="12.95" customHeight="1">
+    <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -5318,7 +5322,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="12.95" customHeight="1">
+    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="13"/>
@@ -5328,7 +5332,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="12.95" customHeight="1">
+    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5338,7 +5342,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="12.95" customHeight="1">
+    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5348,7 +5352,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="12.95" customHeight="1">
+    <row r="23" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5358,7 +5362,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="12.95" customHeight="1">
+    <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5368,7 +5372,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="12.95" customHeight="1">
+    <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5378,7 +5382,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="12.95" customHeight="1">
+    <row r="26" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5388,7 +5392,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="12.95" customHeight="1">
+    <row r="27" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5398,7 +5402,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="12.95" customHeight="1">
+    <row r="28" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5408,7 +5412,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="12.95" customHeight="1">
+    <row r="29" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5418,7 +5422,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="12.95" customHeight="1">
+    <row r="30" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5428,7 +5432,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="12.95" customHeight="1">
+    <row r="31" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5438,7 +5442,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="12.95" customHeight="1">
+    <row r="32" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5448,7 +5452,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="12.95" customHeight="1">
+    <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5458,7 +5462,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="12.95" customHeight="1">
+    <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -5468,7 +5472,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="12.95" customHeight="1">
+    <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5478,7 +5482,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="12.95" customHeight="1">
+    <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5488,7 +5492,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="12.95" customHeight="1">
+    <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -5498,7 +5502,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="12.95" customHeight="1">
+    <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -5508,7 +5512,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="12.95" customHeight="1">
+    <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -5529,25 +5533,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="256" width="10.875" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.95" customHeight="1">
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -5568,7 +5572,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="12.95" customHeight="1">
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>42046</v>
       </c>
@@ -5583,7 +5587,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="12.95" customHeight="1">
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>42059</v>
       </c>
@@ -5606,7 +5610,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="12.95" customHeight="1">
+    <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>42087</v>
       </c>
@@ -5625,7 +5629,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="12.95" customHeight="1">
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5634,7 +5638,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="12.95" customHeight="1">
+    <row r="6" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5643,7 +5647,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="12.95" customHeight="1">
+    <row r="7" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5652,7 +5656,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="12.95" customHeight="1">
+    <row r="8" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5661,7 +5665,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="12.95" customHeight="1">
+    <row r="9" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5670,7 +5674,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="12.95" customHeight="1">
+    <row r="10" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5679,7 +5683,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="12.95" customHeight="1">
+    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5688,7 +5692,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="12.95" customHeight="1">
+    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5697,7 +5701,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="12.95" customHeight="1">
+    <row r="13" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5706,7 +5710,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="12.95" customHeight="1">
+    <row r="14" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5715,7 +5719,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="12.95" customHeight="1">
+    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5724,7 +5728,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="12.95" customHeight="1">
+    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5733,7 +5737,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="12.95" customHeight="1">
+    <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5742,7 +5746,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="12.95" customHeight="1">
+    <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5751,7 +5755,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="12.95" customHeight="1">
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5760,7 +5764,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="12.95" customHeight="1">
+    <row r="20" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -5769,7 +5773,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="12.95" customHeight="1">
+    <row r="21" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5778,7 +5782,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="12.95" customHeight="1">
+    <row r="22" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5787,7 +5791,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="12.95" customHeight="1">
+    <row r="23" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5796,7 +5800,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="12.95" customHeight="1">
+    <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5805,7 +5809,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="12.95" customHeight="1">
+    <row r="25" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5814,7 +5818,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+    <row r="26" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5834,35 +5838,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="15" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
     <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -6058,7 +6062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -6303,7 +6307,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="23"/>
       <c r="C10" s="2"/>
@@ -6322,7 +6326,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="23"/>
       <c r="C11" s="2"/>
@@ -6341,7 +6345,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="23"/>
       <c r="C12" s="2"/>
@@ -6360,7 +6364,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="23"/>
       <c r="C13" s="2"/>
@@ -6379,7 +6383,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="18" t="s">
         <v>159</v>
@@ -6400,7 +6404,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
@@ -6419,7 +6423,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="18" t="s">
         <v>160</v>
@@ -6442,7 +6446,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
@@ -6463,7 +6467,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
@@ -6484,7 +6488,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="23"/>
       <c r="C19" s="2"/>
@@ -6503,7 +6507,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="18" t="s">
         <v>164</v>
@@ -6536,27 +6540,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="19.375" customWidth="1"/>
-    <col min="16" max="16" width="190.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="190.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -6604,7 +6608,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -6748,7 +6752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
@@ -6892,7 +6896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -6940,7 +6944,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -6988,7 +6992,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6999,7 +7003,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1">
+    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
         <v>159</v>
       </c>
@@ -7009,7 +7013,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1">
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7017,7 +7021,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1">
+    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18" t="s">
         <v>160</v>
       </c>
@@ -7029,7 +7033,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1">
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>249</v>
@@ -7039,7 +7043,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1">
+    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="23"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -7047,7 +7051,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="14.25" customHeight="1">
+    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="23"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -7055,7 +7059,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="14.25" customHeight="1">
+    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18" t="s">
         <v>164</v>
       </c>
@@ -7067,12 +7071,12 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1">
+    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="29" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1">
+    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="29" t="s">
         <v>251</v>
       </c>
@@ -7087,17 +7091,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="34" customWidth="1"/>
     <col min="3" max="9" width="11" style="34" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="34" customWidth="1"/>
     <col min="11" max="11" width="11" style="46" customWidth="1"/>
@@ -7107,7 +7111,7 @@
     <col min="257" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>28</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
         <v>55</v>
       </c>
@@ -7203,7 +7207,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="35" t="s">
         <v>82</v>
       </c>
@@ -7251,7 +7255,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>62</v>
       </c>
@@ -7281,7 +7285,7 @@
       <c r="O4" s="36"/>
       <c r="P4" s="42"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>52</v>
       </c>
@@ -7311,7 +7315,7 @@
       <c r="O5" s="36"/>
       <c r="P5" s="42"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>96</v>
       </c>
@@ -7322,7 +7326,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="E6" s="33">
         <v>50</v>
@@ -7330,15 +7334,9 @@
       <c r="F6" s="33">
         <v>60</v>
       </c>
-      <c r="G6" s="33">
-        <v>23</v>
-      </c>
-      <c r="H6" s="33">
-        <v>60</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>166</v>
-      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="35"/>
       <c r="K6" s="45"/>
       <c r="L6" s="35"/>
@@ -7347,7 +7345,7 @@
       <c r="O6" s="36"/>
       <c r="P6" s="42"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
         <v>202</v>
       </c>
@@ -7358,7 +7356,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="E7" s="33">
         <v>50</v>
@@ -7366,15 +7364,9 @@
       <c r="F7" s="33">
         <v>60</v>
       </c>
-      <c r="G7" s="33">
-        <v>14</v>
-      </c>
-      <c r="H7" s="33">
-        <v>20</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>166</v>
-      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="35"/>
       <c r="K7" s="45"/>
       <c r="L7" s="35"/>
@@ -7383,7 +7375,7 @@
       <c r="O7" s="36"/>
       <c r="P7" s="42"/>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>88</v>
       </c>
@@ -7413,7 +7405,7 @@
       <c r="O8" s="36"/>
       <c r="P8" s="42"/>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>92</v>
       </c>
@@ -7443,7 +7435,7 @@
       <c r="O9" s="36"/>
       <c r="P9" s="42"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -7464,17 +7456,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="10.875" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1">
+    <row r="1" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
@@ -7503,7 +7495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7514,7 +7506,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7525,7 +7517,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7536,7 +7528,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7547,7 +7539,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7558,7 +7550,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7569,7 +7561,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7580,7 +7572,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -7591,7 +7583,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7612,22 +7604,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="256" width="10.875" customWidth="1"/>
+    <col min="4" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -7640,7 +7632,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -7653,7 +7645,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -7666,7 +7658,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -7679,7 +7671,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -7692,7 +7684,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -7705,7 +7697,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -7718,7 +7710,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1">
+    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -7731,7 +7723,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -7744,7 +7736,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -7757,7 +7749,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -7770,7 +7762,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
@@ -7783,7 +7775,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="51" customHeight="1">
+    <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -7796,7 +7788,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="68.099999999999994" customHeight="1">
+    <row r="14" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -7809,7 +7801,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -7822,7 +7814,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -7835,7 +7827,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="17" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -7848,7 +7840,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -7861,7 +7853,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -7874,7 +7866,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -7887,7 +7879,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="21" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -7900,7 +7892,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="22" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -7913,7 +7905,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="23" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -7926,7 +7918,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -7939,7 +7931,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1">
+    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -7952,7 +7944,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -7965,7 +7957,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="135.94999999999999" customHeight="1">
+    <row r="27" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -7978,7 +7970,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
@@ -7991,7 +7983,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="29" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
@@ -8004,7 +7996,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -8017,7 +8009,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -8030,7 +8022,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="32" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
@@ -8043,7 +8035,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>98</v>
       </c>
@@ -8056,7 +8048,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>202</v>
       </c>
@@ -8069,7 +8061,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="51" customHeight="1">
+    <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>205</v>
       </c>
@@ -8082,7 +8074,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="36" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>208</v>
       </c>
@@ -8095,7 +8087,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="37" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>211</v>
       </c>
@@ -8108,7 +8100,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="38" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>214</v>
       </c>
@@ -8121,7 +8113,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="39" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>217</v>
       </c>
@@ -8134,7 +8126,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="40" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>220</v>
       </c>
@@ -8147,7 +8139,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="41" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>223</v>
       </c>
@@ -8160,7 +8152,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="42" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>226</v>
       </c>
@@ -8173,7 +8165,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>229</v>
       </c>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1056,7 +1056,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4454,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4965,7 +4964,7 @@
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>96</v>
@@ -4994,10 +4993,10 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="28">
+      <c r="A34" s="2">
         <v>3</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>202</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -6544,7 +6543,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:Q9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7072,12 +7071,12 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7094,357 +7093,357 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="34" customWidth="1"/>
-    <col min="3" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="34" customWidth="1"/>
-    <col min="11" max="11" width="11" style="46" customWidth="1"/>
-    <col min="12" max="15" width="11" style="34" customWidth="1"/>
-    <col min="16" max="16" width="11" style="43" customWidth="1"/>
-    <col min="17" max="256" width="11" style="34" customWidth="1"/>
-    <col min="257" max="16384" width="11" style="34"/>
+    <col min="1" max="1" width="11" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
+    <col min="3" max="9" width="11" style="33" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="33" customWidth="1"/>
+    <col min="11" max="11" width="11" style="45" customWidth="1"/>
+    <col min="12" max="15" width="11" style="33" customWidth="1"/>
+    <col min="16" max="16" width="11" style="42" customWidth="1"/>
+    <col min="17" max="256" width="11" style="33" customWidth="1"/>
+    <col min="257" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="32" t="s">
+      <c r="M1" s="32"/>
+      <c r="N1" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="40" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <v>50</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="32">
         <v>50</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="32">
         <v>35</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="32">
         <v>30</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="40" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="P2" s="42">
+      <c r="P2" s="41">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>50</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>50</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <v>29</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="32">
         <v>30</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="40" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="41">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>70</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>90</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="42"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>50</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>60</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="42"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>50</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>60</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="42"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>50</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>60</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="42"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>60</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>45</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="42"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>65</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>40</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="42"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7607,8 +7606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="262">
   <si>
     <t>Initials</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>US13</t>
@@ -4453,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4689,14 +4686,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4706,10 +4701,10 @@
         <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -4723,10 +4718,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -4740,10 +4735,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4753,10 +4748,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -4770,10 +4765,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
@@ -4787,10 +4782,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4800,10 +4795,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4813,10 +4808,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -4830,10 +4825,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
@@ -4847,10 +4842,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4860,10 +4855,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
@@ -4877,10 +4872,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4890,10 +4885,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4903,10 +4898,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
@@ -4920,10 +4915,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4933,10 +4928,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
@@ -4950,10 +4945,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>20</v>
@@ -4967,10 +4962,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -4984,10 +4979,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -4997,10 +4992,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -5039,7 +5034,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5051,7 +5046,7 @@
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5063,7 +5058,7 @@
     </row>
     <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5085,7 +5080,7 @@
     </row>
     <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5097,7 +5092,7 @@
     </row>
     <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5119,7 +5114,7 @@
     </row>
     <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5184,28 +5179,28 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="8">
         <v>42046</v>
@@ -5223,7 +5218,7 @@
     </row>
     <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="8">
         <v>42060</v>
@@ -5249,7 +5244,7 @@
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="8">
         <v>42087</v>
@@ -5275,7 +5270,7 @@
     </row>
     <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9">
@@ -5299,7 +5294,7 @@
     </row>
     <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9">
@@ -5552,22 +5547,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -5879,39 +5874,39 @@
         <v>31</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>123</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5925,7 +5920,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
@@ -5940,24 +5935,24 @@
         <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="Q2" s="2">
         <v>113</v>
@@ -5974,7 +5969,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -5989,24 +5984,24 @@
         <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="2">
         <v>20</v>
@@ -6023,7 +6018,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2">
         <v>102</v>
@@ -6038,24 +6033,24 @@
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="M4" s="22">
         <v>48944</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="Q4" s="2">
         <v>8</v>
@@ -6072,7 +6067,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
@@ -6087,24 +6082,24 @@
         <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="2">
         <v>11</v>
@@ -6121,7 +6116,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2">
         <v>90</v>
@@ -6136,24 +6131,24 @@
         <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="M6" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="Q6" s="2">
         <v>232</v>
@@ -6170,7 +6165,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
@@ -6185,24 +6180,24 @@
         <v>180</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L7" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="2">
         <v>43</v>
@@ -6219,7 +6214,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2">
         <v>105</v>
@@ -6234,24 +6229,24 @@
         <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M8" s="22">
         <v>51470</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>153</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>154</v>
       </c>
       <c r="Q8" s="2">
         <v>182</v>
@@ -6268,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2">
         <v>100</v>
@@ -6283,24 +6278,24 @@
         <v>60</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L9" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="Q9" s="2">
         <v>167</v>
@@ -6385,7 +6380,7 @@
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6425,10 +6420,10 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6449,7 +6444,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6470,7 +6465,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6509,10 +6504,10 @@
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6573,46 +6568,46 @@
         <v>31</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>34</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>123</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -6633,23 +6628,23 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="Q2" s="2">
         <v>85</v>
@@ -6657,10 +6652,10 @@
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -6681,23 +6676,23 @@
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q3" s="2">
         <v>68</v>
@@ -6705,10 +6700,10 @@
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -6729,23 +6724,23 @@
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="M4" s="22">
         <v>48944</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="Q4" s="2">
         <v>8</v>
@@ -6777,23 +6772,23 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="2">
         <v>11</v>
@@ -6801,10 +6796,10 @@
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -6825,23 +6820,23 @@
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="2">
         <v>232</v>
@@ -6849,10 +6844,10 @@
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -6873,23 +6868,23 @@
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L7" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="2">
         <v>43</v>
@@ -6897,10 +6892,10 @@
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -6921,23 +6916,23 @@
         <v>90</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M8" s="22">
         <v>51470</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>153</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>154</v>
       </c>
       <c r="Q8" s="2">
         <v>182</v>
@@ -6969,23 +6964,23 @@
         <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L9" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="Q9" s="2">
         <v>167</v>
@@ -7004,7 +6999,7 @@
     </row>
     <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7022,10 +7017,10 @@
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -7035,7 +7030,7 @@
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -7060,10 +7055,10 @@
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -7072,12 +7067,12 @@
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -7124,38 +7119,38 @@
         <v>31</v>
       </c>
       <c r="E1" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>123</v>
       </c>
       <c r="M1" s="32"/>
       <c r="N1" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="40" t="s">
         <v>125</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7166,7 +7161,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>54</v>
@@ -7184,23 +7179,23 @@
         <v>30</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J2" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>260</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>261</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P2" s="41">
         <v>236</v>
@@ -7208,13 +7203,13 @@
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>54</v>
@@ -7232,23 +7227,23 @@
         <v>30</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J3" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="39" t="s">
         <v>254</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>255</v>
       </c>
       <c r="M3" s="32"/>
       <c r="N3" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P3" s="41">
         <v>96</v>
@@ -7256,13 +7251,13 @@
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>63</v>
-      </c>
       <c r="C4" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>54</v>
@@ -7292,7 +7287,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>54</v>
@@ -7316,10 +7311,10 @@
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>97</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>15</v>
@@ -7346,10 +7341,10 @@
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>202</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>203</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>15</v>
@@ -7376,10 +7371,10 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>20</v>
@@ -7406,10 +7401,10 @@
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>20</v>
@@ -7479,16 +7474,16 @@
         <v>31</v>
       </c>
       <c r="E1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>120</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>34</v>
@@ -7626,7 +7621,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -7639,7 +7634,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -7652,7 +7647,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -7665,7 +7660,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -7678,7 +7673,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -7691,7 +7686,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7704,7 +7699,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -7717,7 +7712,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7730,7 +7725,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7743,7 +7738,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -7756,7 +7751,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -7769,7 +7764,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -7782,397 +7777,397 @@
         <v>58</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C14" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C15" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="C16" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="C17" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="C18" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="C19" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="C20" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="C22" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="C23" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="C24" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C25" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="C26" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="C27" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C28" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="C29" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="C30" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C31" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="C32" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="C33" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="27" t="s">
         <v>203</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>204</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="27" t="s">
         <v>206</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>207</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>210</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="27" t="s">
         <v>212</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>213</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="27" t="s">
         <v>215</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>216</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>219</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="27" t="s">
         <v>221</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>222</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="27" t="s">
         <v>224</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>225</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="27" t="s">
         <v>227</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>228</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>231</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="263">
   <si>
     <t>Initials</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>testBirthAfterDeathOfMother,testBirthAfterDeathOfFather,testBirthAfterDeathOfMotherFather,testBirthBeforeDeathOfMotherFather,testBirthWhenMotherFatherAlive</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
@@ -4451,7 +4454,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4907,7 +4910,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4954,7 +4957,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="262">
   <si>
     <t>Initials</t>
   </si>
@@ -827,9 +827,6 @@
   </si>
   <si>
     <t>testBirthAfterDeathOfMother,testBirthAfterDeathOfFather,testBirthAfterDeathOfMotherFather,testBirthBeforeDeathOfMotherFather,testBirthWhenMotherFatherAlive</t>
-  </si>
-  <si>
-    <t>completed</t>
   </si>
 </sst>
 </file>
@@ -1311,11 +1308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1856930864"/>
-        <c:axId val="1856932912"/>
+        <c:axId val="1883632224"/>
+        <c:axId val="1883633584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1856930864"/>
+        <c:axId val="1883632224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,14 +1346,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1856932912"/>
+        <c:crossAx val="1883633584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1856932912"/>
+        <c:axId val="1883633584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1856930864"/>
+        <c:crossAx val="1883632224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1552,11 +1549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1859481920"/>
-        <c:axId val="1859483552"/>
+        <c:axId val="1859147376"/>
+        <c:axId val="1861308608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1859481920"/>
+        <c:axId val="1859147376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,14 +1587,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859483552"/>
+        <c:crossAx val="1861308608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1859483552"/>
+        <c:axId val="1861308608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859481920"/>
+        <c:crossAx val="1859147376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8.0"/>
@@ -1704,7 +1701,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1737,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1756,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1862,7 +1859,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2010,7 +2007,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2026,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2132,7 +2129,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2233,7 +2230,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2249,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2355,7 +2352,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2456,7 +2453,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2472,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2578,7 +2575,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2726,7 +2723,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2742,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2848,7 +2845,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2949,7 +2946,7 @@
         <xdr:cNvPr id="20" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2965,7 @@
           <xdr:cNvPr id="18" name="Shape 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3071,7 +3068,7 @@
           <xdr:cNvPr id="19" name="Shape 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3177,7 +3174,7 @@
         <xdr:cNvPr id="22" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4453,7 +4450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -4910,7 +4907,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>262</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4957,7 +4954,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>262</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stevens\Courses\CS-555-Agile Methods for SW Eng\GEDCOM_Project\CS_555_JAVS\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6615E50-240F-4E9D-B187-67782FCFFDAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Team" sheetId="2" r:id="rId5"/>
-    <sheet name="Backlog" sheetId="3" r:id="rId6"/>
-    <sheet name="Burndown README" sheetId="4" r:id="rId7"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
-    <sheet name="Stories" sheetId="10" r:id="rId13"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Team" sheetId="2" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="4" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
+    <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="286">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -867,20 +883,30 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Write Junits for each of the user stories for all the cases</t>
+  </si>
+  <si>
+    <t>Start implmenting US early on time and complete it passing CI build</t>
+  </si>
+  <si>
+    <t>Ensure the main application file runs without any error after each US implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
-    <numFmt numFmtId="60" formatCode="m/d"/>
-    <numFmt numFmtId="61" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="62" formatCode="m&quot;-&quot;yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="166" formatCode="m&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -897,46 +923,16 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -947,6 +943,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1167,211 +1169,140 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="64">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,32 +1312,89 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd6e3bc"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff878787"/>
-      <rgbColor rgb="ff4a7dbb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD6E3BC"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF4A7DBB"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1415,10 +1403,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0953035"/>
-          <c:y val="0.0555579"/>
-          <c:w val="0.899696"/>
-          <c:h val="0.842011"/>
+          <c:x val="9.5303499999999999E-2"/>
+          <c:y val="5.55579E-2"/>
+          <c:w val="0.89969600000000005"/>
+          <c:h val="0.84201099999999995"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1431,9 +1419,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1460,94 +1445,79 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/12/19</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/26/19</c:v>
+                  <c:v>42060</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/25/19</c:v>
+                  <c:v>42087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Burndown README'!$C$15:$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.000000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.000000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.000000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2040-46FC-9C8B-CFCBE1219743}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="2094734552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1565,21 +1535,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2094734553"/>
         <c:scaling>
@@ -1616,13 +1587,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1644,6 +1616,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1658,13 +1631,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1673,10 +1653,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0739315"/>
-          <c:y val="0.0555579"/>
+          <c:x val="7.3931499999999997E-2"/>
+          <c:y val="5.55579E-2"/>
           <c:w val="0.921068"/>
-          <c:h val="0.842011"/>
+          <c:h val="0.84201099999999995"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1689,9 +1669,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1718,91 +1695,76 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown'!$A$2:$A$7</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/12</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/25</c:v>
+                  <c:v>42059</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3/25/19</c:v>
+                <c:pt idx="2" formatCode="m/d/yyyy">
+                  <c:v>42087</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4/8/2019</c:v>
+                <c:pt idx="3" formatCode="m/d/yyyy">
+                  <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.000000</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.000000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.000000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2632-437B-B852-CFDDED15DF0C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="2094734552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1820,21 +1782,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2094734553"/>
         <c:scaling>
@@ -1871,13 +1834,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1899,6 +1863,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1913,11 +1878,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1931,18 +1901,24 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>68165</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854434" y="3638875"/>
-        <a:ext cx="4558768" cy="2514496"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1963,20 +1939,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1255925" y="1373253"/>
-          <a:ext cx="1408893" cy="981454"/>
+          <a:off x="1259100" y="1352933"/>
+          <a:ext cx="1408892" cy="966213"/>
           <a:chOff x="-19050" y="-64007"/>
           <a:chExt cx="1408891" cy="981453"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="3" name="Shape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2004,7 +1992,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2056,7 +2044,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2067,13 +2055,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPr id="4" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2092,7 +2086,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2117,7 +2111,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2132,7 +2126,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2147,19 +2141,6 @@
               </a:rPr>
               <a:t>= # team members * 4 sprints * </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2177,7 +2158,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2192,7 +2173,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2228,20 +2209,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5244250" y="1392351"/>
-          <a:ext cx="1287784" cy="707368"/>
+          <a:off x="5256950" y="1372031"/>
+          <a:ext cx="1290958" cy="697207"/>
           <a:chOff x="-19049" y="-41147"/>
           <a:chExt cx="1287783" cy="707367"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvPr id="6" name="Shape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2269,7 +2262,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2321,7 +2314,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2332,13 +2325,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPr id="7" name="Shape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2357,7 +2356,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2382,7 +2381,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2397,7 +2396,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2433,20 +2432,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="11" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2750820" y="1199078"/>
-          <a:ext cx="1101515" cy="968958"/>
+          <a:off x="2753995" y="1181298"/>
+          <a:ext cx="1107864" cy="953717"/>
           <a:chOff x="-19049" y="-52578"/>
           <a:chExt cx="1101513" cy="968956"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvPr id="9" name="Shape 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2474,7 +2485,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2526,7 +2537,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2537,13 +2548,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPr id="10" name="Shape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2562,7 +2579,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2587,7 +2604,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2602,7 +2619,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2638,20 +2655,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="14" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3811267" y="1550287"/>
-          <a:ext cx="429262" cy="630935"/>
+          <a:off x="3820792" y="1527427"/>
+          <a:ext cx="432436" cy="620774"/>
           <a:chOff x="-19050" y="-41147"/>
           <a:chExt cx="429261" cy="630933"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvPr id="12" name="Shape 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2679,7 +2708,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2731,7 +2760,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2742,13 +2771,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvPr id="13" name="Shape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2767,7 +2802,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2792,7 +2827,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2807,7 +2842,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2822,19 +2857,6 @@
               </a:rPr>
               <a:t>Total </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2852,7 +2874,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2867,7 +2889,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2903,20 +2925,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="17" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4198620" y="1220243"/>
-          <a:ext cx="1156548" cy="1024500"/>
+          <a:off x="4208145" y="1202463"/>
+          <a:ext cx="1159722" cy="1009259"/>
           <a:chOff x="-19050" y="-52578"/>
           <a:chExt cx="1156547" cy="1024498"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvPr id="15" name="Shape 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2944,7 +2978,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2996,7 +3030,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3007,13 +3041,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPr id="16" name="Shape 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3032,7 +3072,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3057,7 +3097,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3072,7 +3112,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3108,20 +3148,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="20" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5396976" y="5019048"/>
-          <a:ext cx="1262380" cy="909817"/>
+          <a:off x="5409676" y="4942848"/>
+          <a:ext cx="1265554" cy="894576"/>
           <a:chOff x="-17413" y="-41148"/>
           <a:chExt cx="1262379" cy="909816"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvPr id="18" name="Shape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3149,7 +3201,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="370" y="0"/>
                 </a:moveTo>
@@ -3201,7 +3253,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3212,13 +3264,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvPr id="19" name="Shape 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3237,7 +3295,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3262,7 +3320,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3277,7 +3335,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3302,7 +3360,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3316,18 +3374,24 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>68164</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 1"/>
+        <xdr:cNvPr id="22" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="967667" y="1500830"/>
-        <a:ext cx="4345011" cy="2514495"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3337,7 +3401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -3463,7 +3527,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3472,7 +3536,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3481,7 +3545,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3555,7 +3619,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -3563,7 +3627,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3582,7 +3646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3612,7 +3676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3638,7 +3702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3664,7 +3728,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3690,7 +3754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3716,7 +3780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3742,7 +3806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3768,7 +3832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3794,7 +3858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3820,7 +3884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3833,9 +3897,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3850,7 +3920,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -3858,7 +3928,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3877,7 +3947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3903,7 +3973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3929,7 +3999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3955,7 +4025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3981,7 +4051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4007,7 +4077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4033,7 +4103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4059,7 +4129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4085,7 +4155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4111,7 +4181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4124,9 +4194,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -4140,7 +4216,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4159,7 +4235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4189,7 +4265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4215,7 +4291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4241,7 +4317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4267,7 +4343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4293,7 +4369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4319,7 +4395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4345,7 +4421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4371,7 +4447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4397,7 +4473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4410,186 +4486,194 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="4" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+    </row>
+    <row r="7" spans="2:4" ht="18">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="15">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="15">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
+    <row r="13" spans="2:4" ht="15">
+      <c r="B13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
+    <row r="15" spans="2:4" ht="15">
+      <c r="B15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" ht="15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="s" s="3">
+    <row r="17" spans="2:4" ht="15">
+      <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s" s="4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="s" s="3">
+    <row r="19" spans="2:4" ht="15">
+      <c r="B19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="4"/>
-      <c r="C20" t="s" s="4">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" ht="15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" t="s" s="3">
+    <row r="21" spans="2:4" ht="15">
+      <c r="B21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="4"/>
-      <c r="C22" t="s" s="4">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" ht="15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D22" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="s" s="3">
+    <row r="23" spans="2:4" ht="15">
+      <c r="B23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="4"/>
-      <c r="C24" t="s" s="4">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" ht="15">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s" s="5">
+      <c r="D24" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" t="s" s="3">
+    <row r="25" spans="2:4" ht="15">
+      <c r="B25" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="4"/>
-      <c r="C26" t="s" s="4">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" ht="15">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s" s="5">
+      <c r="D26" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4598,596 +4682,598 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Team'!R1C1" tooltip="" display="Team"/>
-    <hyperlink ref="D12" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
-    <hyperlink ref="D14" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
-    <hyperlink ref="D16" location="'Burndown'!R1C1" tooltip="" display="Burndown"/>
-    <hyperlink ref="D18" location="'Sprint1'!R1C1" tooltip="" display="Sprint1"/>
-    <hyperlink ref="D20" location="'Sprint2'!R1C1" tooltip="" display="Sprint2"/>
-    <hyperlink ref="D22" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
-    <hyperlink ref="D24" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
-    <hyperlink ref="D26" location="'Stories'!R1C1" tooltip="" display="Stories"/>
+    <hyperlink ref="D10" location="'Team'!R1C1" display="Team" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Backlog'!R1C1" display="Backlog" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'Burndown README'!R1C1" display="Burndown README" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D16" location="'Burndown'!R1C1" display="Burndown" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D18" location="'Sprint1'!R1C1" display="Sprint1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D20" location="'Sprint2'!R1C1" display="Sprint2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D22" location="'Sprint3'!R1C1" display="Sprint3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D24" location="'Sprint4'!R1C1" display="Sprint4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D26" location="'Stories'!R1C1" display="Stories" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="64" customWidth="1"/>
-    <col min="2" max="2" width="28.1719" style="64" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="64" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="64" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="64" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="256" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="65">
+      <c r="C1" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="33.95" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="66">
+      <c r="C2" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s" s="66">
+      <c r="C3" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s" s="66">
+      <c r="C4" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="33.95" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s" s="66">
+      <c r="C5" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s" s="66">
+      <c r="C6" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s" s="66">
+      <c r="C7" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="51" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s" s="66">
+      <c r="C8" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="33.95" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s" s="66">
+      <c r="C9" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="33.95" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s" s="66">
+      <c r="C10" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="33.95" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s" s="66">
+      <c r="C11" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="33.95" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s" s="66">
+      <c r="C12" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="51" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s" s="66">
+      <c r="C13" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="68.1" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="68.099999999999994" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s" s="66">
+      <c r="C14" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="33.95" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s" s="66">
+      <c r="C15" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="17.1" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s" s="66">
+      <c r="C16" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="33.95" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s" s="66">
+      <c r="C17" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="17.1" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s" s="66">
+      <c r="C18" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="17.1" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s" s="66">
+      <c r="C19" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="17.1" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s" s="66">
+      <c r="C20" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="33.95" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s" s="66">
+      <c r="C21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="33.95" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s" s="66">
+      <c r="C22" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="33.95" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s" s="66">
+      <c r="C23" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="33.95" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s" s="66">
+      <c r="C24" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="51" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="51" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C25" t="s" s="66">
+      <c r="C25" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="33.95" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s" s="66">
+      <c r="C26" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="135.95" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="135.94999999999999" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" t="s" s="66">
+      <c r="C27" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="17.1" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C28" t="s" s="66">
+      <c r="C28" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="33.95" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s" s="66">
+      <c r="C29" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="17.1" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C30" t="s" s="66">
+      <c r="C30" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="17.1" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C31" t="s" s="66">
+      <c r="C31" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="33.95" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C32" t="s" s="66">
+      <c r="C32" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="17.1" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C33" t="s" s="66">
+      <c r="C33" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="33.95" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C34" t="s" s="66">
+      <c r="C34" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="51" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="51" customHeight="1">
+      <c r="A35" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C35" t="s" s="66">
+      <c r="C35" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" ht="33.95" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A36" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C36" t="s" s="66">
+      <c r="C36" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="33.95" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C37" t="s" s="66">
+      <c r="C37" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="33.95" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A38" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C38" t="s" s="66">
+      <c r="C38" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" ht="33.95" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A39" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C39" t="s" s="66">
+      <c r="C39" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="33.95" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C40" t="s" s="66">
+      <c r="C40" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" ht="33.95" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C41" t="s" s="66">
+      <c r="C41" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" ht="33.95" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C42" t="s" s="66">
+      <c r="C42" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="33.95" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C43" t="s" s="66">
+      <c r="C43" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5195,147 +5281,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="6" customWidth="1"/>
-    <col min="6" max="256" width="11" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" t="s" s="9">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5343,558 +5429,594 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.3516" style="10" customWidth="1"/>
-    <col min="4" max="4" width="6.67188" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.67188" style="10" customWidth="1"/>
-    <col min="6" max="256" width="11" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="11">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s" s="7">
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="7">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s" s="7">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s" s="7">
+      <c r="E11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="7">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s" s="7">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s" s="7">
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="11">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B13" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s" s="7">
+      <c r="B16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s" s="7">
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s" s="7">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="6">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="6">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="A27" s="6">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="A28" s="6">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="6">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32" s="6">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="11">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s" s="7">
+    <row r="33" spans="1:5" ht="15" customHeight="1">
+      <c r="A33" s="6">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A34" s="6">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="55" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="54">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="55" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="54">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="11">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="11">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="11">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="11">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s" s="7">
-        <v>80</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="11">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="11">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s" s="7">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="11">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="11">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="11">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s" s="7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="11">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="11">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="11">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="11">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="C29" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="11">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="D30" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="11">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="11">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s" s="7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="11">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="11">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="D34" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s" s="13">
+      <c r="E36" s="57" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5902,510 +6024,513 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.8516" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="14" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="14" customWidth="1"/>
-    <col min="7" max="8" width="10.8516" style="14" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="256" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.95" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" ht="12.95" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" ht="12.95" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="12.95" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="12.95" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="12.95" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="12.95" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="12.95" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="12.95" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="12.95" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="12.95" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="12.95" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="12.95" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="12.95" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s" s="15">
+      <c r="C14" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D14" t="s" s="7">
+      <c r="D14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E14" t="s" s="15">
+      <c r="E14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F14" t="s" s="15">
+      <c r="F14" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G14" t="s" s="7">
+      <c r="G14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="12.95" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="11">
         <v>42046</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>24</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17">
+      <c r="D15" s="13"/>
+      <c r="E15" s="12">
         <v>0</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="12.95" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="11">
         <v>42060</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="12">
         <v>18</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="13">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <v>250</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <v>120</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="14">
         <f>(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="12.95" customHeight="1">
-      <c r="A17" t="s" s="7">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="11">
         <v>42087</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>12</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="13">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>480</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="15">
         <v>135</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="14">
         <f>(E17-E16)/F17*60</f>
-        <v>102.2222222222222</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="12.95" customHeight="1">
-      <c r="A18" t="s" s="7">
+        <v>102.22222222222223</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17">
+      <c r="B18" s="11">
+        <v>42101</v>
+      </c>
+      <c r="C18" s="12">
         <v>6</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="13">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="12">
         <v>740</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="15">
         <v>160</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="14">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="12.95" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="13">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="12">
         <v>1100</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="15">
         <v>145</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="14">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="12.95" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="12.95" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="12.95" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="12.95" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="12.95" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="12.95" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="12.95" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="12.95" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="12.95" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="12.95" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="12.95" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="12.95" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" ht="12.95" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" ht="12.95" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" ht="12.95" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" ht="12.95" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" ht="12.95" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" ht="12.95" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" ht="12.95" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" ht="12.95" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6414,308 +6539,309 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="24" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="24" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="24" customWidth="1"/>
-    <col min="4" max="4" width="7.17188" style="24" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="24" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="24" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="256" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.95" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s" s="7">
+      <c r="F1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" ht="12.95" customHeight="1">
-      <c r="A2" s="25">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A2" s="17">
         <v>42046</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>32</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="12.95" customHeight="1">
-      <c r="A3" s="25">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A3" s="17">
         <v>42059</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="6">
         <v>24</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <f>B2-B3</f>
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <v>368</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <v>565</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="18">
         <f>(D3-D2)/E3*60</f>
-        <v>39.07964601769911</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="12.95" customHeight="1">
-      <c r="A4" s="27">
+        <v>39.079646017699112</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A4" s="19">
         <v>42087</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="6">
         <v>16</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>8</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <v>256</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>305</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="12.95" customHeight="1">
-      <c r="A5" s="28">
+      <c r="F4" s="18"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A5" s="19">
         <v>42101</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="6">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>8</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="12.95" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="12.95" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="12.95" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="12.95" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="12.95" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="12.95" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="12.95" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="12.95" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" ht="12.95" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" ht="12.95" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" ht="12.95" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" ht="12.95" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="12.95" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="12.95" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" ht="12.95" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" ht="12.95" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="12.95" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="12.95" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="12.95" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="12.95" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" ht="12.95" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6724,699 +6850,701 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.67188" style="29" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.35156" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.35156" style="29" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="29" customWidth="1"/>
-    <col min="6" max="6" width="9.17188" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.35156" style="29" customWidth="1"/>
-    <col min="9" max="10" width="11" style="29" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="29" customWidth="1"/>
-    <col min="12" max="12" width="19.1719" style="29" customWidth="1"/>
-    <col min="13" max="13" width="13" style="29" customWidth="1"/>
-    <col min="14" max="14" width="1.85156" style="29" customWidth="1"/>
-    <col min="15" max="15" width="10.1719" style="29" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="29" customWidth="1"/>
-    <col min="17" max="17" width="10.1719" style="29" customWidth="1"/>
-    <col min="18" max="256" width="11" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="19.125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="15" width="10.125" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="31">
+      <c r="E1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s" s="31">
+      <c r="F1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s" s="31">
+      <c r="G1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s" s="31">
+      <c r="H1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I1" t="s" s="31">
+      <c r="I1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" t="s" s="32">
+      <c r="J1" s="6"/>
+      <c r="K1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s" s="32">
+      <c r="L1" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s" s="32">
+      <c r="M1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" t="s" s="32">
+      <c r="N1" s="6"/>
+      <c r="O1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="P1" t="s" s="32">
+      <c r="P1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" t="s" s="32">
+      <c r="Q1" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="6">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="6">
         <v>90</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
         <v>38</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="6">
         <v>45</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="I2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" t="s" s="7">
+      <c r="J2" s="6"/>
+      <c r="K2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L2" t="s" s="33">
+      <c r="L2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="M2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" t="s" s="7">
+      <c r="N2" s="6"/>
+      <c r="O2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="P2" t="s" s="7">
+      <c r="P2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="6">
         <v>113</v>
       </c>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <v>100</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="6">
         <v>90</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="6">
         <v>27</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="6">
         <v>25</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" t="s" s="7">
+      <c r="J3" s="6"/>
+      <c r="K3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L3" t="s" s="33">
+      <c r="L3" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="M3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" t="s" s="7">
+      <c r="N3" s="6"/>
+      <c r="O3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="P3" t="s" s="7">
+      <c r="P3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>102</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="6">
         <v>38</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <v>100</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" t="s" s="7">
+      <c r="J4" s="6"/>
+      <c r="K4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L4" t="s" s="33">
+      <c r="L4" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="24">
         <v>48944</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" t="s" s="7">
+      <c r="N4" s="6"/>
+      <c r="O4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="P4" t="s" s="33">
+      <c r="P4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>100</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>90</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="6">
         <v>50</v>
       </c>
-      <c r="I5" t="s" s="7">
+      <c r="I5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" t="s" s="7">
+      <c r="J5" s="6"/>
+      <c r="K5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L5" t="s" s="33">
+      <c r="L5" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="M5" t="s" s="7">
+      <c r="M5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" t="s" s="7">
+      <c r="N5" s="6"/>
+      <c r="O5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="P5" t="s" s="33">
+      <c r="P5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>90</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <v>90</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <v>77</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="6">
         <v>30</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" t="s" s="7">
+      <c r="J6" s="6"/>
+      <c r="K6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="L6" t="s" s="33">
+      <c r="L6" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="M6" t="s" s="7">
+      <c r="M6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" t="s" s="7">
+      <c r="N6" s="6"/>
+      <c r="O6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="P6" t="s" s="33">
+      <c r="P6" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="6">
         <v>232</v>
       </c>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <v>100</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="6">
         <v>90</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="6">
         <v>114</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="6">
         <v>180</v>
       </c>
-      <c r="I7" t="s" s="7">
+      <c r="I7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" t="s" s="7">
+      <c r="J7" s="6"/>
+      <c r="K7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L7" t="s" s="33">
+      <c r="L7" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="M7" t="s" s="7">
+      <c r="M7" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" t="s" s="7">
+      <c r="N7" s="6"/>
+      <c r="O7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="P7" t="s" s="33">
+      <c r="P7" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
         <v>105</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <v>90</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="6">
         <v>32</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="6">
         <v>75</v>
       </c>
-      <c r="I8" t="s" s="7">
+      <c r="I8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" t="s" s="7">
+      <c r="J8" s="6"/>
+      <c r="K8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L8" t="s" s="33">
+      <c r="L8" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="24">
         <v>51470</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" t="s" s="7">
+      <c r="N8" s="6"/>
+      <c r="O8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="P8" t="s" s="33">
+      <c r="P8" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="6">
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <v>100</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="6">
         <v>90</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="6">
         <v>34</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="6">
         <v>60</v>
       </c>
-      <c r="I9" t="s" s="7">
+      <c r="I9" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" t="s" s="7">
+      <c r="J9" s="6"/>
+      <c r="K9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L9" t="s" s="33">
+      <c r="L9" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="M9" t="s" s="7">
+      <c r="M9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" t="s" s="7">
+      <c r="N9" s="6"/>
+      <c r="O9" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="P9" t="s" s="33">
+      <c r="P9" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s" s="30">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" t="s" s="30">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="35"/>
-      <c r="C17" t="s" s="7">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="35"/>
-      <c r="C18" t="s" s="7">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s" s="30">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7424,712 +7552,714 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="36" customWidth="1"/>
-    <col min="2" max="2" width="20.6719" style="36" customWidth="1"/>
-    <col min="3" max="11" width="11" style="36" customWidth="1"/>
-    <col min="12" max="12" width="22.6719" style="36" customWidth="1"/>
-    <col min="13" max="14" width="11" style="36" customWidth="1"/>
-    <col min="15" max="15" width="19.3516" style="36" customWidth="1"/>
-    <col min="16" max="16" width="190.672" style="36" customWidth="1"/>
-    <col min="17" max="17" width="15" style="36" customWidth="1"/>
-    <col min="18" max="256" width="11" style="36" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="13" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="19.375" customWidth="1"/>
+    <col min="16" max="16" width="190.625" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="31">
+      <c r="E1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s" s="31">
+      <c r="F1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s" s="31">
+      <c r="G1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s" s="31">
+      <c r="H1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I1" t="s" s="31">
+      <c r="I1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" t="s" s="32">
+      <c r="J1" s="26"/>
+      <c r="K1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s" s="32">
+      <c r="L1" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s" s="32">
+      <c r="M1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" t="s" s="32">
+      <c r="N1" s="6"/>
+      <c r="O1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="P1" t="s" s="32">
+      <c r="P1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" t="s" s="32">
+      <c r="Q1" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="6">
         <v>115</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="6">
         <v>90</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
         <v>42</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="6">
         <v>25</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="I2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" t="s" s="7">
+      <c r="J2" s="27"/>
+      <c r="K2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L2" t="s" s="33">
+      <c r="L2" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="M2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" t="s" s="7">
+      <c r="N2" s="6"/>
+      <c r="O2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="P2" t="s" s="7">
+      <c r="P2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <v>100</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="6">
         <v>90</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="6">
         <v>33</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="6">
         <v>35</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" t="s" s="7">
+      <c r="J3" s="27"/>
+      <c r="K3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="L3" t="s" s="33">
+      <c r="L3" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="M3" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" t="s" s="7">
+      <c r="N3" s="6"/>
+      <c r="O3" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="P3" t="s" s="7">
+      <c r="P3" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>80</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="6">
         <v>16</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" t="s" s="7">
+      <c r="J4" s="27"/>
+      <c r="K4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L4" t="s" s="33">
+      <c r="L4" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="24">
         <v>48944</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" t="s" s="7">
+      <c r="N4" s="6"/>
+      <c r="O4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="P4" t="s" s="33">
+      <c r="P4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>100</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>90</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>21</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="6">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="7">
+      <c r="I5" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" t="s" s="7">
+      <c r="J5" s="27"/>
+      <c r="K5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L5" t="s" s="33">
+      <c r="L5" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="M5" t="s" s="7">
+      <c r="M5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" t="s" s="7">
+      <c r="N5" s="6"/>
+      <c r="O5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="P5" t="s" s="33">
+      <c r="P5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>90</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <v>90</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <v>46</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="6">
         <v>20</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" t="s" s="7">
+      <c r="J6" s="27"/>
+      <c r="K6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L6" t="s" s="33">
+      <c r="L6" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="M6" t="s" s="7">
+      <c r="M6" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" t="s" s="7">
+      <c r="N6" s="6"/>
+      <c r="O6" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="P6" t="s" s="33">
+      <c r="P6" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="6">
         <v>232</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <v>95</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="6">
         <v>90</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="6">
         <v>10</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="6">
         <v>10</v>
       </c>
-      <c r="I7" t="s" s="7">
+      <c r="I7" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" t="s" s="7">
+      <c r="J7" s="27"/>
+      <c r="K7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L7" t="s" s="33">
+      <c r="L7" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="M7" t="s" s="7">
+      <c r="M7" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" t="s" s="7">
+      <c r="N7" s="6"/>
+      <c r="O7" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="P7" t="s" s="33">
+      <c r="P7" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
         <v>98</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <v>90</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="6">
         <v>42</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="6">
         <v>90</v>
       </c>
-      <c r="I8" t="s" s="7">
+      <c r="I8" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" t="s" s="7">
+      <c r="J8" s="27"/>
+      <c r="K8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L8" t="s" s="33">
+      <c r="L8" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="24">
         <v>51470</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" t="s" s="7">
+      <c r="N8" s="6"/>
+      <c r="O8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="P8" t="s" s="33">
+      <c r="P8" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="6">
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <v>105</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="6">
         <v>90</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="6">
         <v>46</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="6">
         <v>90</v>
       </c>
-      <c r="I9" t="s" s="7">
+      <c r="I9" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" t="s" s="7">
+      <c r="J9" s="27"/>
+      <c r="K9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L9" t="s" s="33">
+      <c r="L9" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="M9" t="s" s="7">
+      <c r="M9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" t="s" s="7">
+      <c r="N9" s="6"/>
+      <c r="O9" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="P9" t="s" s="33">
+      <c r="P9" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="44"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="44"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" t="s" s="30">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="30"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="44"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" t="s" s="30">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="35"/>
-      <c r="C16" t="s" s="7">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="44"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" t="s" s="30">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
-      <c r="C20" t="s" s="15">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
+    </row>
+    <row r="20" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="44"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" t="s" s="48">
+      <c r="D20" s="31"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+    </row>
+    <row r="21" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="47"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8137,390 +8267,479 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="49" customWidth="1"/>
-    <col min="2" max="2" width="22.6719" style="49" customWidth="1"/>
-    <col min="3" max="9" width="11" style="49" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="49" customWidth="1"/>
-    <col min="11" max="16" width="11" style="49" customWidth="1"/>
-    <col min="17" max="256" width="11" style="49" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="50">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="50">
+      <c r="B1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="50">
+      <c r="C1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="50">
+      <c r="D1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="51">
+      <c r="E1" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s" s="51">
+      <c r="F1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s" s="51">
+      <c r="G1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s" s="51">
+      <c r="H1" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="I1" t="s" s="51">
+      <c r="I1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s" s="52">
+      <c r="J1" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="K1" t="s" s="52">
+      <c r="K1" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="L1" t="s" s="52">
+      <c r="L1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" t="s" s="52">
+      <c r="M1" s="41"/>
+      <c r="N1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="O1" t="s" s="52">
+      <c r="O1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="P1" t="s" s="52">
+      <c r="P1" s="40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="54">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s" s="54">
+      <c r="B2" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s" s="54">
+      <c r="C2" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D2" t="s" s="54">
+      <c r="D2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="41">
         <v>50</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="41">
         <v>50</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="41">
         <v>35</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="41">
         <v>30</v>
       </c>
-      <c r="I2" t="s" s="54">
+      <c r="I2" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="J2" t="s" s="54">
+      <c r="J2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="K2" t="s" s="54">
+      <c r="K2" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="L2" t="s" s="54">
+      <c r="L2" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" t="s" s="54">
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="O2" t="s" s="54">
+      <c r="O2" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="P2" s="56">
+      <c r="P2" s="43">
         <v>236</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="54">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="A3" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s" s="54">
+      <c r="B3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s" s="54">
+      <c r="C3" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D3" t="s" s="54">
+      <c r="D3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="41">
         <v>50</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="41">
         <v>50</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="41">
         <v>29</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="41">
         <v>30</v>
       </c>
-      <c r="I3" t="s" s="54">
+      <c r="I3" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="J3" t="s" s="54">
+      <c r="J3" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="K3" t="s" s="54">
+      <c r="K3" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="L3" t="s" s="54">
+      <c r="L3" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" t="s" s="54">
+      <c r="M3" s="41"/>
+      <c r="N3" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="O3" t="s" s="54">
+      <c r="O3" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="P3" s="56">
+      <c r="P3" s="43">
         <v>96</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="54">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
+      <c r="A4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s" s="54">
+      <c r="B4" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s" s="54">
+      <c r="C4" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="D4" t="s" s="54">
+      <c r="D4" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="41">
         <v>70</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="41">
         <v>90</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="41">
         <v>38</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="41">
         <v>90</v>
       </c>
-      <c r="I4" t="s" s="54">
+      <c r="I4" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="J4" t="s" s="54">
+      <c r="J4" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="K4" t="s" s="57">
+      <c r="K4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="L4" t="s" s="54">
+      <c r="L4" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="56"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="54">
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s" s="54">
+      <c r="B5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s" s="54">
+      <c r="C5" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="D5" t="s" s="54">
+      <c r="D5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="41">
         <v>50</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="41">
         <v>60</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="41">
         <v>30</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="41">
         <v>90</v>
       </c>
-      <c r="I5" t="s" s="54">
+      <c r="I5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="J5" t="s" s="54">
+      <c r="J5" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="K5" t="s" s="57">
+      <c r="K5" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="L5" t="s" s="54">
+      <c r="L5" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="56"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="54">
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
+      <c r="A6" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B6" t="s" s="54">
+      <c r="B6" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C6" t="s" s="54">
+      <c r="C6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="54">
+      <c r="D6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="41">
         <v>50</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="41">
         <v>60</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="56"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="54">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="43"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="A7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s" s="54">
+      <c r="B7" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C7" t="s" s="54">
+      <c r="C7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="54">
+      <c r="D7" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="41">
         <v>50</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="41">
         <v>60</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="56"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="54">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="A8" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B8" t="s" s="54">
+      <c r="B8" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C8" t="s" s="54">
+      <c r="C8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s" s="54">
+      <c r="D8" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="41">
         <v>60</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="41">
         <v>45</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="56"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="54">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B9" t="s" s="54">
+      <c r="B9" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="C9" t="s" s="54">
+      <c r="C9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s" s="54">
+      <c r="D9" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="41">
         <v>65</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="41">
         <v>40</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="56"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1">
+      <c r="B15" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1">
+      <c r="B16" s="20"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B18" s="25"/>
+      <c r="C18" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B19" s="25"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B20" s="25"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B21" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B22" s="30"/>
+      <c r="C22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8528,148 +8747,174 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="10.8516" style="63" customWidth="1"/>
-    <col min="10" max="256" width="10.8516" style="63" customWidth="1"/>
+    <col min="1" max="256" width="10.875" style="60" customWidth="1"/>
+    <col min="257" max="16384" width="10.875" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.95" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:9" ht="27.95" customHeight="1">
+      <c r="A1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="31">
+      <c r="E1" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s" s="31">
+      <c r="F1" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s" s="31">
+      <c r="G1" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s" s="31">
+      <c r="H1" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="I1" t="s" s="31">
+      <c r="I1" s="59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+    <row r="2" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="63">
+        <v>60</v>
+      </c>
+      <c r="F2" s="63">
+        <v>60</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A3" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="63">
+        <v>60</v>
+      </c>
+      <c r="F3" s="63">
+        <v>60</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stevens\Courses\CS-555-Agile Methods for SW Eng\GEDCOM_Project\CS_555_JAVS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\Semester 2\Agile\GedcomProject\CS_555_JAVS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6615E50-240F-4E9D-B187-67782FCFFDAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD77502-8252-45C1-89BD-FDF65D1E9138}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20511" yWindow="6051" windowWidth="24686" windowHeight="13149" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="295">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -895,6 +895,33 @@
   </si>
   <si>
     <t xml:space="preserve">vm    </t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>All_Lists.java</t>
+  </si>
+  <si>
+    <t>US_listOflivingSingle,checkIfMarried</t>
+  </si>
+  <si>
+    <t>US_listofOrphans</t>
+  </si>
+  <si>
+    <t>39-60</t>
+  </si>
+  <si>
+    <t>63-79</t>
+  </si>
+  <si>
+    <t>Test_CheckList</t>
+  </si>
+  <si>
+    <t>Test_getListOfLivingSingles</t>
+  </si>
+  <si>
+    <t>Test_getListOfOrphans</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1297,6 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1304,6 +1327,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2086,7 +2113,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2356,7 +2383,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2579,7 +2606,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2802,7 +2829,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3072,7 +3099,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3295,7 +3322,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -4509,20 +4536,20 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.625" customWidth="1"/>
+    <col min="2" max="4" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="2:4" ht="50.15" customHeight="1">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-    </row>
-    <row r="7" spans="2:4" ht="18">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+    </row>
+    <row r="7" spans="2:4" ht="17.600000000000001">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4704,15 +4731,15 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="256" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="28.1328125" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" customWidth="1"/>
+    <col min="4" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1">
+    <row r="1" spans="1:5" ht="14.15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -4725,7 +4752,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="34" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -4738,7 +4765,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -4751,7 +4778,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -4764,7 +4791,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="34" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -4777,7 +4804,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -4790,7 +4817,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -4816,7 +4843,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="34" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -4829,7 +4856,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="34" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
@@ -4842,7 +4869,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="34" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -4855,7 +4882,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="34" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -4881,7 +4908,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="68.099999999999994" customHeight="1">
+    <row r="14" spans="1:5" ht="68.150000000000006" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -4894,7 +4921,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="15" spans="1:5" ht="34" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -4907,7 +4934,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -4920,7 +4947,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="17" spans="1:5" ht="34" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -4933,7 +4960,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -4946,7 +4973,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -4959,7 +4986,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -4972,7 +4999,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="21" spans="1:5" ht="34" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -4985,7 +5012,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="22" spans="1:5" ht="34" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
@@ -4998,7 +5025,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="23" spans="1:5" ht="34" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -5011,7 +5038,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="24" spans="1:5" ht="34" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
@@ -5037,7 +5064,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="26" spans="1:5" ht="34" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>91</v>
       </c>
@@ -5050,7 +5077,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="135.94999999999999" customHeight="1">
+    <row r="27" spans="1:5" ht="136" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
@@ -5063,7 +5090,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>95</v>
       </c>
@@ -5076,7 +5103,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="29" spans="1:5" ht="34" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>97</v>
       </c>
@@ -5089,7 +5116,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>99</v>
       </c>
@@ -5102,7 +5129,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
@@ -5115,7 +5142,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="32" spans="1:5" ht="34" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
@@ -5128,7 +5155,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>105</v>
       </c>
@@ -5141,7 +5168,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="34" spans="1:5" ht="34" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
@@ -5167,7 +5194,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="36" spans="1:5" ht="34" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>258</v>
       </c>
@@ -5180,7 +5207,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="37" spans="1:5" ht="34" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>261</v>
       </c>
@@ -5193,7 +5220,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="38" spans="1:5" ht="34" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>264</v>
       </c>
@@ -5206,7 +5233,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="39" spans="1:5" ht="34" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>267</v>
       </c>
@@ -5219,7 +5246,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="40" spans="1:5" ht="34" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>270</v>
       </c>
@@ -5232,7 +5259,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="41" spans="1:5" ht="34" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>273</v>
       </c>
@@ -5245,7 +5272,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="42" spans="1:5" ht="34" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>276</v>
       </c>
@@ -5258,7 +5285,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="43" spans="1:5" ht="34" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>279</v>
       </c>
@@ -5288,10 +5315,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
+    <col min="4" max="5" width="20.46484375" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5432,17 +5459,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5947,7 +5974,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
@@ -5977,11 +6004,11 @@
         <v>21</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="55" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="54">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="53" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="52">
         <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5990,15 +6017,15 @@
       <c r="C35" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="54">
+    <row r="36" spans="1:5" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="52">
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -6007,10 +6034,10 @@
       <c r="C36" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="55" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6031,18 +6058,18 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="256" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="7" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.95" customHeight="1">
+    <row r="1" spans="1:8" ht="13" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
@@ -6054,7 +6081,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="12.95" customHeight="1">
+    <row r="2" spans="1:8" ht="13" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>111</v>
       </c>
@@ -6066,7 +6093,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="12.95" customHeight="1">
+    <row r="3" spans="1:8" ht="13" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -6078,7 +6105,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="12.95" customHeight="1">
+    <row r="4" spans="1:8" ht="13" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6088,7 +6115,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="12.95" customHeight="1">
+    <row r="5" spans="1:8" ht="13" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>113</v>
       </c>
@@ -6100,7 +6127,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="12.95" customHeight="1">
+    <row r="6" spans="1:8" ht="13" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -6112,7 +6139,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="12.95" customHeight="1">
+    <row r="7" spans="1:8" ht="13" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6122,7 +6149,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="12.95" customHeight="1">
+    <row r="8" spans="1:8" ht="13" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>115</v>
       </c>
@@ -6134,7 +6161,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="12.95" customHeight="1">
+    <row r="9" spans="1:8" ht="13" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6144,7 +6171,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="12.95" customHeight="1">
+    <row r="10" spans="1:8" ht="13" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6154,7 +6181,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="12.95" customHeight="1">
+    <row r="11" spans="1:8" ht="13" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6164,7 +6191,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="12.95" customHeight="1">
+    <row r="12" spans="1:8" ht="13" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6174,7 +6201,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="12.95" customHeight="1">
+    <row r="13" spans="1:8" ht="13" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6184,7 +6211,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="12.95" customHeight="1">
+    <row r="14" spans="1:8" ht="13" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -6208,7 +6235,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="12.95" customHeight="1">
+    <row r="15" spans="1:8" ht="13" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>122</v>
       </c>
@@ -6226,7 +6253,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="12.95" customHeight="1">
+    <row r="16" spans="1:8" ht="13" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>123</v>
       </c>
@@ -6252,7 +6279,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="12.95" customHeight="1">
+    <row r="17" spans="1:8" ht="13" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>124</v>
       </c>
@@ -6278,7 +6305,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="12.95" customHeight="1">
+    <row r="18" spans="1:8" ht="13" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>125</v>
       </c>
@@ -6304,7 +6331,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="12.95" customHeight="1">
+    <row r="19" spans="1:8" ht="13" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>126</v>
       </c>
@@ -6328,7 +6355,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="12.95" customHeight="1">
+    <row r="20" spans="1:8" ht="13" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="16"/>
@@ -6338,7 +6365,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="12.95" customHeight="1">
+    <row r="21" spans="1:8" ht="13" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -6348,7 +6375,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="12.95" customHeight="1">
+    <row r="22" spans="1:8" ht="13" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6358,7 +6385,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="12.95" customHeight="1">
+    <row r="23" spans="1:8" ht="13" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6368,7 +6395,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="12.95" customHeight="1">
+    <row r="24" spans="1:8" ht="13" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -6378,7 +6405,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="12.95" customHeight="1">
+    <row r="25" spans="1:8" ht="13" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -6388,7 +6415,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="12.95" customHeight="1">
+    <row r="26" spans="1:8" ht="13" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -6398,7 +6425,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="12.95" customHeight="1">
+    <row r="27" spans="1:8" ht="13" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -6408,7 +6435,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12.95" customHeight="1">
+    <row r="28" spans="1:8" ht="13" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -6418,7 +6445,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="12.95" customHeight="1">
+    <row r="29" spans="1:8" ht="13" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -6428,7 +6455,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="12.95" customHeight="1">
+    <row r="30" spans="1:8" ht="13" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -6438,7 +6465,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="12.95" customHeight="1">
+    <row r="31" spans="1:8" ht="13" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -6448,7 +6475,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="12.95" customHeight="1">
+    <row r="32" spans="1:8" ht="13" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6458,7 +6485,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="12.95" customHeight="1">
+    <row r="33" spans="1:8" ht="13" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -6468,7 +6495,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="12.95" customHeight="1">
+    <row r="34" spans="1:8" ht="13" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -6478,7 +6505,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="12.95" customHeight="1">
+    <row r="35" spans="1:8" ht="13" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -6488,7 +6515,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="12.95" customHeight="1">
+    <row r="36" spans="1:8" ht="13" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -6498,7 +6525,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="12.95" customHeight="1">
+    <row r="37" spans="1:8" ht="13" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -6508,7 +6535,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="12.95" customHeight="1">
+    <row r="38" spans="1:8" ht="13" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -6518,7 +6545,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="12.95" customHeight="1">
+    <row r="39" spans="1:8" ht="13" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -6546,18 +6573,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="256" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="7" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.95" customHeight="1">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>116</v>
       </c>
@@ -6578,7 +6605,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="12.95" customHeight="1">
+    <row r="2" spans="1:7" ht="13" customHeight="1">
       <c r="A2" s="17">
         <v>42046</v>
       </c>
@@ -6593,7 +6620,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="12.95" customHeight="1">
+    <row r="3" spans="1:7" ht="13" customHeight="1">
       <c r="A3" s="17">
         <v>42059</v>
       </c>
@@ -6616,7 +6643,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="12.95" customHeight="1">
+    <row r="4" spans="1:7" ht="13" customHeight="1">
       <c r="A4" s="19">
         <v>42087</v>
       </c>
@@ -6635,7 +6662,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="12.95" customHeight="1">
+    <row r="5" spans="1:7" ht="13" customHeight="1">
       <c r="A5" s="19">
         <v>42101</v>
       </c>
@@ -6650,7 +6677,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="12.95" customHeight="1">
+    <row r="6" spans="1:7" ht="13" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6659,7 +6686,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="12.95" customHeight="1">
+    <row r="7" spans="1:7" ht="13" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6668,7 +6695,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="12.95" customHeight="1">
+    <row r="8" spans="1:7" ht="13" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6677,7 +6704,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="12.95" customHeight="1">
+    <row r="9" spans="1:7" ht="13" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6686,7 +6713,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="12.95" customHeight="1">
+    <row r="10" spans="1:7" ht="13" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6695,7 +6722,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="12.95" customHeight="1">
+    <row r="11" spans="1:7" ht="13" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6704,7 +6731,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="12.95" customHeight="1">
+    <row r="12" spans="1:7" ht="13" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6713,7 +6740,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="12.95" customHeight="1">
+    <row r="13" spans="1:7" ht="13" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6722,7 +6749,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="12.95" customHeight="1">
+    <row r="14" spans="1:7" ht="13" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6731,7 +6758,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="12.95" customHeight="1">
+    <row r="15" spans="1:7" ht="13" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6740,7 +6767,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="12.95" customHeight="1">
+    <row r="16" spans="1:7" ht="13" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6749,7 +6776,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="12.95" customHeight="1">
+    <row r="17" spans="1:7" ht="13" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6758,7 +6785,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="12.95" customHeight="1">
+    <row r="18" spans="1:7" ht="13" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6767,7 +6794,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="12.95" customHeight="1">
+    <row r="19" spans="1:7" ht="13" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6776,7 +6803,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="12.95" customHeight="1">
+    <row r="20" spans="1:7" ht="13" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -6785,7 +6812,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="12.95" customHeight="1">
+    <row r="21" spans="1:7" ht="13" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -6794,7 +6821,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="12.95" customHeight="1">
+    <row r="22" spans="1:7" ht="13" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6803,7 +6830,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="12.95" customHeight="1">
+    <row r="23" spans="1:7" ht="13" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6812,7 +6839,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="12.95" customHeight="1">
+    <row r="24" spans="1:7" ht="13" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -6821,7 +6848,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="12.95" customHeight="1">
+    <row r="25" spans="1:7" ht="13" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -6830,7 +6857,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+    <row r="26" spans="1:7" ht="13" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -6859,22 +6886,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="8.46484375" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="11.46484375" customWidth="1"/>
+    <col min="12" max="12" width="19.1328125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="15" width="10.125" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="1.86328125" customWidth="1"/>
+    <col min="15" max="15" width="10.1328125" customWidth="1"/>
+    <col min="16" max="16" width="16.46484375" customWidth="1"/>
+    <col min="17" max="17" width="10.1328125" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6927,7 +6954,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:17" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -6976,7 +7003,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:17" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
@@ -7025,7 +7052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:17" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -7074,7 +7101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:17" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -7123,7 +7150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:17" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -7172,7 +7199,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:17" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -7221,7 +7248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -7270,7 +7297,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:17" ht="17.149999999999999" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -7562,12 +7589,12 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
     <col min="3" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="22.59765625" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="19.375" customWidth="1"/>
-    <col min="16" max="16" width="190.625" customWidth="1"/>
+    <col min="15" max="15" width="19.3984375" customWidth="1"/>
+    <col min="16" max="16" width="190.59765625" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
@@ -8270,17 +8297,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
     <col min="3" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="256" width="11" customWidth="1"/>
+    <col min="10" max="10" width="20.46484375" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
@@ -8342,7 +8370,7 @@
         <v>202</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="E2" s="41">
         <v>50</v>
@@ -8390,7 +8418,7 @@
         <v>202</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="E3" s="41">
         <v>50</v>
@@ -8438,7 +8466,7 @@
         <v>213</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="E4" s="41">
         <v>70</v>
@@ -8480,7 +8508,7 @@
         <v>213</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="E5" s="41">
         <v>50</v>
@@ -8522,7 +8550,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="E6" s="41">
         <v>50</v>
@@ -8530,16 +8558,34 @@
       <c r="F6" s="41">
         <v>60</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="42"/>
+      <c r="G6" s="41">
+        <v>20</v>
+      </c>
+      <c r="H6" s="41">
+        <v>30</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>290</v>
+      </c>
       <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="43"/>
+      <c r="N6" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="P6" s="43">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="42" t="s">
@@ -8552,7 +8598,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="E7" s="41">
         <v>50</v>
@@ -8560,16 +8606,34 @@
       <c r="F7" s="41">
         <v>60</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42"/>
+      <c r="G7" s="41">
+        <v>16</v>
+      </c>
+      <c r="H7" s="41">
+        <v>15</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>291</v>
+      </c>
       <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43"/>
+      <c r="N7" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" s="43">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="42" t="s">
@@ -8754,163 +8818,163 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.875" style="60" customWidth="1"/>
-    <col min="257" max="16384" width="10.875" style="60"/>
+    <col min="1" max="256" width="10.86328125" style="58" customWidth="1"/>
+    <col min="257" max="16384" width="10.86328125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:9" ht="28" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="61">
         <v>60</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="61">
         <v>60</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="61">
         <v>60</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="61">
         <v>60</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\Semester 2\Agile\GedcomProject\CS_555_JAVS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD77502-8252-45C1-89BD-FDF65D1E9138}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10739D6E-3B90-4360-ACB1-692835DE9789}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20511" yWindow="6051" windowWidth="24686" windowHeight="13149" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8229" yWindow="4766" windowWidth="24685" windowHeight="13148" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="295">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1198,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1331,6 +1331,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2113,7 +2114,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2383,7 +2384,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2606,7 +2607,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2829,7 +2830,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3099,7 +3100,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3322,7 +3323,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -4727,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
@@ -5457,10 +5458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
@@ -6038,6 +6039,40 @@
         <v>11</v>
       </c>
       <c r="E36" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A37" s="64">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A38" s="64">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8297,7 +8332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\Semester 2\Agile\GedcomProject\CS_555_JAVS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allan/Desktop/Java/Final Pro/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10739D6E-3B90-4360-ACB1-692835DE9789}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8229" yWindow="4766" windowWidth="24685" windowHeight="13148" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="13140" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -24,8 +23,14 @@
     <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
     <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="303">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -237,9 +242,6 @@
     <t>Parents not too old</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>US13</t>
   </si>
   <si>
@@ -922,18 +924,45 @@
   </si>
   <si>
     <t>Test_getListOfOrphans</t>
+  </si>
+  <si>
+    <t>List living Married</t>
+  </si>
+  <si>
+    <t>Individual.java</t>
+  </si>
+  <si>
+    <t>getAge</t>
+  </si>
+  <si>
+    <t>listOfLivingMarried</t>
+  </si>
+  <si>
+    <t>9-25</t>
+  </si>
+  <si>
+    <t>87-94</t>
+  </si>
+  <si>
+    <t>test_Check_CurrentAge, test_Check_CurrentAge2</t>
+  </si>
+  <si>
+    <t>test_Check_LivingMarried, test_Check_LivingMarried2</t>
+  </si>
+  <si>
+    <t>List upcomming anniversaries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="m&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1198,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1297,9 +1326,6 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1327,17 +1353,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1418,7 +1448,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1431,10 +1461,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5303499999999999E-2"/>
-          <c:y val="5.55579E-2"/>
-          <c:w val="0.89969600000000005"/>
-          <c:h val="0.84201099999999995"/>
+          <c:x val="0.0953035"/>
+          <c:y val="0.0555579"/>
+          <c:w val="0.899696"/>
+          <c:h val="0.842011"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1477,19 +1507,19 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42046</c:v>
+                  <c:v>42046.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42060</c:v>
+                  <c:v>42060.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42087</c:v>
+                  <c:v>42087.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42101</c:v>
+                  <c:v>42101.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,25 +1531,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2040-46FC-9C8B-CFCBE1219743}"/>
             </c:ext>
@@ -1535,17 +1565,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:axId val="676728256"/>
+        <c:axId val="673843040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2094734552"/>
+        <c:axId val="676728256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1573,14 +1603,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="673843040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="673843040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="676728256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1668,7 +1698,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1681,10 +1711,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3931499999999997E-2"/>
-          <c:y val="5.55579E-2"/>
+          <c:x val="0.0739315"/>
+          <c:y val="0.0555579"/>
           <c:w val="0.921068"/>
-          <c:h val="0.84201099999999995"/>
+          <c:h val="0.842011"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1730,16 +1760,16 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42046</c:v>
+                  <c:v>42046.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42059</c:v>
+                  <c:v>42059.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="m/d/yyyy">
-                  <c:v>42087</c:v>
+                <c:pt idx="2" formatCode="m/d/yy">
+                  <c:v>42087.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="m/d/yyyy">
-                  <c:v>42101</c:v>
+                <c:pt idx="3" formatCode="m/d/yy">
+                  <c:v>42101.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,22 +1781,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2632-437B-B852-CFDDED15DF0C}"/>
             </c:ext>
@@ -1782,11 +1812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:axId val="676751088"/>
+        <c:axId val="676753568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2094734552"/>
+        <c:axId val="676751088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,14 +1850,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="676753568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="676753568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,11 +1902,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="676751088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="5"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="5.0"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1934,7 +1964,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +2000,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,8 +2008,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1259100" y="1352933"/>
-          <a:ext cx="1408892" cy="966213"/>
+          <a:off x="1255925" y="1378333"/>
+          <a:ext cx="1408892" cy="985263"/>
           <a:chOff x="-19050" y="-64007"/>
           <a:chExt cx="1408891" cy="981453"/>
         </a:xfrm>
@@ -1989,7 +2019,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2092,7 +2122,7 @@
           <xdr:cNvPr id="4" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2114,7 +2144,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2240,7 +2270,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,8 +2278,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5256950" y="1372031"/>
-          <a:ext cx="1290958" cy="697207"/>
+          <a:off x="5244250" y="1397431"/>
+          <a:ext cx="1287783" cy="709907"/>
           <a:chOff x="-19049" y="-41147"/>
           <a:chExt cx="1287783" cy="707367"/>
         </a:xfrm>
@@ -2259,7 +2289,7 @@
           <xdr:cNvPr id="6" name="Shape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2362,7 +2392,7 @@
           <xdr:cNvPr id="7" name="Shape 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2384,7 +2414,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2463,7 +2493,7 @@
         <xdr:cNvPr id="11" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,8 +2501,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2753995" y="1181298"/>
-          <a:ext cx="1107864" cy="953717"/>
+          <a:off x="2750820" y="1203523"/>
+          <a:ext cx="1101514" cy="972767"/>
           <a:chOff x="-19049" y="-52578"/>
           <a:chExt cx="1101513" cy="968956"/>
         </a:xfrm>
@@ -2482,7 +2512,7 @@
           <xdr:cNvPr id="9" name="Shape 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2585,7 +2615,7 @@
           <xdr:cNvPr id="10" name="Shape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2607,7 +2637,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2686,7 +2716,7 @@
         <xdr:cNvPr id="14" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,8 +2724,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3820792" y="1527427"/>
-          <a:ext cx="432436" cy="620774"/>
+          <a:off x="3811267" y="1556002"/>
+          <a:ext cx="429261" cy="633474"/>
           <a:chOff x="-19050" y="-41147"/>
           <a:chExt cx="429261" cy="630933"/>
         </a:xfrm>
@@ -2705,7 +2735,7 @@
           <xdr:cNvPr id="12" name="Shape 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2808,7 +2838,7 @@
           <xdr:cNvPr id="13" name="Shape 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2830,7 +2860,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2956,7 +2986,7 @@
         <xdr:cNvPr id="17" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,8 +2994,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4208145" y="1202463"/>
-          <a:ext cx="1159722" cy="1009259"/>
+          <a:off x="4198620" y="1224688"/>
+          <a:ext cx="1156547" cy="1028309"/>
           <a:chOff x="-19050" y="-52578"/>
           <a:chExt cx="1156547" cy="1024498"/>
         </a:xfrm>
@@ -2975,7 +3005,7 @@
           <xdr:cNvPr id="15" name="Shape 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3078,7 +3108,7 @@
           <xdr:cNvPr id="16" name="Shape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3100,7 +3130,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3179,7 +3209,7 @@
         <xdr:cNvPr id="20" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,8 +3217,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5409676" y="4942848"/>
-          <a:ext cx="1265554" cy="894576"/>
+          <a:off x="5396976" y="5038098"/>
+          <a:ext cx="1262379" cy="913626"/>
           <a:chOff x="-17413" y="-41148"/>
           <a:chExt cx="1262379" cy="909816"/>
         </a:xfrm>
@@ -3198,7 +3228,7 @@
           <xdr:cNvPr id="18" name="Shape 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3301,7 +3331,7 @@
           <xdr:cNvPr id="19" name="Shape 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3323,7 +3353,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3407,7 +3437,7 @@
         <xdr:cNvPr id="22" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,25 +4562,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.59765625" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50.15" customHeight="1">
+    <row r="3" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
     </row>
-    <row r="7" spans="2:4" ht="17.600000000000001">
+    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4561,14 +4591,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15">
+    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="15">
+    <row r="10" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -4577,14 +4607,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15">
+    <row r="11" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="15">
+    <row r="12" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -4593,116 +4623,116 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15">
+    <row r="13" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4" ht="15">
+    <row r="14" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" ht="15">
+    <row r="16" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15">
-      <c r="B17" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" ht="15">
+    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" ht="15">
+    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" ht="15">
+    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" ht="15">
+    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15">
-      <c r="B25" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" ht="15">
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4710,37 +4740,37 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Team'!R1C1" display="Team" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" location="'Backlog'!R1C1" display="Backlog" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" location="'Burndown README'!R1C1" display="Burndown README" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D16" location="'Burndown'!R1C1" display="Burndown" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D18" location="'Sprint1'!R1C1" display="Sprint1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D20" location="'Sprint2'!R1C1" display="Sprint2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D22" location="'Sprint3'!R1C1" display="Sprint3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D24" location="'Sprint4'!R1C1" display="Sprint4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D26" location="'Stories'!R1C1" display="Stories" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D10" location="'Team'!R1C1" display="Team"/>
+    <hyperlink ref="D12" location="'Backlog'!R1C1" display="Backlog"/>
+    <hyperlink ref="D14" location="'Burndown README'!R1C1" display="Burndown README"/>
+    <hyperlink ref="D16" location="'Burndown'!R1C1" display="Burndown"/>
+    <hyperlink ref="D18" location="'Sprint1'!R1C1" display="Sprint1"/>
+    <hyperlink ref="D20" location="'Sprint2'!R1C1" display="Sprint2"/>
+    <hyperlink ref="D22" location="'Sprint3'!R1C1" display="Sprint3"/>
+    <hyperlink ref="D24" location="'Sprint4'!R1C1" display="Sprint4"/>
+    <hyperlink ref="D26" location="'Stories'!R1C1" display="Stories"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
-    <col min="2" max="2" width="28.1328125" customWidth="1"/>
-    <col min="3" max="3" width="49.46484375" customWidth="1"/>
-    <col min="4" max="256" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.15" customHeight="1">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -4748,12 +4778,12 @@
         <v>36</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="34" customHeight="1">
+    <row r="2" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -4761,12 +4791,12 @@
         <v>49</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -4774,12 +4804,12 @@
         <v>40</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -4787,12 +4817,12 @@
         <v>43</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="34" customHeight="1">
+    <row r="5" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -4800,12 +4830,12 @@
         <v>57</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -4813,12 +4843,12 @@
         <v>53</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -4826,12 +4856,12 @@
         <v>60</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1">
+    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -4839,12 +4869,12 @@
         <v>45</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="34" customHeight="1">
+    <row r="9" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -4852,12 +4882,12 @@
         <v>55</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="34" customHeight="1">
+    <row r="10" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
@@ -4865,12 +4895,12 @@
         <v>63</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="34" customHeight="1">
+    <row r="11" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -4878,12 +4908,12 @@
         <v>47</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="34" customHeight="1">
+    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -4891,12 +4921,12 @@
         <v>51</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="51" customHeight="1">
+    <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -4904,397 +4934,397 @@
         <v>65</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="68.150000000000006" customHeight="1">
+    <row r="14" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="C14" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="34" customHeight="1">
+    <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="C15" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="C16" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="34" customHeight="1">
+    <row r="17" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C17" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="C18" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C20" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="34" customHeight="1">
+    <row r="21" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="C21" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="34" customHeight="1">
+    <row r="22" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C22" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="34" customHeight="1">
+    <row r="23" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C23" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="34" customHeight="1">
+    <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C24" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1">
+    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C25" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="34" customHeight="1">
+    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="C26" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="136" customHeight="1">
+    <row r="27" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="C27" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="28" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="C28" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="34" customHeight="1">
+    <row r="29" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="C29" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="30" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="C30" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="31" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="C31" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="34" customHeight="1">
+    <row r="32" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="C32" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="33" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="C33" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="34" customHeight="1">
+    <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="C34" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="51" customHeight="1">
+    <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="51" t="s">
         <v>256</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>257</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="34" customHeight="1">
+    <row r="36" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="51" t="s">
         <v>259</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>260</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="34" customHeight="1">
+    <row r="37" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="51" t="s">
         <v>262</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>263</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="34" customHeight="1">
+    <row r="38" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="51" t="s">
         <v>265</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>266</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="34" customHeight="1">
+    <row r="39" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="51" t="s">
         <v>268</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>269</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="34" customHeight="1">
+    <row r="40" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="51" t="s">
         <v>271</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>272</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="34" customHeight="1">
+    <row r="41" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="51" t="s">
         <v>274</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>275</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="34" customHeight="1">
+    <row r="42" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="51" t="s">
         <v>277</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>278</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="34" customHeight="1">
+    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="51" t="s">
         <v>280</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>281</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -5309,21 +5339,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" customWidth="1"/>
-    <col min="4" max="5" width="20.46484375" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -5340,14 +5370,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5364,7 +5394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5381,7 +5411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -5398,7 +5428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -5415,21 +5445,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5440,7 +5470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5457,24 +5487,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E25" sqref="A25:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="6.59765625" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -5491,7 +5521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5508,7 +5538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5525,7 +5555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5542,7 +5572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -5559,7 +5589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -5576,7 +5606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -5593,7 +5623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -5610,7 +5640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -5627,7 +5657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -5644,7 +5674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -5661,7 +5691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -5678,7 +5708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5695,135 +5725,139 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+        <v>79</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>26</v>
@@ -5832,225 +5866,237 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>4</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+        <v>99</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>4</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" s="6">
+    <row r="34" spans="1:5" s="52" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="64">
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A34" s="6">
-        <v>3</v>
-      </c>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="64">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="61">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="52">
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="61">
         <v>4</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="52">
-        <v>4</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A37" s="64">
-        <v>4</v>
-      </c>
       <c r="B37" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
@@ -6059,18 +6105,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A38" s="64">
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="61">
         <v>4</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>268</v>
+      <c r="B38" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
         <v>61</v>
@@ -6086,27 +6132,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" customWidth="1"/>
-    <col min="7" max="256" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" customHeight="1">
+    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6116,9 +6162,9 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1">
+    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6128,9 +6174,9 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="13" customHeight="1">
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6140,7 +6186,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="13" customHeight="1">
+    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6150,9 +6196,9 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="13" customHeight="1">
+    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6162,9 +6208,9 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="13" customHeight="1">
+    <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6174,7 +6220,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="13" customHeight="1">
+    <row r="7" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6184,9 +6230,9 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="13" customHeight="1">
+    <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6196,7 +6242,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="13" customHeight="1">
+    <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6206,7 +6252,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="13" customHeight="1">
+    <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6216,7 +6262,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="13" customHeight="1">
+    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6226,7 +6272,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="13" customHeight="1">
+    <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6236,7 +6282,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="13" customHeight="1">
+    <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6246,33 +6292,33 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="13" customHeight="1">
+    <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="13" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="B15" s="11">
         <v>42046</v>
@@ -6288,9 +6334,9 @@
       <c r="G15" s="14"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="13" customHeight="1">
+    <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="11">
         <v>42060</v>
@@ -6314,9 +6360,9 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="13" customHeight="1">
+    <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="11">
         <v>42087</v>
@@ -6340,9 +6386,9 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="13" customHeight="1">
+    <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="11">
         <v>42101</v>
@@ -6366,9 +6412,9 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="13" customHeight="1">
+    <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12">
@@ -6390,7 +6436,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="13" customHeight="1">
+    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="16"/>
@@ -6400,7 +6446,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="13" customHeight="1">
+    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -6410,7 +6456,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="13" customHeight="1">
+    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6420,7 +6466,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="13" customHeight="1">
+    <row r="23" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6430,7 +6476,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="13" customHeight="1">
+    <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -6440,7 +6486,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="13" customHeight="1">
+    <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -6450,7 +6496,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="13" customHeight="1">
+    <row r="26" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -6460,7 +6506,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="13" customHeight="1">
+    <row r="27" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -6470,7 +6516,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="13" customHeight="1">
+    <row r="28" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -6480,7 +6526,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="13" customHeight="1">
+    <row r="29" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -6490,7 +6536,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="13" customHeight="1">
+    <row r="30" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -6500,7 +6546,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="13" customHeight="1">
+    <row r="31" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -6510,7 +6556,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="13" customHeight="1">
+    <row r="32" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6520,7 +6566,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="13" customHeight="1">
+    <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -6530,7 +6576,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="13" customHeight="1">
+    <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -6540,7 +6586,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="13" customHeight="1">
+    <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -6550,7 +6596,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="13" customHeight="1">
+    <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -6560,7 +6606,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="13" customHeight="1">
+    <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -6570,7 +6616,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="13" customHeight="1">
+    <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -6580,7 +6626,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="13" customHeight="1">
+    <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -6601,46 +6647,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.46484375" customWidth="1"/>
-    <col min="4" max="4" width="7.1328125" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" customWidth="1"/>
-    <col min="7" max="256" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1">
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1">
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>42046</v>
       </c>
@@ -6655,7 +6701,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1">
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>42059</v>
       </c>
@@ -6678,7 +6724,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="13" customHeight="1">
+    <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>42087</v>
       </c>
@@ -6697,7 +6743,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1">
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>42101</v>
       </c>
@@ -6712,7 +6758,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="13" customHeight="1">
+    <row r="6" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6721,7 +6767,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="13" customHeight="1">
+    <row r="7" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6730,7 +6776,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="13" customHeight="1">
+    <row r="8" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6739,7 +6785,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="13" customHeight="1">
+    <row r="9" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6748,7 +6794,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="13" customHeight="1">
+    <row r="10" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6757,7 +6803,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="13" customHeight="1">
+    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6766,7 +6812,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="13" customHeight="1">
+    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6775,7 +6821,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="13" customHeight="1">
+    <row r="13" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6784,7 +6830,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="13" customHeight="1">
+    <row r="14" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6793,7 +6839,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="13" customHeight="1">
+    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6802,7 +6848,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="13" customHeight="1">
+    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6811,7 +6857,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="13" customHeight="1">
+    <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6820,7 +6866,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="13" customHeight="1">
+    <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6829,7 +6875,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="13" customHeight="1">
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6838,7 +6884,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="13" customHeight="1">
+    <row r="20" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -6847,7 +6893,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="13" customHeight="1">
+    <row r="21" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -6856,7 +6902,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="13" customHeight="1">
+    <row r="22" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6865,7 +6911,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="13" customHeight="1">
+    <row r="23" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6874,7 +6920,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="13" customHeight="1">
+    <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -6883,7 +6929,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="13" customHeight="1">
+    <row r="25" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -6892,7 +6938,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="13" customHeight="1">
+    <row r="26" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -6912,35 +6958,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" customWidth="1"/>
-    <col min="2" max="2" width="24.46484375" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" customWidth="1"/>
-    <col min="7" max="7" width="8.46484375" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.46484375" customWidth="1"/>
-    <col min="12" max="12" width="19.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="1.86328125" customWidth="1"/>
-    <col min="15" max="15" width="10.1328125" customWidth="1"/>
-    <col min="16" max="16" width="16.46484375" customWidth="1"/>
-    <col min="17" max="17" width="10.1328125" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -6954,42 +7000,42 @@
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17.149999999999999" customHeight="1">
+    </row>
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -7000,7 +7046,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="6">
         <v>100</v>
@@ -7015,30 +7061,30 @@
         <v>45</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="Q2" s="6">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
@@ -7049,7 +7095,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="6">
         <v>100</v>
@@ -7064,30 +7110,30 @@
         <v>25</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -7098,7 +7144,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="6">
         <v>102</v>
@@ -7113,30 +7159,30 @@
         <v>100</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="M4" s="24">
         <v>48944</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>152</v>
       </c>
       <c r="Q4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17.149999999999999" customHeight="1">
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -7147,7 +7193,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="6">
         <v>100</v>
@@ -7162,30 +7208,30 @@
         <v>50</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L5" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -7196,7 +7242,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="6">
         <v>90</v>
@@ -7211,30 +7257,30 @@
         <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="M6" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="23" t="s">
         <v>159</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>160</v>
       </c>
       <c r="Q6" s="6">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -7245,7 +7291,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="6">
         <v>100</v>
@@ -7260,30 +7306,30 @@
         <v>180</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L7" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.149999999999999" customHeight="1">
+    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -7294,7 +7340,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="6">
         <v>105</v>
@@ -7309,30 +7355,30 @@
         <v>75</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M8" s="24">
         <v>51470</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="23" t="s">
         <v>165</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>166</v>
       </c>
       <c r="Q8" s="6">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.149999999999999" customHeight="1">
+    <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -7343,7 +7389,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="6">
         <v>100</v>
@@ -7358,30 +7404,30 @@
         <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L9" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>170</v>
       </c>
       <c r="Q9" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="25"/>
       <c r="C10" s="6"/>
@@ -7400,7 +7446,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="25"/>
       <c r="C11" s="6"/>
@@ -7419,7 +7465,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="25"/>
       <c r="C12" s="6"/>
@@ -7438,7 +7484,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="25"/>
       <c r="C13" s="6"/>
@@ -7457,10 +7503,10 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -7478,7 +7524,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="20"/>
       <c r="C15" s="6"/>
@@ -7497,13 +7543,13 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7520,11 +7566,11 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -7541,11 +7587,11 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -7562,7 +7608,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="25"/>
       <c r="C19" s="6"/>
@@ -7581,13 +7627,13 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -7614,27 +7660,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="22.59765625" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="19.3984375" customWidth="1"/>
-    <col min="16" max="16" width="190.59765625" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="190.6640625" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -7648,47 +7694,47 @@
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>26</v>
@@ -7709,35 +7755,35 @@
         <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="Q2" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>26</v>
@@ -7758,35 +7804,35 @@
         <v>35</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="M3" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="Q3" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -7807,30 +7853,30 @@
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="M4" s="24">
         <v>48944</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>152</v>
       </c>
       <c r="Q4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -7856,35 +7902,35 @@
         <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L5" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -7905,35 +7951,35 @@
         <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L6" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="P6" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="Q6" s="6">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
@@ -7954,35 +8000,35 @@
         <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L7" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>16</v>
@@ -8003,30 +8049,30 @@
         <v>90</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M8" s="24">
         <v>51470</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="23" t="s">
         <v>165</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>166</v>
       </c>
       <c r="Q8" s="6">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -8052,30 +8098,30 @@
         <v>90</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L9" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>170</v>
       </c>
       <c r="Q9" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8094,7 +8140,7 @@
       <c r="P10" s="29"/>
       <c r="Q10" s="30"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -8113,7 +8159,7 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="33"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -8132,10 +8178,10 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="33"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1">
+    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -8153,7 +8199,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1">
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="20"/>
       <c r="C14" s="6"/>
@@ -8172,13 +8218,13 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1">
+    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="B15" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -8195,11 +8241,11 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1">
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="25"/>
       <c r="C16" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8216,7 +8262,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
       <c r="B17" s="25"/>
       <c r="C17" s="5"/>
@@ -8235,7 +8281,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" ht="14.25" customHeight="1">
+    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="25"/>
       <c r="C18" s="6"/>
@@ -8254,13 +8300,13 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" ht="14.25" customHeight="1">
+    <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
       <c r="B19" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -8277,11 +8323,11 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="33"/>
     </row>
-    <row r="20" spans="1:17" ht="14.25" customHeight="1">
+    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="28"/>
       <c r="B20" s="30"/>
       <c r="C20" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="29"/>
@@ -8298,11 +8344,11 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="33"/>
     </row>
-    <row r="21" spans="1:17" ht="14.25" customHeight="1">
+    <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="34"/>
@@ -8329,24 +8375,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="20.46484375" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>35</v>
       </c>
@@ -8360,41 +8406,41 @@
         <v>38</v>
       </c>
       <c r="E1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>131</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>132</v>
       </c>
       <c r="I1" s="39" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>135</v>
       </c>
       <c r="M1" s="41"/>
       <c r="N1" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>62</v>
       </c>
@@ -8402,10 +8448,10 @@
         <v>63</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E2" s="41">
         <v>50</v>
@@ -8420,40 +8466,40 @@
         <v>30</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="L2" s="42" t="s">
         <v>204</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>205</v>
       </c>
       <c r="M2" s="41"/>
       <c r="N2" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="P2" s="43">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E3" s="41">
         <v>50</v>
@@ -8468,40 +8514,40 @@
         <v>30</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J3" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="L3" s="42" t="s">
         <v>209</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>210</v>
       </c>
       <c r="M3" s="41"/>
       <c r="N3" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>211</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>212</v>
       </c>
       <c r="P3" s="43">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>70</v>
-      </c>
       <c r="C4" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" s="41">
         <v>70</v>
@@ -8516,23 +8562,23 @@
         <v>90</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J4" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="L4" s="42" t="s">
         <v>215</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>216</v>
       </c>
       <c r="M4" s="41"/>
       <c r="N4" s="42"/>
       <c r="O4" s="45"/>
       <c r="P4" s="43"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
         <v>59</v>
       </c>
@@ -8540,10 +8586,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E5" s="41">
         <v>50</v>
@@ -8558,34 +8604,34 @@
         <v>90</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K5" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="42" t="s">
         <v>217</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>218</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="42"/>
       <c r="O5" s="45"/>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>104</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E6" s="41">
         <v>50</v>
@@ -8600,40 +8646,40 @@
         <v>30</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J6" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="K6" s="44" t="s">
-        <v>288</v>
-      </c>
       <c r="L6" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M6" s="41"/>
       <c r="N6" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="O6" s="45" t="s">
         <v>292</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>293</v>
       </c>
       <c r="P6" s="43">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>108</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="41">
         <v>50</v>
@@ -8648,40 +8694,40 @@
         <v>15</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P7" s="43">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E8" s="41">
         <v>60</v>
@@ -8689,29 +8735,47 @@
       <c r="F8" s="41">
         <v>45</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="46"/>
+      <c r="G8" s="41">
+        <v>10</v>
+      </c>
+      <c r="H8" s="41">
+        <v>20</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>299</v>
+      </c>
       <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="N8" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="E9" s="41">
         <v>65</v>
@@ -8719,18 +8783,36 @@
       <c r="F9" s="41">
         <v>40</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="42"/>
+      <c r="G9" s="41">
+        <v>16</v>
+      </c>
+      <c r="H9" s="41">
+        <v>20</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>298</v>
+      </c>
       <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="N9" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="P9" s="43">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -8748,9 +8830,9 @@
       <c r="O10" s="48"/>
       <c r="P10" s="49"/>
     </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1">
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -8758,7 +8840,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -8766,29 +8848,29 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1">
+    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="14.25" customHeight="1">
+    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" ht="14.25" customHeight="1">
+    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="25"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -8796,7 +8878,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1">
+    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="25"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -8804,32 +8886,32 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1">
+    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" ht="14.25" customHeight="1">
+    <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="30"/>
       <c r="C22" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="2:7" ht="14.25" customHeight="1">
+    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="36"/>
       <c r="C23" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="34"/>
@@ -8846,170 +8928,194 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="10.86328125" style="58" customWidth="1"/>
-    <col min="257" max="16384" width="10.86328125" style="58"/>
+    <col min="1" max="256" width="10.83203125" style="57" customWidth="1"/>
+    <col min="257" max="16384" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="61">
+      <c r="D2" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="60">
         <v>60</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="60">
         <v>60</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="61">
+      <c r="D3" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="60">
         <v>60</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="60">
         <v>60</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="60">
+        <v>40</v>
+      </c>
+      <c r="F4" s="60">
+        <v>90</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="60">
+        <v>50</v>
+      </c>
+      <c r="F5" s="60">
+        <v>60</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/TEAM_AJSV_REPORT.xlsx
+++ b/Documents/TEAM_AJSV_REPORT.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\Semester 2\Agile\GedcomProject\CS_555_JAVS\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E6C5FF-E24C-42E0-A875-F4E641A29EB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="8229" yWindow="4766" windowWidth="24685" windowHeight="13148" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Team" sheetId="2" r:id="rId5"/>
-    <sheet name="Backlog" sheetId="3" r:id="rId6"/>
-    <sheet name="Burndown README" sheetId="4" r:id="rId7"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
-    <sheet name="Stories" sheetId="10" r:id="rId13"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Team" sheetId="2" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="4" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
+    <sheet name="Stories" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="317">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -43,7 +59,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -57,7 +73,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -71,7 +87,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -85,7 +101,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -99,7 +115,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -113,7 +129,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -127,7 +143,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -141,7 +157,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -155,7 +171,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="Verdana"/>
@@ -1049,26 +1065,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
-    <numFmt numFmtId="60" formatCode="m/d"/>
-    <numFmt numFmtId="61" formatCode="m&quot;-&quot;yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="166" formatCode="m&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="7">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -1083,36 +1088,16 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1343,260 +1328,135 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="66">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="83">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1605,32 +1465,89 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffd6e3bc"/>
-      <rgbColor rgb="ff878787"/>
-      <rgbColor rgb="ff4a7dbb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF5E88B1"/>
+      <rgbColor rgb="FFEEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFD6E3BC"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF4A7DBB"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1639,9 +1556,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0955397"/>
-          <c:y val="0.0567898"/>
-          <c:w val="0.89946"/>
+          <c:x val="9.5539700000000005E-2"/>
+          <c:y val="5.6789800000000001E-2"/>
+          <c:w val="0.89946000000000004"/>
           <c:h val="0.838785"/>
         </c:manualLayout>
       </c:layout>
@@ -1655,9 +1572,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1684,94 +1598,79 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/12/19</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/26/19</c:v>
+                  <c:v>42060</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/25/19</c:v>
+                  <c:v>42087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4/8/19</c:v>
+                  <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Burndown README'!$C$15:$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.000000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.000000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.000000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE24-40A1-934F-A0ECF4EAEF47}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="2094734552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1789,21 +1688,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2094734553"/>
         <c:scaling>
@@ -1840,13 +1740,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1868,6 +1769,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1882,13 +1784,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1897,10 +1806,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0740874"/>
-          <c:y val="0.0567899"/>
-          <c:w val="0.920913"/>
-          <c:h val="0.838784"/>
+          <c:x val="7.4087399999999998E-2"/>
+          <c:y val="5.6789899999999997E-2"/>
+          <c:w val="0.92091299999999998"/>
+          <c:h val="0.83878399999999997"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1913,9 +1822,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1942,91 +1848,76 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown'!$A$2:$A$7</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/12</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/25</c:v>
+                  <c:v>42059</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3/25/19</c:v>
+                <c:pt idx="2" formatCode="m/d/yyyy">
+                  <c:v>42087</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4/8/19</c:v>
+                <c:pt idx="3" formatCode="m/d/yyyy">
+                  <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.000000</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.000000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.000000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32DE-407F-9CE3-ACCFD4F34A8F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="2094734552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2044,21 +1935,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2094734553"/>
         <c:scaling>
@@ -2095,13 +1987,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -2123,6 +2016,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2137,11 +2031,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2155,18 +2054,24 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>4620</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854433" y="3653373"/>
-        <a:ext cx="4547496" cy="2459948"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2187,7 +2092,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2198,9 +2109,15 @@
           <a:chExt cx="1446994" cy="1066774"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="3" name="Shape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2228,7 +2145,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2280,7 +2197,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2291,13 +2208,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPr id="4" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2316,7 +2239,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2341,7 +2264,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2356,7 +2279,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2371,19 +2294,6 @@
               </a:rPr>
               <a:t>= # team members * 4 sprints * </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -2401,7 +2311,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2416,7 +2326,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2452,7 +2362,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2463,9 +2379,15 @@
           <a:chExt cx="1363986" cy="792204"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvPr id="6" name="Shape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2493,7 +2415,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2545,7 +2467,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2556,13 +2478,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPr id="7" name="Shape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2581,7 +2509,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2606,7 +2534,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2621,7 +2549,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2657,7 +2585,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="11" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2668,9 +2602,15 @@
           <a:chExt cx="1177716" cy="1077924"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvPr id="9" name="Shape 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2698,7 +2638,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2750,7 +2690,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2761,13 +2701,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPr id="10" name="Shape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2786,7 +2732,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2811,7 +2757,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2826,7 +2772,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2862,7 +2808,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="14" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2873,9 +2825,15 @@
           <a:chExt cx="535334" cy="666701"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvPr id="12" name="Shape 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2903,7 +2861,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -2955,7 +2913,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2966,13 +2924,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvPr id="13" name="Shape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2991,7 +2955,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3016,7 +2980,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3031,7 +2995,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3046,19 +3010,6 @@
               </a:rPr>
               <a:t>Total </a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
@@ -3076,7 +3027,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3091,7 +3042,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3127,7 +3078,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="17" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3138,9 +3095,15 @@
           <a:chExt cx="1232748" cy="1133467"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvPr id="15" name="Shape 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3168,7 +3131,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="0" y="0"/>
                 </a:moveTo>
@@ -3220,7 +3183,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3231,13 +3194,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPr id="16" name="Shape 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3256,7 +3225,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3281,7 +3250,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3296,7 +3265,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3332,7 +3301,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="20" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3343,9 +3318,15 @@
           <a:chExt cx="1338579" cy="995923"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvPr id="18" name="Shape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3373,7 +3354,7 @@
             </a:cxnLst>
             <a:rect l="0" t="0" r="r" b="b"/>
             <a:pathLst>
-              <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:path w="21600" h="21600" extrusionOk="0">
                 <a:moveTo>
                   <a:pt x="370" y="0"/>
                 </a:moveTo>
@@ -3425,7 +3406,7 @@
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3436,13 +3417,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvPr id="19" name="Shape 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3461,7 +3448,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3486,7 +3473,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3501,7 +3488,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3526,7 +3513,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3540,18 +3527,24 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>4618</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 1"/>
+        <xdr:cNvPr id="22" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="967666" y="1507073"/>
-        <a:ext cx="4335869" cy="2459946"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3561,7 +3554,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -3687,7 +3680,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3696,7 +3689,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3705,7 +3698,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3779,7 +3772,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -3787,7 +3780,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3806,7 +3799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3836,7 +3829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3862,7 +3855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3888,7 +3881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3914,7 +3907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3940,7 +3933,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3966,7 +3959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3992,7 +3985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4018,7 +4011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4044,7 +4037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4057,9 +4050,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -4074,7 +4073,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -4082,7 +4081,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4101,7 +4100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4127,7 +4126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4153,7 +4152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4179,7 +4178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4205,7 +4204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4231,7 +4230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4257,7 +4256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4283,7 +4282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4309,7 +4308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4335,7 +4334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4348,9 +4347,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -4364,7 +4369,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4383,7 +4388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4413,7 +4418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4439,7 +4444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4465,7 +4470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4491,7 +4496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4517,7 +4522,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4543,7 +4548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4569,7 +4574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4595,7 +4600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4621,7 +4626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4634,280 +4639,286 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="4" width="33.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="50.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="8">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="50.25" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s" s="9">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s" s="10">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" t="s" s="13">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="14">
+      <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s" s="10">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" t="s" s="13">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="14">
+      <c r="D12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s" s="10">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" t="s" s="13">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="14">
+      <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s" s="10">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="16" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
-      <c r="C16" t="s" s="13">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="16" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="14">
+      <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s" s="10">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" t="s" s="13">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="16" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="14">
+      <c r="D18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s" s="10">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="16" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
-      <c r="C20" t="s" s="13">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="16" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s" s="14">
+      <c r="D20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" t="s" s="10">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="16" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" t="s" s="13">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="16" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s" s="14">
+      <c r="D22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s" s="10">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
-      <c r="C24" t="s" s="13">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s" s="14">
+      <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s" s="10">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="16" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" t="s" s="17">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="16" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s" s="18">
+      <c r="D26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4915,582 +4926,581 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="81" customWidth="1"/>
-    <col min="2" max="2" width="28.1719" style="81" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="81" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="81" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="81" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" customWidth="1"/>
+    <col min="4" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="21">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="21">
+      <c r="B1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s" s="79">
+      <c r="C1" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" ht="34" customHeight="1">
-      <c r="A2" t="s" s="21">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="34" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="B2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s" s="82">
+      <c r="C2" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="21">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s" s="21">
+      <c r="B3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s" s="82">
+      <c r="C3" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="21">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s" s="21">
+      <c r="B4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s" s="82">
+      <c r="C4" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" t="s" s="21">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="34" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s" s="82">
+      <c r="C5" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" t="s" s="21">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s" s="21">
+      <c r="B6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s" s="82">
+      <c r="C6" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" t="s" s="21">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s" s="21">
+      <c r="B7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s" s="82">
+      <c r="C7" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" ht="51" customHeight="1">
-      <c r="A8" t="s" s="21">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s" s="21">
+      <c r="B8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s" s="82">
+      <c r="C8" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" t="s" s="21">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="34" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s" s="21">
+      <c r="B9" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s" s="82">
+      <c r="C9" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" t="s" s="21">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="34" customHeight="1">
+      <c r="A10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B10" t="s" s="21">
+      <c r="B10" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s" s="82">
+      <c r="C10" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" t="s" s="21">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="34" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s" s="21">
+      <c r="B11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="82">
+      <c r="C11" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" t="s" s="21">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="34" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s" s="21">
+      <c r="B12" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s" s="82">
+      <c r="C12" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" t="s" s="21">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="51" customHeight="1">
+      <c r="A13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s" s="21">
+      <c r="B13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C13" t="s" s="82">
+      <c r="C13" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" ht="68.25" customHeight="1">
-      <c r="A14" t="s" s="21">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="68.25" customHeight="1">
+      <c r="A14" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="B14" t="s" s="21">
+      <c r="B14" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C14" t="s" s="82">
+      <c r="C14" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" ht="34" customHeight="1">
-      <c r="A15" t="s" s="21">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="34" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s" s="21">
+      <c r="B15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s" s="82">
+      <c r="C15" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" t="s" s="21">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s" s="21">
+      <c r="B16" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C16" t="s" s="82">
+      <c r="C16" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" t="s" s="21">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="34" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B17" t="s" s="21">
+      <c r="B17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C17" t="s" s="82">
+      <c r="C17" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" t="s" s="21">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A18" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s" s="21">
+      <c r="B18" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" t="s" s="82">
+      <c r="C18" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" t="s" s="21">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s" s="21">
+      <c r="B19" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s" s="82">
+      <c r="C19" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" t="s" s="21">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s" s="21">
+      <c r="B20" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s" s="82">
+      <c r="C20" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" ht="34" customHeight="1">
-      <c r="A21" t="s" s="21">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="34" customHeight="1">
+      <c r="A21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B21" t="s" s="21">
+      <c r="B21" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C21" t="s" s="82">
+      <c r="C21" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" ht="34" customHeight="1">
-      <c r="A22" t="s" s="21">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="34" customHeight="1">
+      <c r="A22" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s" s="21">
+      <c r="B22" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s" s="82">
+      <c r="C22" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" ht="34" customHeight="1">
-      <c r="A23" t="s" s="21">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="34" customHeight="1">
+      <c r="A23" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s" s="21">
+      <c r="B23" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s" s="82">
+      <c r="C23" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" ht="34" customHeight="1">
-      <c r="A24" t="s" s="21">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="34" customHeight="1">
+      <c r="A24" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B24" t="s" s="21">
+      <c r="B24" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s" s="82">
+      <c r="C24" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" ht="51" customHeight="1">
-      <c r="A25" t="s" s="21">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" ht="51" customHeight="1">
+      <c r="A25" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s" s="21">
+      <c r="B25" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C25" t="s" s="82">
+      <c r="C25" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" ht="34" customHeight="1">
-      <c r="A26" t="s" s="21">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="34" customHeight="1">
+      <c r="A26" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B26" t="s" s="21">
+      <c r="B26" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C26" t="s" s="82">
+      <c r="C26" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" ht="136" customHeight="1">
-      <c r="A27" t="s" s="21">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="136" customHeight="1">
+      <c r="A27" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B27" t="s" s="21">
+      <c r="B27" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C27" t="s" s="82">
+      <c r="C27" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" t="s" s="21">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A28" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s" s="21">
+      <c r="B28" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s" s="82">
+      <c r="C28" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" ht="34" customHeight="1">
-      <c r="A29" t="s" s="21">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="34" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B29" t="s" s="21">
+      <c r="B29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C29" t="s" s="82">
+      <c r="C29" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" ht="17.25" customHeight="1">
-      <c r="A30" t="s" s="21">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A30" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B30" t="s" s="21">
+      <c r="B30" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s" s="82">
+      <c r="C30" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" ht="17.25" customHeight="1">
-      <c r="A31" t="s" s="21">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A31" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B31" t="s" s="21">
+      <c r="B31" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s" s="82">
+      <c r="C31" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" ht="34" customHeight="1">
-      <c r="A32" t="s" s="21">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="34" customHeight="1">
+      <c r="A32" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B32" t="s" s="21">
+      <c r="B32" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C32" t="s" s="82">
+      <c r="C32" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" ht="17.25" customHeight="1">
-      <c r="A33" t="s" s="21">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B33" t="s" s="21">
+      <c r="B33" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C33" t="s" s="82">
+      <c r="C33" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" ht="34" customHeight="1">
-      <c r="A34" t="s" s="21">
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" ht="34" customHeight="1">
+      <c r="A34" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B34" t="s" s="21">
+      <c r="B34" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C34" t="s" s="82">
+      <c r="C34" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" ht="51" customHeight="1">
-      <c r="A35" t="s" s="21">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="51" customHeight="1">
+      <c r="A35" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s" s="21">
+      <c r="B35" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s" s="82">
+      <c r="C35" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" ht="34" customHeight="1">
-      <c r="A36" t="s" s="21">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="34" customHeight="1">
+      <c r="A36" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B36" t="s" s="21">
+      <c r="B36" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C36" t="s" s="82">
+      <c r="C36" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" ht="34" customHeight="1">
-      <c r="A37" t="s" s="21">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" ht="34" customHeight="1">
+      <c r="A37" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s" s="21">
+      <c r="B37" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C37" t="s" s="82">
+      <c r="C37" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" ht="34" customHeight="1">
-      <c r="A38" t="s" s="21">
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" ht="34" customHeight="1">
+      <c r="A38" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B38" t="s" s="21">
+      <c r="B38" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="C38" t="s" s="82">
+      <c r="C38" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" ht="34" customHeight="1">
-      <c r="A39" t="s" s="21">
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" ht="34" customHeight="1">
+      <c r="A39" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B39" t="s" s="21">
+      <c r="B39" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C39" t="s" s="82">
+      <c r="C39" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" ht="34" customHeight="1">
-      <c r="A40" t="s" s="21">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="34" customHeight="1">
+      <c r="A40" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B40" t="s" s="21">
+      <c r="B40" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C40" t="s" s="82">
+      <c r="C40" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" ht="34" customHeight="1">
-      <c r="A41" t="s" s="21">
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" ht="34" customHeight="1">
+      <c r="A41" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B41" t="s" s="21">
+      <c r="B41" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C41" t="s" s="82">
+      <c r="C41" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" ht="34" customHeight="1">
-      <c r="A42" t="s" s="21">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" ht="34" customHeight="1">
+      <c r="A42" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="B42" t="s" s="21">
+      <c r="B42" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C42" t="s" s="82">
+      <c r="C42" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" ht="34" customHeight="1">
-      <c r="A43" t="s" s="21">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" ht="34" customHeight="1">
+      <c r="A43" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B43" t="s" s="21">
+      <c r="B43" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C43" t="s" s="82">
+      <c r="C43" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5498,147 +5508,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="20" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="20" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="20" customWidth="1"/>
-    <col min="6" max="256" width="11" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
+    <col min="4" max="5" width="20.46484375" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="21">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="21">
+      <c r="B1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="21">
+      <c r="C1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="21">
+      <c r="D1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="21">
+      <c r="E1" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="21">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="21">
+      <c r="B3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s" s="21">
+      <c r="C3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s" s="21">
+      <c r="E3" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="21">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s" s="21">
+      <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s" s="21">
+      <c r="C4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s" s="21">
+      <c r="D4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s" s="21">
+      <c r="E4" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="21">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s" s="21">
+      <c r="C5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s" s="21">
+      <c r="D5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s" s="21">
+      <c r="E5" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="21">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s" s="21">
+      <c r="B6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s" s="21">
+      <c r="C6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s" s="21">
+      <c r="D6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s" s="21">
+      <c r="E6" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" t="s" s="23">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s" s="21">
+      <c r="E9" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5646,650 +5656,652 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:E37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="24" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="24" customWidth="1"/>
-    <col min="3" max="3" width="25.3516" style="24" customWidth="1"/>
-    <col min="4" max="4" width="6.67188" style="24" customWidth="1"/>
-    <col min="5" max="5" width="7.67188" style="24" customWidth="1"/>
-    <col min="6" max="256" width="11" style="24" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="21">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s" s="21">
+      <c r="B1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s" s="21">
+      <c r="C1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s" s="21">
+      <c r="D1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s" s="21">
+      <c r="E1" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s" s="21">
+      <c r="C2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s" s="21">
+      <c r="D2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="21">
+      <c r="E2" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="25">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="21">
+      <c r="B3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s" s="21">
+      <c r="C3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s" s="21">
+      <c r="E3" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="21">
+      <c r="B4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s" s="21">
+      <c r="C4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s" s="21">
+      <c r="D4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s" s="21">
+      <c r="E4" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="s" s="21">
+      <c r="C5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s" s="21">
+      <c r="D5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s" s="21">
+      <c r="E5" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="25">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="21">
+      <c r="B6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s" s="21">
+      <c r="C6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s" s="21">
+      <c r="D6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s" s="21">
+      <c r="E6" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="25">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="21">
+      <c r="B7" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s" s="21">
+      <c r="C7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D7" t="s" s="21">
+      <c r="D7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s" s="21">
+      <c r="E7" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="25">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="21">
+      <c r="B8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s" s="21">
+      <c r="C8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D8" t="s" s="21">
+      <c r="D8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s" s="21">
+      <c r="E8" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="25">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="21">
+      <c r="B9" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s" s="21">
+      <c r="C9" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s" s="21">
+      <c r="D9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s" s="21">
+      <c r="E9" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="25">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="21">
+      <c r="B10" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s" s="21">
+      <c r="C10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D10" t="s" s="21">
+      <c r="D10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s" s="21">
+      <c r="E10" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="21">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s" s="21">
+      <c r="B11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="21">
+      <c r="C11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D11" t="s" s="21">
+      <c r="D11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s" s="21">
+      <c r="E11" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="21">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s" s="21">
+      <c r="B12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C12" t="s" s="21">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="s" s="21">
+      <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s" s="21">
+      <c r="E12" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="25">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="19">
         <v>2</v>
       </c>
-      <c r="B13" t="s" s="21">
+      <c r="B13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s" s="21">
+      <c r="C13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D13" t="s" s="21">
+      <c r="D13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s" s="21">
+      <c r="E13" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="21">
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s" s="21">
+      <c r="B14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s" s="21">
+      <c r="C14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D14" t="s" s="21">
+      <c r="D14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s" s="21">
+      <c r="E14" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="25">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" t="s" s="21">
+      <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s" s="21">
+      <c r="C15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s" s="21">
+      <c r="D15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s" s="21">
+      <c r="E15" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="25">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="19">
         <v>4</v>
       </c>
-      <c r="B16" t="s" s="21">
+      <c r="B16" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C16" t="s" s="21">
+      <c r="C16" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D16" t="s" s="21">
+      <c r="D16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="21">
+      <c r="E16" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="25">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="19">
         <v>2</v>
       </c>
-      <c r="B17" t="s" s="21">
+      <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C17" t="s" s="21">
+      <c r="C17" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s" s="21">
+      <c r="D17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s" s="21">
+      <c r="E17" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="25">
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="19">
         <v>2</v>
       </c>
-      <c r="B18" t="s" s="21">
+      <c r="B18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s" s="21">
+      <c r="C18" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D18" t="s" s="21">
+      <c r="D18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s" s="21">
+      <c r="E18" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="25">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="19">
         <v>3</v>
       </c>
-      <c r="B19" t="s" s="21">
+      <c r="B19" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s" s="21">
+      <c r="C19" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="25">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="19">
         <v>3</v>
       </c>
-      <c r="B20" t="s" s="21">
+      <c r="B20" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s" s="21">
+      <c r="C20" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="25">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="19">
         <v>2</v>
       </c>
-      <c r="B21" t="s" s="21">
+      <c r="B21" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s" s="21">
+      <c r="C21" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D21" t="s" s="21">
+      <c r="D21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s" s="21">
+      <c r="E21" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="25">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="19">
         <v>2</v>
       </c>
-      <c r="B22" t="s" s="21">
+      <c r="B22" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s" s="21">
+      <c r="C22" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D22" t="s" s="21">
+      <c r="D22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s" s="21">
+      <c r="E22" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="25">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="A23" s="19">
         <v>4</v>
       </c>
-      <c r="B23" t="s" s="21">
+      <c r="B23" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C23" t="s" s="21">
+      <c r="C23" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s" s="21">
+      <c r="D23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E23" t="s" s="21">
+      <c r="E23" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="25">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="19">
         <v>3</v>
       </c>
-      <c r="B24" t="s" s="21">
+      <c r="B24" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C24" t="s" s="21">
+      <c r="C24" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D24" t="s" s="21">
+      <c r="D24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s" s="21">
+      <c r="E24" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="25">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="19">
         <v>4</v>
       </c>
-      <c r="B25" t="s" s="21">
+      <c r="B25" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s" s="21">
+      <c r="C25" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D25" t="s" s="21">
+      <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" t="s" s="21">
+      <c r="E25" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="25">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="19">
         <v>4</v>
       </c>
-      <c r="B26" t="s" s="21">
+      <c r="B26" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s" s="21">
+      <c r="C26" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="25">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="A27" s="19">
         <v>3</v>
       </c>
-      <c r="B27" t="s" s="21">
+      <c r="B27" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C27" t="s" s="21">
+      <c r="C27" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D27" t="s" s="21">
+      <c r="D27" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s" s="21">
+      <c r="E27" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="25">
+    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="A28" s="19">
         <v>4</v>
       </c>
-      <c r="B28" t="s" s="21">
+      <c r="B28" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C28" t="s" s="21">
+      <c r="C28" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="25">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="A29" s="19">
         <v>2</v>
       </c>
-      <c r="B29" t="s" s="21">
+      <c r="B29" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C29" t="s" s="21">
+      <c r="C29" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s" s="21">
+      <c r="D29" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s" s="21">
+      <c r="E29" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="25">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="19">
         <v>3</v>
       </c>
-      <c r="B30" t="s" s="21">
+      <c r="B30" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C30" t="s" s="21">
+      <c r="C30" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s" s="21">
+      <c r="D30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E30" t="s" s="21">
+      <c r="E30" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="25">
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31" s="19">
         <v>4</v>
       </c>
-      <c r="B31" t="s" s="21">
+      <c r="B31" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C31" t="s" s="21">
+      <c r="C31" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s" s="21">
+      <c r="D31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E31" t="s" s="21">
+      <c r="E31" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="25">
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32" s="19">
         <v>4</v>
       </c>
-      <c r="B32" t="s" s="21">
+      <c r="B32" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C32" t="s" s="21">
+      <c r="C32" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="25">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A33" s="19">
         <v>3</v>
       </c>
-      <c r="B33" t="s" s="21">
+      <c r="B33" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s" s="21">
+      <c r="C33" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D33" t="s" s="26">
+      <c r="D33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E33" t="s" s="27">
+      <c r="E33" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" ht="21" customHeight="1">
-      <c r="A34" s="28">
+    <row r="34" spans="1:5" ht="21" customHeight="1">
+      <c r="A34" s="23">
         <v>4</v>
       </c>
-      <c r="B34" t="s" s="21">
+      <c r="B34" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C34" t="s" s="21">
+      <c r="C34" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D34" t="s" s="26">
+      <c r="D34" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E34" t="s" s="27">
+      <c r="E34" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="28">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="23">
         <v>4</v>
       </c>
-      <c r="B35" t="s" s="21">
+      <c r="B35" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C35" t="s" s="21">
+      <c r="C35" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D35" t="s" s="26">
+      <c r="D35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E35" t="s" s="27">
+      <c r="E35" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="29">
+    <row r="36" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A36" s="24">
         <v>4</v>
       </c>
-      <c r="B36" t="s" s="21">
+      <c r="B36" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C36" t="s" s="21">
+      <c r="C36" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D36" t="s" s="30">
+      <c r="D36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E36" t="s" s="31">
+      <c r="E36" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="32">
+    <row r="37" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A37" s="27">
         <v>4</v>
       </c>
-      <c r="B37" t="s" s="21">
+      <c r="B37" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="s" s="21">
+      <c r="C37" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D37" t="s" s="33">
+      <c r="D37" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E37" t="s" s="34">
+      <c r="E37" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="35">
+    <row r="38" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A38" s="30">
         <v>4</v>
       </c>
-      <c r="B38" t="s" s="21">
+      <c r="B38" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C38" t="s" s="21">
+      <c r="C38" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D38" t="s" s="36">
+      <c r="D38" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E38" t="s" s="37">
+      <c r="E38" s="32" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6297,512 +6309,511 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="38" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="15.8516" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="38" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="38" customWidth="1"/>
-    <col min="7" max="8" width="10.8516" style="38" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="38" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="7" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1">
-      <c r="A1" t="s" s="21">
+    <row r="1" spans="1:8" ht="13" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" ht="13" customHeight="1">
-      <c r="A2" t="s" s="21">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" ht="13" customHeight="1">
-      <c r="A3" t="s" s="21">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" t="s" s="21">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="13" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="13" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" ht="13" customHeight="1">
-      <c r="A6" t="s" s="21">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" ht="13" customHeight="1">
-      <c r="A8" t="s" s="21">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="13" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" ht="13" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" t="s" s="21">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="13" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="13" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" customHeight="1">
+      <c r="A14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s" s="21">
+      <c r="B14" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C14" t="s" s="39">
+      <c r="C14" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D14" t="s" s="21">
+      <c r="D14" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E14" t="s" s="39">
+      <c r="E14" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F14" t="s" s="39">
+      <c r="F14" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s" s="21">
+      <c r="G14" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" t="s" s="21">
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="34">
         <v>42046</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="35">
         <v>24</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="41">
+      <c r="D15" s="36"/>
+      <c r="E15" s="35">
         <v>0</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" t="s" s="21">
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="13" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="34">
         <v>42060</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="35">
         <v>18</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="36">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="35">
         <v>250</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="35">
         <v>120</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="37">
         <f>(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" ht="13" customHeight="1">
-      <c r="A17" t="s" s="21">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="34">
         <v>42087</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="35">
         <v>12</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="36">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="35">
         <v>480</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="38">
         <v>135</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="37">
         <f>(E17-E16)/F17*60</f>
-        <v>102.2222222222222</v>
-      </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" ht="13" customHeight="1">
-      <c r="A18" t="s" s="21">
+        <v>102.22222222222223</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="13" customHeight="1">
+      <c r="A18" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="34">
         <v>42101</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="35">
         <v>6</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="36">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="35">
         <v>740</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="38">
         <v>160</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="37">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" ht="13" customHeight="1">
-      <c r="A19" t="s" s="21">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="13" customHeight="1">
+      <c r="A19" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35">
         <v>0</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="36">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="35">
         <v>1100</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="38">
         <v>145</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="37">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" ht="13" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" ht="13" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" ht="13" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" ht="13" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" ht="13" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" ht="13" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" ht="13" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" ht="13" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" ht="13" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" ht="13" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" ht="13" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" ht="13" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" ht="13" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" ht="13" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" ht="13" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" ht="13" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" ht="13" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" ht="13" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" ht="13" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" ht="13" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="13" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="13" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="13" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="13" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="13" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="13" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="13" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="13" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="13" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="13" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" ht="13" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" ht="13" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="13" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" ht="13" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" ht="13" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" ht="13" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" ht="13" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" ht="13" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="1:8" ht="13" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="1:8" ht="13" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6811,316 +6822,315 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="48" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="48" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="48" customWidth="1"/>
-    <col min="4" max="4" width="7.17188" style="48" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="48" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="48" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="48" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="7" max="256" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1">
-      <c r="A1" t="s" s="21">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s" s="21">
+      <c r="B1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s" s="21">
+      <c r="C1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D1" t="s" s="21">
+      <c r="D1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E1" t="s" s="21">
+      <c r="E1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F1" t="s" s="21">
+      <c r="F1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" ht="13" customHeight="1">
-      <c r="A2" s="49">
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="13" customHeight="1">
+      <c r="A2" s="39">
         <v>42046</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="19">
         <v>32</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19">
         <v>0</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" ht="13" customHeight="1">
-      <c r="A3" s="49">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="13" customHeight="1">
+      <c r="A3" s="39">
         <v>42059</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="19">
         <v>24</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="19">
         <f>B2-B3</f>
         <v>8</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="19">
         <v>368</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="19">
         <v>565</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="40">
         <f>(D3-D2)/E3*60</f>
-        <v>39.07964601769911</v>
-      </c>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="51">
+        <v>39.079646017699112</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="13" customHeight="1">
+      <c r="A4" s="41">
         <v>42087</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="19">
         <v>16</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <v>8</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="19">
         <v>256</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>305</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="40">
         <v>51.2</v>
       </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="51">
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="13" customHeight="1">
+      <c r="A5" s="41">
         <v>42101</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="19">
         <v>8</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="19">
         <v>8</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="19">
         <v>194</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="19">
         <v>325</v>
       </c>
-      <c r="F5" s="25">
-        <v>35.8</v>
-      </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" ht="13" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" ht="13" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" ht="13" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" ht="13" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" ht="13" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" ht="13" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" ht="13" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" ht="13" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" ht="13" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" ht="13" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" ht="13" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" ht="13" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" ht="13" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="F5" s="19">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="13" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="13" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="13" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="13" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="13" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="13" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="13" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="13" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="13" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="13" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="13" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="13" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="13" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="13" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="13" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="13" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="13" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" ht="13" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" ht="13" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="13" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7129,699 +7139,699 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.67188" style="52" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="52" customWidth="1"/>
-    <col min="3" max="3" width="7.35156" style="52" customWidth="1"/>
-    <col min="4" max="4" width="8.35156" style="52" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="52" customWidth="1"/>
-    <col min="6" max="6" width="9.17188" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="52" customWidth="1"/>
-    <col min="8" max="8" width="9.35156" style="52" customWidth="1"/>
-    <col min="9" max="10" width="11" style="52" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="52" customWidth="1"/>
-    <col min="12" max="12" width="19.1719" style="52" customWidth="1"/>
-    <col min="13" max="13" width="13" style="52" customWidth="1"/>
-    <col min="14" max="14" width="1.85156" style="52" customWidth="1"/>
-    <col min="15" max="15" width="10.1719" style="52" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="52" customWidth="1"/>
-    <col min="17" max="17" width="10.1719" style="52" customWidth="1"/>
-    <col min="18" max="256" width="11" style="52" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="8.46484375" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.46484375" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="1.86328125" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" customWidth="1"/>
+    <col min="16" max="16" width="16.46484375" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" customWidth="1"/>
+    <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="23">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="53">
+      <c r="B1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s" s="23">
+      <c r="C1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s" s="23">
+      <c r="D1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s" s="54">
+      <c r="E1" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s" s="54">
+      <c r="F1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G1" t="s" s="54">
+      <c r="G1" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="H1" t="s" s="54">
+      <c r="H1" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="I1" t="s" s="54">
+      <c r="I1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" t="s" s="55">
+      <c r="J1" s="19"/>
+      <c r="K1" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="L1" t="s" s="55">
+      <c r="L1" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="M1" t="s" s="55">
+      <c r="M1" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" t="s" s="55">
+      <c r="N1" s="19"/>
+      <c r="O1" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="P1" t="s" s="55">
+      <c r="P1" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" t="s" s="55">
+      <c r="Q1" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="21">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="B2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s" s="21">
+      <c r="C2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s" s="21">
+      <c r="D2" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="19">
         <v>100</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="19">
         <v>90</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="19">
         <v>38</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="19">
         <v>45</v>
       </c>
-      <c r="I2" t="s" s="21">
+      <c r="I2" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" t="s" s="21">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L2" t="s" s="56">
+      <c r="L2" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="M2" t="s" s="21">
+      <c r="M2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" t="s" s="21">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P2" t="s" s="21">
+      <c r="P2" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="19">
         <v>113</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="21">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s" s="21">
+      <c r="B3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s" s="21">
+      <c r="C3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="19">
         <v>100</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="19">
         <v>90</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="19">
         <v>27</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="19">
         <v>25</v>
       </c>
-      <c r="I3" t="s" s="21">
+      <c r="I3" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" t="s" s="21">
+      <c r="J3" s="19"/>
+      <c r="K3" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L3" t="s" s="56">
+      <c r="L3" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="M3" t="s" s="21">
+      <c r="M3" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" t="s" s="21">
+      <c r="N3" s="19"/>
+      <c r="O3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P3" t="s" s="21">
+      <c r="P3" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="21">
+    <row r="4" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s" s="21">
+      <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s" s="21">
+      <c r="C4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s" s="21">
+      <c r="D4" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>102</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="19">
         <v>90</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="19">
         <v>38</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="19">
         <v>100</v>
       </c>
-      <c r="I4" t="s" s="21">
+      <c r="I4" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" t="s" s="21">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="L4" t="s" s="56">
+      <c r="L4" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="46">
         <v>48944</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" t="s" s="21">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="P4" t="s" s="56">
+      <c r="P4" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" t="s" s="21">
+    <row r="5" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s" s="21">
+      <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s" s="21">
+      <c r="D5" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="19">
         <v>100</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="19">
         <v>90</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="19">
         <v>8</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="19">
         <v>50</v>
       </c>
-      <c r="I5" t="s" s="21">
+      <c r="I5" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" t="s" s="21">
+      <c r="J5" s="19"/>
+      <c r="K5" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="L5" t="s" s="56">
+      <c r="L5" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="M5" t="s" s="21">
+      <c r="M5" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" t="s" s="21">
+      <c r="N5" s="19"/>
+      <c r="O5" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="P5" t="s" s="56">
+      <c r="P5" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" t="s" s="21">
+    <row r="6" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s" s="21">
+      <c r="B6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C6" t="s" s="21">
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s" s="21">
+      <c r="D6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="19">
         <v>90</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="19">
         <v>90</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="19">
         <v>77</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="19">
         <v>30</v>
       </c>
-      <c r="I6" t="s" s="21">
+      <c r="I6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" t="s" s="21">
+      <c r="J6" s="19"/>
+      <c r="K6" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="L6" t="s" s="56">
+      <c r="L6" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="M6" t="s" s="21">
+      <c r="M6" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" t="s" s="21">
+      <c r="N6" s="19"/>
+      <c r="O6" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="P6" t="s" s="56">
+      <c r="P6" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="19">
         <v>232</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" t="s" s="21">
+    <row r="7" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s" s="21">
+      <c r="B7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s" s="21">
+      <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="21">
+      <c r="D7" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="19">
         <v>100</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="19">
         <v>90</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="19">
         <v>114</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="19">
         <v>180</v>
       </c>
-      <c r="I7" t="s" s="21">
+      <c r="I7" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" t="s" s="21">
+      <c r="J7" s="19"/>
+      <c r="K7" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L7" t="s" s="56">
+      <c r="L7" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="M7" t="s" s="21">
+      <c r="M7" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" t="s" s="21">
+      <c r="N7" s="19"/>
+      <c r="O7" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="P7" t="s" s="56">
+      <c r="P7" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="19">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" t="s" s="21">
+    <row r="8" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s" s="21">
+      <c r="B8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s" s="21">
+      <c r="C8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s" s="21">
+      <c r="D8" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="19">
         <v>105</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="19">
         <v>90</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="19">
         <v>32</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="19">
         <v>75</v>
       </c>
-      <c r="I8" t="s" s="21">
+      <c r="I8" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" t="s" s="21">
+      <c r="J8" s="19"/>
+      <c r="K8" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L8" t="s" s="56">
+      <c r="L8" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="46">
         <v>51470</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" t="s" s="21">
+      <c r="N8" s="19"/>
+      <c r="O8" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="P8" t="s" s="56">
+      <c r="P8" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="19">
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" t="s" s="21">
+    <row r="9" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s" s="21">
+      <c r="B9" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s" s="21">
+      <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s" s="21">
+      <c r="D9" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="19">
         <v>100</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="19">
         <v>90</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="19">
         <v>34</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="19">
         <v>60</v>
       </c>
-      <c r="I9" t="s" s="21">
+      <c r="I9" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" t="s" s="21">
+      <c r="J9" s="19"/>
+      <c r="K9" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L9" t="s" s="56">
+      <c r="L9" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="M9" t="s" s="21">
+      <c r="M9" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" t="s" s="21">
+      <c r="N9" s="19"/>
+      <c r="O9" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="P9" t="s" s="56">
+      <c r="P9" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="19">
         <v>167</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" t="s" s="53">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" t="s" s="53">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C16" t="s" s="21">
+      <c r="C16" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="58"/>
-      <c r="C17" t="s" s="21">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="58"/>
-      <c r="C18" t="s" s="21">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" t="s" s="53">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="C20" t="s" s="21">
+      <c r="C20" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7829,712 +7839,712 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="59" customWidth="1"/>
-    <col min="2" max="2" width="20.6719" style="59" customWidth="1"/>
-    <col min="3" max="11" width="11" style="59" customWidth="1"/>
-    <col min="12" max="12" width="22.6719" style="59" customWidth="1"/>
-    <col min="13" max="14" width="11" style="59" customWidth="1"/>
-    <col min="15" max="15" width="19.3516" style="59" customWidth="1"/>
-    <col min="16" max="16" width="190.672" style="59" customWidth="1"/>
-    <col min="17" max="17" width="15" style="59" customWidth="1"/>
-    <col min="18" max="256" width="11" style="59" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="190.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="23">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="53">
+      <c r="B1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s" s="23">
+      <c r="C1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s" s="23">
+      <c r="D1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s" s="54">
+      <c r="E1" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s" s="54">
+      <c r="F1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G1" t="s" s="54">
+      <c r="G1" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="H1" t="s" s="54">
+      <c r="H1" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="I1" t="s" s="54">
+      <c r="I1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" t="s" s="55">
+      <c r="J1" s="24"/>
+      <c r="K1" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="L1" t="s" s="55">
+      <c r="L1" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="M1" t="s" s="55">
+      <c r="M1" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" t="s" s="55">
+      <c r="N1" s="19"/>
+      <c r="O1" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="P1" t="s" s="55">
+      <c r="P1" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" t="s" s="55">
+      <c r="Q1" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="21">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s" s="21">
+      <c r="C2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s" s="21">
+      <c r="D2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="19">
         <v>115</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="19">
         <v>90</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="19">
         <v>42</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="19">
         <v>25</v>
       </c>
-      <c r="I2" t="s" s="21">
+      <c r="I2" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" t="s" s="21">
+      <c r="J2" s="27"/>
+      <c r="K2" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L2" t="s" s="56">
+      <c r="L2" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="M2" t="s" s="21">
+      <c r="M2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" t="s" s="21">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="P2" t="s" s="21">
+      <c r="P2" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="21">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="21">
+      <c r="B3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C3" t="s" s="21">
+      <c r="C3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="19">
         <v>100</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="19">
         <v>90</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="19">
         <v>33</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="19">
         <v>35</v>
       </c>
-      <c r="I3" t="s" s="21">
+      <c r="I3" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" t="s" s="21">
+      <c r="J3" s="27"/>
+      <c r="K3" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="L3" t="s" s="56">
+      <c r="L3" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="M3" t="s" s="21">
+      <c r="M3" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" t="s" s="21">
+      <c r="N3" s="19"/>
+      <c r="O3" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="P3" t="s" s="21">
+      <c r="P3" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="21">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s" s="21">
+      <c r="B4" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s" s="21">
+      <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s" s="21">
+      <c r="D4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>80</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="19">
         <v>90</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="19">
         <v>16</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="19">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="21">
+      <c r="I4" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" t="s" s="21">
+      <c r="J4" s="27"/>
+      <c r="K4" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="L4" t="s" s="56">
+      <c r="L4" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="46">
         <v>48944</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" t="s" s="21">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="P4" t="s" s="56">
+      <c r="P4" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="21">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s" s="21">
+      <c r="C5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s" s="21">
+      <c r="D5" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="19">
         <v>100</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="19">
         <v>90</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="19">
         <v>21</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="19">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="21">
+      <c r="I5" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="61"/>
-      <c r="K5" t="s" s="21">
+      <c r="J5" s="27"/>
+      <c r="K5" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="L5" t="s" s="56">
+      <c r="L5" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="M5" t="s" s="21">
+      <c r="M5" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" t="s" s="21">
+      <c r="N5" s="19"/>
+      <c r="O5" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="P5" t="s" s="56">
+      <c r="P5" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="21">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s" s="21">
+      <c r="B6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s" s="21">
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s" s="21">
+      <c r="D6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="19">
         <v>90</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="19">
         <v>90</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="19">
         <v>46</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="19">
         <v>20</v>
       </c>
-      <c r="I6" t="s" s="21">
+      <c r="I6" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" t="s" s="21">
+      <c r="J6" s="27"/>
+      <c r="K6" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L6" t="s" s="56">
+      <c r="L6" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="M6" t="s" s="21">
+      <c r="M6" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" t="s" s="21">
+      <c r="N6" s="19"/>
+      <c r="O6" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="P6" t="s" s="56">
+      <c r="P6" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="19">
         <v>232</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="21">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B7" t="s" s="21">
+      <c r="B7" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s" s="21">
+      <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="21">
+      <c r="D7" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="19">
         <v>95</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="19">
         <v>90</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="19">
         <v>10</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="19">
         <v>10</v>
       </c>
-      <c r="I7" t="s" s="21">
+      <c r="I7" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" t="s" s="21">
+      <c r="J7" s="27"/>
+      <c r="K7" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L7" t="s" s="56">
+      <c r="L7" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="M7" t="s" s="21">
+      <c r="M7" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" t="s" s="21">
+      <c r="N7" s="19"/>
+      <c r="O7" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="P7" t="s" s="56">
+      <c r="P7" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="19">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="21">
+    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s" s="21">
+      <c r="B8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C8" t="s" s="21">
+      <c r="C8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s" s="21">
+      <c r="D8" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="19">
         <v>98</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="19">
         <v>90</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="19">
         <v>42</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="19">
         <v>90</v>
       </c>
-      <c r="I8" t="s" s="21">
+      <c r="I8" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" t="s" s="21">
+      <c r="J8" s="27"/>
+      <c r="K8" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L8" t="s" s="56">
+      <c r="L8" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="46">
         <v>51470</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" t="s" s="21">
+      <c r="N8" s="19"/>
+      <c r="O8" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="P8" t="s" s="56">
+      <c r="P8" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="19">
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="21">
+    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B9" t="s" s="21">
+      <c r="B9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s" s="21">
+      <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s" s="21">
+      <c r="D9" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="19">
         <v>105</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="19">
         <v>90</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="19">
         <v>46</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="19">
         <v>90</v>
       </c>
-      <c r="I9" t="s" s="21">
+      <c r="I9" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" t="s" s="21">
+      <c r="J9" s="27"/>
+      <c r="K9" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L9" t="s" s="56">
+      <c r="L9" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="M9" t="s" s="21">
+      <c r="M9" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" t="s" s="21">
+      <c r="N9" s="19"/>
+      <c r="O9" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="P9" t="s" s="56">
+      <c r="P9" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="19">
         <v>167</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" t="s" s="53">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" t="s" s="53">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C15" t="s" s="21">
+      <c r="C15" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="58"/>
-      <c r="C16" t="s" s="21">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" t="s" s="53">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="C19" t="s" s="21">
+      <c r="C19" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" t="s" s="39">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" t="s" s="63">
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="19"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8542,725 +8552,724 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="64" customWidth="1"/>
-    <col min="2" max="2" width="22.6719" style="64" customWidth="1"/>
-    <col min="3" max="9" width="11" style="64" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="64" customWidth="1"/>
-    <col min="11" max="11" width="16" style="64" customWidth="1"/>
-    <col min="12" max="16" width="11" style="64" customWidth="1"/>
-    <col min="17" max="256" width="11" style="64" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="20.46484375" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="65">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="65">
+      <c r="B1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s" s="65">
+      <c r="C1" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s" s="65">
+      <c r="D1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s" s="66">
+      <c r="E1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s" s="66">
+      <c r="F1" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="G1" t="s" s="66">
+      <c r="G1" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="H1" t="s" s="66">
+      <c r="H1" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I1" t="s" s="66">
+      <c r="I1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s" s="67">
+      <c r="J1" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="K1" t="s" s="67">
+      <c r="K1" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="L1" t="s" s="67">
+      <c r="L1" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" t="s" s="67">
+      <c r="M1" s="53"/>
+      <c r="N1" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="O1" t="s" s="67">
+      <c r="O1" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="P1" t="s" s="67">
+      <c r="P1" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="69">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s" s="69">
+      <c r="B2" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s" s="69">
+      <c r="C2" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D2" t="s" s="69">
+      <c r="D2" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="53">
         <v>50</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="53">
         <v>50</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="53">
         <v>35</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="53">
         <v>30</v>
       </c>
-      <c r="I2" t="s" s="69">
+      <c r="I2" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="J2" t="s" s="69">
+      <c r="J2" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="K2" t="s" s="69">
+      <c r="K2" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="L2" t="s" s="69">
+      <c r="L2" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" t="s" s="69">
+      <c r="M2" s="53"/>
+      <c r="N2" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="O2" t="s" s="69">
+      <c r="O2" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="71">
+      <c r="P2" s="55">
         <v>236</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="69">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="A3" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s" s="69">
+      <c r="B3" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s" s="69">
+      <c r="C3" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D3" t="s" s="69">
+      <c r="D3" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="53">
         <v>50</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="53">
         <v>50</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="53">
         <v>29</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="53">
         <v>30</v>
       </c>
-      <c r="I3" t="s" s="69">
+      <c r="I3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="J3" t="s" s="69">
+      <c r="J3" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="K3" t="s" s="69">
+      <c r="K3" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="L3" t="s" s="69">
+      <c r="L3" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" t="s" s="69">
+      <c r="M3" s="53"/>
+      <c r="N3" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="O3" t="s" s="69">
+      <c r="O3" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="P3" s="71">
+      <c r="P3" s="55">
         <v>96</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="69">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
+      <c r="A4" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s" s="69">
+      <c r="B4" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s" s="69">
+      <c r="C4" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D4" t="s" s="69">
+      <c r="D4" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="53">
         <v>70</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="53">
         <v>90</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="53">
         <v>38</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="53">
         <v>90</v>
       </c>
-      <c r="I4" t="s" s="69">
+      <c r="I4" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="J4" t="s" s="69">
+      <c r="J4" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="K4" t="s" s="72">
+      <c r="K4" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="L4" t="s" s="69">
+      <c r="L4" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" t="s" s="69">
+      <c r="M4" s="53"/>
+      <c r="N4" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="O4" t="s" s="73">
+      <c r="O4" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="P4" s="71">
+      <c r="P4" s="55">
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="69">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s" s="69">
+      <c r="B5" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s" s="69">
+      <c r="C5" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D5" t="s" s="69">
+      <c r="D5" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="53">
         <v>50</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="53">
         <v>60</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="53">
         <v>30</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="53">
         <v>90</v>
       </c>
-      <c r="I5" t="s" s="69">
+      <c r="I5" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="J5" t="s" s="69">
+      <c r="J5" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="K5" t="s" s="72">
+      <c r="K5" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="L5" t="s" s="69">
+      <c r="L5" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" t="s" s="69">
+      <c r="M5" s="53"/>
+      <c r="N5" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="O5" t="s" s="73">
+      <c r="O5" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="P5" s="71">
+      <c r="P5" s="55">
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="69">
+    <row r="6" spans="1:16" ht="15" customHeight="1">
+      <c r="A6" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B6" t="s" s="69">
+      <c r="B6" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s" s="69">
+      <c r="C6" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s" s="69">
+      <c r="D6" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="53">
         <v>50</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="53">
         <v>60</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="53">
         <v>20</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="53">
         <v>30</v>
       </c>
-      <c r="I6" t="s" s="69">
+      <c r="I6" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="J6" t="s" s="69">
+      <c r="J6" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="K6" t="s" s="72">
+      <c r="K6" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="L6" t="s" s="69">
+      <c r="L6" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="M6" s="68"/>
-      <c r="N6" t="s" s="69">
+      <c r="M6" s="53"/>
+      <c r="N6" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="O6" t="s" s="73">
+      <c r="O6" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="P6" s="71">
+      <c r="P6" s="55">
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="69">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="A7" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s" s="69">
+      <c r="B7" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C7" t="s" s="69">
+      <c r="C7" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="69">
+      <c r="D7" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="53">
         <v>50</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="53">
         <v>60</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="53">
         <v>16</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="53">
         <v>15</v>
       </c>
-      <c r="I7" t="s" s="69">
+      <c r="I7" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="J7" t="s" s="69">
+      <c r="J7" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="K7" t="s" s="72">
+      <c r="K7" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="L7" t="s" s="69">
+      <c r="L7" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="M7" s="68"/>
-      <c r="N7" t="s" s="69">
+      <c r="M7" s="53"/>
+      <c r="N7" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s" s="73">
+      <c r="O7" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="P7" s="71">
+      <c r="P7" s="55">
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="69">
+    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="A8" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B8" t="s" s="69">
+      <c r="B8" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="C8" t="s" s="69">
+      <c r="C8" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s" s="69">
+      <c r="D8" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="53">
         <v>60</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="53">
         <v>45</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="53">
         <v>10</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="53">
         <v>20</v>
       </c>
-      <c r="I8" t="s" s="69">
+      <c r="I8" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="J8" t="s" s="69">
+      <c r="J8" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="K8" t="s" s="72">
+      <c r="K8" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="L8" t="s" s="69">
+      <c r="L8" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" t="s" s="69">
+      <c r="M8" s="53"/>
+      <c r="N8" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="O8" t="s" s="73">
+      <c r="O8" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="P8" s="71">
+      <c r="P8" s="55">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="69">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s" s="69">
+      <c r="B9" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="C9" t="s" s="69">
+      <c r="C9" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s" s="69">
+      <c r="D9" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="53">
         <v>65</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="53">
         <v>40</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="53">
         <v>16</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="53">
         <v>20</v>
       </c>
-      <c r="I9" t="s" s="69">
+      <c r="I9" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="J9" t="s" s="69">
+      <c r="J9" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="K9" t="s" s="72">
+      <c r="K9" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="L9" t="s" s="69">
+      <c r="L9" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" t="s" s="69">
+      <c r="M9" s="53"/>
+      <c r="N9" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="O9" t="s" s="73">
+      <c r="O9" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="P9" s="71">
+      <c r="P9" s="55">
         <v>67</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" t="s" s="53">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="60"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" t="s" s="53">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C17" t="s" s="21">
+      <c r="C17" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58"/>
-      <c r="C18" t="s" s="21">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="21"/>
-      <c r